--- a/outputs_HGR/p__Actinobacteria.xlsx
+++ b/outputs_HGR/p__Actinobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F373"/>
+  <dimension ref="A1:F358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,17 +729,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10635.fa</t>
+          <t>even_MAG-GUT1065.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9990183658113798</v>
+        <v>0.9994402129491413</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009816341886202096</v>
+        <v>0.0005597870508586526</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9990183658113798</v>
+        <v>0.9994402129491413</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -755,17 +755,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1065.fa</t>
+          <t>even_MAG-GUT1089.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9994402129491413</v>
+        <v>0.9997820063831647</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005597870508586526</v>
+        <v>0.0002179936168352963</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9994402129491413</v>
+        <v>0.9997820063831647</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -781,43 +781,43 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10734.fa</t>
+          <t>even_MAG-GUT10928.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6367913186769951</v>
+        <v>0.0004108901347757987</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3632086813230049</v>
+        <v>0.9995891098652242</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6367913186769951</v>
+        <v>0.9995891098652242</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1089.fa</t>
+          <t>even_MAG-GUT1122.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9997820063831647</v>
+        <v>0.9998407793851726</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002179936168352963</v>
+        <v>0.0001592206148274613</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9997820063831647</v>
+        <v>0.9998407793851726</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -833,43 +833,43 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10928.fa</t>
+          <t>even_MAG-GUT1128.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0004108901347757987</v>
+        <v>0.9983619091662331</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9995891098652242</v>
+        <v>0.001638090833766872</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9995891098652242</v>
+        <v>0.9983619091662331</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1122.fa</t>
+          <t>even_MAG-GUT1131.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998407793851726</v>
+        <v>0.9967260696012307</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001592206148274613</v>
+        <v>0.003273930398769373</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9998407793851726</v>
+        <v>0.9967260696012307</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -885,17 +885,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1128.fa</t>
+          <t>even_MAG-GUT1133.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9983619091662331</v>
+        <v>0.9993349492584241</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001638090833766872</v>
+        <v>0.0006650507415759104</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9983619091662331</v>
+        <v>0.9993349492584241</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -911,17 +911,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1131.fa</t>
+          <t>even_MAG-GUT1135.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9967260696012307</v>
+        <v>0.9973432173855207</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003273930398769373</v>
+        <v>0.002656782614479348</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9967260696012307</v>
+        <v>0.9973432173855207</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -937,17 +937,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1133.fa</t>
+          <t>even_MAG-GUT1139.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9993349492584241</v>
+        <v>0.9990143308499805</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0006650507415759104</v>
+        <v>0.000985669150019468</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9993349492584241</v>
+        <v>0.9990143308499805</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -963,17 +963,17 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1135.fa</t>
+          <t>even_MAG-GUT1143.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9973432173855207</v>
+        <v>0.9985715306140792</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002656782614479348</v>
+        <v>0.001428469385920786</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9973432173855207</v>
+        <v>0.9985715306140792</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -989,17 +989,17 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1139.fa</t>
+          <t>even_MAG-GUT1148.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9990143308499805</v>
+        <v>0.9987723468118058</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000985669150019468</v>
+        <v>0.001227653188194187</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9990143308499805</v>
+        <v>0.9987723468118058</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1015,17 +1015,17 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1143.fa</t>
+          <t>even_MAG-GUT1149.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9985715306140792</v>
+        <v>0.9997209793272315</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001428469385920786</v>
+        <v>0.0002790206727685496</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9985715306140792</v>
+        <v>0.9997209793272315</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1041,43 +1041,43 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1148.fa</t>
+          <t>even_MAG-GUT11526.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9987723468118058</v>
+        <v>0.2204527186409241</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001227653188194187</v>
+        <v>0.779547281359076</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9987723468118058</v>
+        <v>0.779547281359076</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1149.fa</t>
+          <t>even_MAG-GUT1157.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9997209793272315</v>
+        <v>0.9974670333430458</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0002790206727685496</v>
+        <v>0.002532966656954232</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9997209793272315</v>
+        <v>0.9974670333430458</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1093,43 +1093,43 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11526.fa</t>
+          <t>even_MAG-GUT11934.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2204527186409241</v>
+        <v>0.9999966188478729</v>
       </c>
       <c r="C26" t="n">
-        <v>0.779547281359076</v>
+        <v>3.381152127048581e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>0.779547281359076</v>
+        <v>0.9999966188478729</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1157.fa</t>
+          <t>even_MAG-GUT12030.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9974670333430458</v>
+        <v>0.9272768913198561</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002532966656954232</v>
+        <v>0.07272310868014392</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9974670333430458</v>
+        <v>0.9272768913198561</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1145,17 +1145,17 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11820.fa</t>
+          <t>even_MAG-GUT12393.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07071003573488666</v>
+        <v>5.41758373027168e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9292899642651133</v>
+        <v>0.9999458241626973</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9292899642651133</v>
+        <v>0.9999458241626973</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1171,17 +1171,17 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11934.fa</t>
+          <t>even_MAG-GUT1249.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9999966188478729</v>
+        <v>0.9991699538732369</v>
       </c>
       <c r="C29" t="n">
-        <v>3.381152127048581e-06</v>
+        <v>0.0008300461267630471</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9999966188478729</v>
+        <v>0.9991699538732369</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1197,17 +1197,17 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12393.fa</t>
+          <t>even_MAG-GUT12533.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.41758373027168e-05</v>
+        <v>0.002723289051451916</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9999458241626973</v>
+        <v>0.9972767109485481</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9999458241626973</v>
+        <v>0.9972767109485481</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1223,17 +1223,17 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1249.fa</t>
+          <t>even_MAG-GUT1258.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9991699538732369</v>
+        <v>0.9976815573306254</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0008300461267630471</v>
+        <v>0.002318442669374633</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9991699538732369</v>
+        <v>0.9976815573306254</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1249,69 +1249,69 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12533.fa</t>
+          <t>even_MAG-GUT1265.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002723289051451916</v>
+        <v>0.9991123950469909</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9972767109485481</v>
+        <v>0.000887604953009131</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9972767109485481</v>
+        <v>0.9991123950469909</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1258.fa</t>
+          <t>even_MAG-GUT12691.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9976815573306254</v>
+        <v>1.271190939555744e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002318442669374633</v>
+        <v>0.9999872880906044</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9976815573306254</v>
+        <v>0.9999872880906044</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1265.fa</t>
+          <t>even_MAG-GUT1274.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9991123950469909</v>
+        <v>0.9997049020077674</v>
       </c>
       <c r="C34" t="n">
-        <v>0.000887604953009131</v>
+        <v>0.0002950979922325817</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9991123950469909</v>
+        <v>0.9997049020077674</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1327,43 +1327,43 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12691.fa</t>
+          <t>even_MAG-GUT12797.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.271190939555744e-05</v>
+        <v>0.9960295957957535</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9999872880906044</v>
+        <v>0.003970404204246509</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9999872880906044</v>
+        <v>0.9960295957957535</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1274.fa</t>
+          <t>even_MAG-GUT1282.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9997049020077674</v>
+        <v>0.9997473462979601</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0002950979922325817</v>
+        <v>0.0002526537020398537</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9997049020077674</v>
+        <v>0.9997473462979601</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1379,17 +1379,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12797.fa</t>
+          <t>even_MAG-GUT1287.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9960295957957535</v>
+        <v>0.9968624434886357</v>
       </c>
       <c r="C37" t="n">
-        <v>0.003970404204246509</v>
+        <v>0.003137556511364309</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9960295957957535</v>
+        <v>0.9968624434886357</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1405,69 +1405,69 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1282.fa</t>
+          <t>even_MAG-GUT13333.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9997473462979601</v>
+        <v>0.002434627715456106</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0002526537020398537</v>
+        <v>0.9975653722845439</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9997473462979601</v>
+        <v>0.9975653722845439</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1287.fa</t>
+          <t>even_MAG-GUT1389.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9968624434886357</v>
+        <v>0.0004931550076074931</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003137556511364309</v>
+        <v>0.9995068449923925</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9968624434886357</v>
+        <v>0.9995068449923925</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13333.fa</t>
+          <t>even_MAG-GUT14027.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.002434627715456106</v>
+        <v>0.09624868527763386</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9975653722845439</v>
+        <v>0.9037513147223661</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9975653722845439</v>
+        <v>0.9037513147223661</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1483,95 +1483,95 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1389.fa</t>
+          <t>even_MAG-GUT1453.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0004931550076074931</v>
+        <v>0.9990324686239811</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9995068449923925</v>
+        <v>0.0009675313760189423</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9995068449923925</v>
+        <v>0.9990324686239811</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14027.fa</t>
+          <t>even_MAG-GUT1485.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.09624868527763386</v>
+        <v>0.9989194098924844</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9037513147223661</v>
+        <v>0.001080590107515649</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9037513147223661</v>
+        <v>0.9989194098924844</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1453.fa</t>
+          <t>even_MAG-GUT151.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9990324686239811</v>
+        <v>0.006166954690585813</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0009675313760189423</v>
+        <v>0.9938330453094142</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9990324686239811</v>
+        <v>0.9938330453094142</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1485.fa</t>
+          <t>even_MAG-GUT1529.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9989194098924844</v>
+        <v>0.9998088490061109</v>
       </c>
       <c r="C44" t="n">
-        <v>0.001080590107515649</v>
+        <v>0.0001911509938890705</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9989194098924844</v>
+        <v>0.9998088490061109</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1587,43 +1587,43 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT151.fa</t>
+          <t>even_MAG-GUT1534.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.006166954690585813</v>
+        <v>0.9987464027740527</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9938330453094142</v>
+        <v>0.001253597225947351</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9938330453094142</v>
+        <v>0.9987464027740527</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1529.fa</t>
+          <t>even_MAG-GUT1537.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9998088490061109</v>
+        <v>0.9996850931012559</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0001911509938890705</v>
+        <v>0.0003149068987441283</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9998088490061109</v>
+        <v>0.9996850931012559</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1639,69 +1639,69 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1534.fa</t>
+          <t>even_MAG-GUT15850.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9987464027740527</v>
+        <v>2.596619202921424e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>0.001253597225947351</v>
+        <v>0.9999740338079708</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9987464027740527</v>
+        <v>0.9999740338079708</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1537.fa</t>
+          <t>even_MAG-GUT15909.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9996850931012559</v>
+        <v>0.004334498994773672</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0003149068987441283</v>
+        <v>0.9956655010052263</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9996850931012559</v>
+        <v>0.9956655010052263</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15850.fa</t>
+          <t>even_MAG-GUT16851.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.596619202921424e-05</v>
+        <v>8.223614777591592e-06</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9999740338079708</v>
+        <v>0.9999917763852224</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9999740338079708</v>
+        <v>0.9999917763852224</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1717,17 +1717,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15909.fa</t>
+          <t>even_MAG-GUT17247.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.004334498994773672</v>
+        <v>0.001455377860978491</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9956655010052263</v>
+        <v>0.9985446221390215</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9956655010052263</v>
+        <v>0.9985446221390215</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1743,17 +1743,17 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16851.fa</t>
+          <t>even_MAG-GUT17705.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>8.223614777591592e-06</v>
+        <v>0.01009761533138387</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9999917763852224</v>
+        <v>0.9899023846686161</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9999917763852224</v>
+        <v>0.9899023846686161</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1769,43 +1769,43 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17247.fa</t>
+          <t>even_MAG-GUT1826.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.001455377860978491</v>
+        <v>0.9999881591864158</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9985446221390215</v>
+        <v>1.184081358420786e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9985446221390215</v>
+        <v>0.9999881591864158</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17705.fa</t>
+          <t>even_MAG-GUT18429.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01009761533138387</v>
+        <v>4.732034038379407e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9899023846686161</v>
+        <v>0.9999526796596162</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9899023846686161</v>
+        <v>0.9999526796596162</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1821,17 +1821,17 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1826.fa</t>
+          <t>even_MAG-GUT1870.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9999881591864158</v>
+        <v>0.9993462810210062</v>
       </c>
       <c r="C54" t="n">
-        <v>1.184081358420786e-05</v>
+        <v>0.0006537189789937616</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9999881591864158</v>
+        <v>0.9993462810210062</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1847,43 +1847,43 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18429.fa</t>
+          <t>even_MAG-GUT1873.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.732034038379407e-05</v>
+        <v>0.9984937663832439</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9999526796596162</v>
+        <v>0.001506233616756015</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9999526796596162</v>
+        <v>0.9984937663832439</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1870.fa</t>
+          <t>even_MAG-GUT1877.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9993462810210062</v>
+        <v>0.9988063160322053</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0006537189789937616</v>
+        <v>0.00119368396779476</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9993462810210062</v>
+        <v>0.9988063160322053</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1899,17 +1899,17 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1873.fa</t>
+          <t>even_MAG-GUT1881.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9984937663832439</v>
+        <v>0.9992854262889458</v>
       </c>
       <c r="C57" t="n">
-        <v>0.001506233616756015</v>
+        <v>0.0007145737110542317</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9984937663832439</v>
+        <v>0.9992854262889458</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1925,17 +1925,17 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1877.fa</t>
+          <t>even_MAG-GUT1883.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9988063160322053</v>
+        <v>0.9991851070475541</v>
       </c>
       <c r="C58" t="n">
-        <v>0.00119368396779476</v>
+        <v>0.0008148929524458869</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9988063160322053</v>
+        <v>0.9991851070475541</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1951,17 +1951,17 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1881.fa</t>
+          <t>even_MAG-GUT1912.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9992854262889458</v>
+        <v>0.9978962082442892</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0007145737110542317</v>
+        <v>0.002103791755710889</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9992854262889458</v>
+        <v>0.9978962082442892</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1977,69 +1977,69 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1883.fa</t>
+          <t>even_MAG-GUT1975.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9991851070475541</v>
+        <v>0.000302966929758508</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0008148929524458869</v>
+        <v>0.9996970330702415</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9991851070475541</v>
+        <v>0.9996970330702415</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1912.fa</t>
+          <t>even_MAG-GUT1986.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9978962082442892</v>
+        <v>0.0002109378768231362</v>
       </c>
       <c r="C61" t="n">
-        <v>0.002103791755710889</v>
+        <v>0.9997890621231769</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9978962082442892</v>
+        <v>0.9997890621231769</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1975.fa</t>
+          <t>even_MAG-GUT20293.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.000302966929758508</v>
+        <v>0.0005734663284825414</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9996970330702415</v>
+        <v>0.9994265336715175</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9996970330702415</v>
+        <v>0.9994265336715175</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2055,69 +2055,69 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1986.fa</t>
+          <t>even_MAG-GUT2058.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0002109378768231362</v>
+        <v>0.9999262453482755</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9997890621231769</v>
+        <v>7.375465172450452e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9997890621231769</v>
+        <v>0.9999262453482755</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20293.fa</t>
+          <t>even_MAG-GUT2078.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0005734663284825414</v>
+        <v>0.9999897401177689</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9994265336715175</v>
+        <v>1.025988223114302e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9994265336715175</v>
+        <v>0.9999897401177689</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2058.fa</t>
+          <t>even_MAG-GUT2079.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9999262453482755</v>
+        <v>0.9999983845569275</v>
       </c>
       <c r="C65" t="n">
-        <v>7.375465172450452e-05</v>
+        <v>1.615443072509262e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9999262453482755</v>
+        <v>0.9999983845569275</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2133,69 +2133,69 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2078.fa</t>
+          <t>even_MAG-GUT21962.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9999897401177689</v>
+        <v>0.009029879254083273</v>
       </c>
       <c r="C66" t="n">
-        <v>1.025988223114302e-05</v>
+        <v>0.9909701207459167</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9999897401177689</v>
+        <v>0.9909701207459167</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2079.fa</t>
+          <t>even_MAG-GUT22751.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9999983845569275</v>
+        <v>0.1919005751649439</v>
       </c>
       <c r="C67" t="n">
-        <v>1.615443072509262e-06</v>
+        <v>0.8080994248350561</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9999983845569275</v>
+        <v>0.8080994248350561</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21168.fa</t>
+          <t>even_MAG-GUT23346.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.999999994966011</v>
+        <v>0.9999949839648279</v>
       </c>
       <c r="C68" t="n">
-        <v>5.0339889799917e-09</v>
+        <v>5.01603517216352e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>0.999999994966011</v>
+        <v>0.9999949839648279</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2211,43 +2211,43 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21962.fa</t>
+          <t>even_MAG-GUT23723.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.009029879254083273</v>
+        <v>0.9999668794982766</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9909701207459167</v>
+        <v>3.312050172345233e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9909701207459167</v>
+        <v>0.9999668794982766</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22751.fa</t>
+          <t>even_MAG-GUT23753.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1919005751649439</v>
+        <v>0.000312125511624739</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8080994248350561</v>
+        <v>0.9996878744883753</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8080994248350561</v>
+        <v>0.9996878744883753</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2263,43 +2263,43 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23346.fa</t>
+          <t>even_MAG-GUT23967.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9999949839648279</v>
+        <v>0.1419733680290579</v>
       </c>
       <c r="C71" t="n">
-        <v>5.01603517216352e-06</v>
+        <v>0.8580266319709422</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9999949839648279</v>
+        <v>0.8580266319709422</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23723.fa</t>
+          <t>even_MAG-GUT24184.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9999668794982766</v>
+        <v>0.5259850370675535</v>
       </c>
       <c r="C72" t="n">
-        <v>3.312050172345233e-05</v>
+        <v>0.4740149629324465</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9999668794982766</v>
+        <v>0.5259850370675535</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2315,17 +2315,17 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23753.fa</t>
+          <t>even_MAG-GUT25519.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.000312125511624739</v>
+        <v>0.02729899096109967</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9996878744883753</v>
+        <v>0.9727010090389003</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9996878744883753</v>
+        <v>0.9727010090389003</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2341,17 +2341,17 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23967.fa</t>
+          <t>even_MAG-GUT25763.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1419733680290579</v>
+        <v>9.617137333606252e-06</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8580266319709422</v>
+        <v>0.9999903828626664</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8580266319709422</v>
+        <v>0.9999903828626664</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2367,43 +2367,43 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24184.fa</t>
+          <t>even_MAG-GUT25961.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.5259850370675535</v>
+        <v>1.699187429649029e-06</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4740149629324465</v>
+        <v>0.9999983008125704</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5259850370675535</v>
+        <v>0.9999983008125704</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25519.fa</t>
+          <t>even_MAG-GUT26205.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.02729899096109967</v>
+        <v>3.956551486439253e-08</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9727010090389003</v>
+        <v>0.9999999604344851</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9727010090389003</v>
+        <v>0.9999999604344851</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2419,17 +2419,17 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25763.fa</t>
+          <t>even_MAG-GUT26303.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9.617137333606252e-06</v>
+        <v>1.651843910499551e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9999903828626664</v>
+        <v>0.999983481560895</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9999903828626664</v>
+        <v>0.999983481560895</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2445,17 +2445,17 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25961.fa</t>
+          <t>even_MAG-GUT26387.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.699187429649029e-06</v>
+        <v>9.904016241013558e-06</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9999983008125704</v>
+        <v>0.999990095983759</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9999983008125704</v>
+        <v>0.999990095983759</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2471,17 +2471,17 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26205.fa</t>
+          <t>even_MAG-GUT26459.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3.956551486439253e-08</v>
+        <v>1.025442243951513e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9999999604344851</v>
+        <v>0.9999897455775605</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9999999604344851</v>
+        <v>0.9999897455775605</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2497,17 +2497,17 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26303.fa</t>
+          <t>even_MAG-GUT26531.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.651843910499551e-05</v>
+        <v>0.0004328991384430214</v>
       </c>
       <c r="C80" t="n">
-        <v>0.999983481560895</v>
+        <v>0.999567100861557</v>
       </c>
       <c r="D80" t="n">
-        <v>0.999983481560895</v>
+        <v>0.999567100861557</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2523,17 +2523,17 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26387.fa</t>
+          <t>even_MAG-GUT26562.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9.904016241013558e-06</v>
+        <v>4.455290792515498e-06</v>
       </c>
       <c r="C81" t="n">
-        <v>0.999990095983759</v>
+        <v>0.9999955447092075</v>
       </c>
       <c r="D81" t="n">
-        <v>0.999990095983759</v>
+        <v>0.9999955447092075</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2549,43 +2549,43 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26459.fa</t>
+          <t>even_MAG-GUT26586.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.025442243951513e-05</v>
+        <v>0.9999932687969516</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9999897455775605</v>
+        <v>6.731203048432622e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9999897455775605</v>
+        <v>0.9999932687969516</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26531.fa</t>
+          <t>even_MAG-GUT2660.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0004328991384430214</v>
+        <v>9.023167853239311e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>0.999567100861557</v>
+        <v>0.9999097683214676</v>
       </c>
       <c r="D83" t="n">
-        <v>0.999567100861557</v>
+        <v>0.9999097683214676</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2601,121 +2601,121 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26562.fa</t>
+          <t>even_MAG-GUT27127.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4.455290792515498e-06</v>
+        <v>0.9999051657121308</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9999955447092075</v>
+        <v>9.48342878691908e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9999955447092075</v>
+        <v>0.9999051657121308</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26586.fa</t>
+          <t>even_MAG-GUT2783.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9999932687969516</v>
+        <v>0.00659045783221468</v>
       </c>
       <c r="C85" t="n">
-        <v>6.731203048432622e-06</v>
+        <v>0.9934095421677853</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9999932687969516</v>
+        <v>0.9934095421677853</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2660.fa</t>
+          <t>even_MAG-GUT28721.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>9.023167853239311e-05</v>
+        <v>0.9999889518125746</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9999097683214676</v>
+        <v>1.104818742535237e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9999097683214676</v>
+        <v>0.9999889518125746</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26803.fa</t>
+          <t>even_MAG-GUT28738.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02013269158501041</v>
+        <v>0.9999983076402502</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9798673084149896</v>
+        <v>1.692359749777747e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9798673084149896</v>
+        <v>0.9999983076402502</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2783.fa</t>
+          <t>even_MAG-GUT29414.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.00659045783221468</v>
+        <v>0.00336116685372323</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9934095421677853</v>
+        <v>0.9966388331462768</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9934095421677853</v>
+        <v>0.9966388331462768</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2731,69 +2731,69 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28721.fa</t>
+          <t>even_MAG-GUT29494.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9999889518125746</v>
+        <v>0.003776253218457426</v>
       </c>
       <c r="C89" t="n">
-        <v>1.104818742535237e-05</v>
+        <v>0.9962237467815426</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9999889518125746</v>
+        <v>0.9962237467815426</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28738.fa</t>
+          <t>even_MAG-GUT30102.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9999983076402502</v>
+        <v>0.01023467120312782</v>
       </c>
       <c r="C90" t="n">
-        <v>1.692359749777747e-06</v>
+        <v>0.9897653287968722</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9999983076402502</v>
+        <v>0.9897653287968722</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29414.fa</t>
+          <t>even_MAG-GUT31343.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.00336116685372323</v>
+        <v>0.02434327650913692</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9966388331462768</v>
+        <v>0.9756567234908631</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9966388331462768</v>
+        <v>0.9756567234908631</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2809,17 +2809,17 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29494.fa</t>
+          <t>even_MAG-GUT31502.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.003776253218457426</v>
+        <v>0.001008394336556639</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9962237467815426</v>
+        <v>0.9989916056634434</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9962237467815426</v>
+        <v>0.9989916056634434</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2835,17 +2835,17 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30102.fa</t>
+          <t>even_MAG-GUT32351.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01023467120312782</v>
+        <v>9.847623778358461e-05</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9897653287968722</v>
+        <v>0.9999015237622164</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9897653287968722</v>
+        <v>0.9999015237622164</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2861,17 +2861,17 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31343.fa</t>
+          <t>even_MAG-GUT32356.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02434327650913692</v>
+        <v>0.0005972810723033906</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9756567234908631</v>
+        <v>0.9994027189276966</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9756567234908631</v>
+        <v>0.9994027189276966</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2887,17 +2887,17 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31502.fa</t>
+          <t>even_MAG-GUT32404.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.001008394336556639</v>
+        <v>0.005663435544595363</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9989916056634434</v>
+        <v>0.9943365644554046</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9989916056634434</v>
+        <v>0.9943365644554046</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2913,43 +2913,43 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32170.fa</t>
+          <t>even_MAG-GUT32509.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9917372999429346</v>
+        <v>0.0005566847699748356</v>
       </c>
       <c r="C96" t="n">
-        <v>0.008262700057065366</v>
+        <v>0.9994433152300252</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9917372999429346</v>
+        <v>0.9994433152300252</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32351.fa</t>
+          <t>even_MAG-GUT32879.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>9.847623778358461e-05</v>
+        <v>5.100584796147167e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9999015237622164</v>
+        <v>0.9999489941520385</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9999015237622164</v>
+        <v>0.9999489941520385</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2965,17 +2965,17 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32356.fa</t>
+          <t>even_MAG-GUT32889.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0005972810723033906</v>
+        <v>0.0004929247922854652</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9994027189276966</v>
+        <v>0.9995070752077145</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9994027189276966</v>
+        <v>0.9995070752077145</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2991,17 +2991,17 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32404.fa</t>
+          <t>even_MAG-GUT32902.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.005663435544595363</v>
+        <v>0.0004379953444233475</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9943365644554046</v>
+        <v>0.9995620046555767</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9943365644554046</v>
+        <v>0.9995620046555767</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3017,17 +3017,17 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32509.fa</t>
+          <t>even_MAG-GUT33244.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0005566847699748356</v>
+        <v>0.0005423636086415717</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9994433152300252</v>
+        <v>0.9994576363913584</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9994433152300252</v>
+        <v>0.9994576363913584</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3043,43 +3043,43 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32879.fa</t>
+          <t>even_MAG-GUT33270.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>5.100584796147167e-05</v>
+        <v>0.7268992775961249</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9999489941520385</v>
+        <v>0.2731007224038751</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9999489941520385</v>
+        <v>0.7268992775961249</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32889.fa</t>
+          <t>even_MAG-GUT33324.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0004929247922854652</v>
+        <v>0.0005422784669967262</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9995070752077145</v>
+        <v>0.9994577215330033</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9995070752077145</v>
+        <v>0.9994577215330033</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3095,17 +3095,17 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32902.fa</t>
+          <t>even_MAG-GUT33557.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.0004379953444233475</v>
+        <v>0.0001114571894943461</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9995620046555767</v>
+        <v>0.9998885428105057</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9995620046555767</v>
+        <v>0.9998885428105057</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3121,17 +3121,17 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33244.fa</t>
+          <t>even_MAG-GUT33569.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.0005423636086415717</v>
+        <v>0.001160099383347268</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9994576363913584</v>
+        <v>0.9988399006166527</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9994576363913584</v>
+        <v>0.9988399006166527</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3147,43 +3147,43 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33270.fa</t>
+          <t>even_MAG-GUT34594.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.7268992775961249</v>
+        <v>9.28108330152666e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2731007224038751</v>
+        <v>0.9999071891669847</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7268992775961249</v>
+        <v>0.9999071891669847</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33324.fa</t>
+          <t>even_MAG-GUT35087.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.0005422784669967262</v>
+        <v>2.008846314882629e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9994577215330033</v>
+        <v>0.9999799115368512</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9994577215330033</v>
+        <v>0.9999799115368512</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3199,17 +3199,17 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33557.fa</t>
+          <t>even_MAG-GUT35198.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0001114571894943461</v>
+        <v>0.002209787615094494</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9998885428105057</v>
+        <v>0.9977902123849055</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9998885428105057</v>
+        <v>0.9977902123849055</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3225,17 +3225,17 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33569.fa</t>
+          <t>even_MAG-GUT35206.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.001160099383347268</v>
+        <v>0.3770750460336448</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9988399006166527</v>
+        <v>0.6229249539663552</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9988399006166527</v>
+        <v>0.6229249539663552</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3251,17 +3251,17 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34594.fa</t>
+          <t>even_MAG-GUT35271.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9.28108330152666e-05</v>
+        <v>0.0003568986885122971</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9999071891669847</v>
+        <v>0.9996431013114877</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9999071891669847</v>
+        <v>0.9996431013114877</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3277,17 +3277,17 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35087.fa</t>
+          <t>even_MAG-GUT3531.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2.008846314882629e-05</v>
+        <v>4.779042736346995e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9999799115368512</v>
+        <v>0.9999522095726365</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9999799115368512</v>
+        <v>0.9999522095726365</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3303,17 +3303,17 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35198.fa</t>
+          <t>even_MAG-GUT35597.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.002209787615094494</v>
+        <v>3.505096443312539e-06</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9977902123849055</v>
+        <v>0.9999964949035567</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9977902123849055</v>
+        <v>0.9999964949035567</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3329,17 +3329,17 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35206.fa</t>
+          <t>even_MAG-GUT35747.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.3770750460336448</v>
+        <v>0.3694880895949629</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6229249539663552</v>
+        <v>0.6305119104050371</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6229249539663552</v>
+        <v>0.6305119104050371</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3355,43 +3355,43 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35271.fa</t>
+          <t>even_MAG-GUT36138.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.0003568986885122971</v>
+        <v>0.9999893729147767</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9996431013114877</v>
+        <v>1.062708522322988e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9996431013114877</v>
+        <v>0.9999893729147767</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3531.fa</t>
+          <t>even_MAG-GUT36441.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4.779042736346995e-05</v>
+        <v>0.1188820381735248</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9999522095726365</v>
+        <v>0.8811179618264752</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9999522095726365</v>
+        <v>0.8811179618264752</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3407,17 +3407,17 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35597.fa</t>
+          <t>even_MAG-GUT3651.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>3.505096443312539e-06</v>
+        <v>7.759317909306063e-07</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9999964949035567</v>
+        <v>0.9999992240682091</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9999964949035567</v>
+        <v>0.9999992240682091</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3433,17 +3433,17 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35747.fa</t>
+          <t>even_MAG-GUT36692.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.3694880895949629</v>
+        <v>0.1242156460690217</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6305119104050371</v>
+        <v>0.8757843539309783</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6305119104050371</v>
+        <v>0.8757843539309783</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3459,69 +3459,69 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36138.fa</t>
+          <t>even_MAG-GUT36814.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.9999893729147767</v>
+        <v>0.3023925290923162</v>
       </c>
       <c r="C117" t="n">
-        <v>1.062708522322988e-05</v>
+        <v>0.6976074709076838</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9999893729147767</v>
+        <v>0.6976074709076838</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36441.fa</t>
+          <t>even_MAG-GUT3702.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.1188820381735248</v>
+        <v>0.5750050657994898</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8811179618264752</v>
+        <v>0.4249949342005101</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8811179618264752</v>
+        <v>0.5750050657994898</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3651.fa</t>
+          <t>even_MAG-GUT37024.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>7.759317909306063e-07</v>
+        <v>0.0003311712547164891</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9999992240682091</v>
+        <v>0.9996688287452835</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9999992240682091</v>
+        <v>0.9996688287452835</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3537,43 +3537,43 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36692.fa</t>
+          <t>even_MAG-GUT37090.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1242156460690217</v>
+        <v>0.9999990757698168</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8757843539309783</v>
+        <v>9.242301831335624e-07</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8757843539309783</v>
+        <v>0.9999990757698168</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36814.fa</t>
+          <t>even_MAG-GUT37154.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.3023925290923162</v>
+        <v>1.176247190182167e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6976074709076838</v>
+        <v>0.9999882375280982</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6976074709076838</v>
+        <v>0.9999882375280982</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3589,43 +3589,43 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3702.fa</t>
+          <t>even_MAG-GUT37934.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.5750050657994898</v>
+        <v>0.0001279905963798011</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4249949342005101</v>
+        <v>0.9998720094036202</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5750050657994898</v>
+        <v>0.9998720094036202</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37024.fa</t>
+          <t>even_MAG-GUT38263.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.0003311712547164891</v>
+        <v>0.0002302563399253499</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9996688287452835</v>
+        <v>0.9997697436600747</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9996688287452835</v>
+        <v>0.9997697436600747</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3641,43 +3641,43 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37090.fa</t>
+          <t>even_MAG-GUT38584.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.9999990757698168</v>
+        <v>0.0001075634734956088</v>
       </c>
       <c r="C124" t="n">
-        <v>9.242301831335624e-07</v>
+        <v>0.9998924365265044</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9999990757698168</v>
+        <v>0.9998924365265044</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37154.fa</t>
+          <t>even_MAG-GUT39152.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1.176247190182167e-05</v>
+        <v>0.000667992920601268</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9999882375280982</v>
+        <v>0.9993320070793987</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9999882375280982</v>
+        <v>0.9993320070793987</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3693,43 +3693,43 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37758.fa</t>
+          <t>even_MAG-GUT4044.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.9999999631273052</v>
+        <v>3.960870675479011e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>3.687269481397198e-08</v>
+        <v>0.9999603912932452</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9999999631273052</v>
+        <v>0.9999603912932452</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37934.fa</t>
+          <t>even_MAG-GUT4062.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.0001279905963798011</v>
+        <v>0.0005580011013407438</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9998720094036202</v>
+        <v>0.9994419988986593</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9998720094036202</v>
+        <v>0.9994419988986593</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3745,121 +3745,121 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38263.fa</t>
+          <t>even_MAG-GUT408.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.0002302563399253499</v>
+        <v>0.9999853490159893</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9997697436600747</v>
+        <v>1.465098401069317e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9997697436600747</v>
+        <v>0.9999853490159893</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38584.fa</t>
+          <t>even_MAG-GUT409.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.0001075634734956088</v>
+        <v>0.9999894674893368</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9998924365265044</v>
+        <v>1.053251066323648e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9998924365265044</v>
+        <v>0.9999894674893368</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39152.fa</t>
+          <t>even_MAG-GUT41097.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.000667992920601268</v>
+        <v>0.9896421567298266</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9993320070793987</v>
+        <v>0.01035784327017346</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9993320070793987</v>
+        <v>0.9896421567298266</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4044.fa</t>
+          <t>even_MAG-GUT412.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3.960870675479011e-05</v>
+        <v>0.9999853547258957</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9999603912932452</v>
+        <v>1.464527410434117e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9999603912932452</v>
+        <v>0.9999853547258957</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4062.fa</t>
+          <t>even_MAG-GUT4125.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.0005580011013407438</v>
+        <v>0.0004883923195196926</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9994419988986593</v>
+        <v>0.9995116076804803</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9994419988986593</v>
+        <v>0.9995116076804803</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3875,17 +3875,17 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT408.fa</t>
+          <t>even_MAG-GUT418.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.9999853490159893</v>
+        <v>0.9999846343536924</v>
       </c>
       <c r="C133" t="n">
-        <v>1.465098401069317e-05</v>
+        <v>1.536564630750402e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9999853490159893</v>
+        <v>0.9999846343536924</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3901,69 +3901,69 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40857.fa</t>
+          <t>even_MAG-GUT420.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1099733551396642</v>
+        <v>0.9999447846353182</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8900266448603358</v>
+        <v>5.521536468180042e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8900266448603358</v>
+        <v>0.9999447846353182</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT409.fa</t>
+          <t>even_MAG-GUT4207.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.9999894674893368</v>
+        <v>0.0001390814190938006</v>
       </c>
       <c r="C135" t="n">
-        <v>1.053251066323648e-05</v>
+        <v>0.9998609185809062</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9999894674893368</v>
+        <v>0.9998609185809062</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41097.fa</t>
+          <t>even_MAG-GUT421.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.9896421567298266</v>
+        <v>0.9999936995522724</v>
       </c>
       <c r="C136" t="n">
-        <v>0.01035784327017346</v>
+        <v>6.30044772766883e-06</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9896421567298266</v>
+        <v>0.9999936995522724</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3979,17 +3979,17 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT412.fa</t>
+          <t>even_MAG-GUT422.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.9999853547258957</v>
+        <v>0.9999943616343763</v>
       </c>
       <c r="C137" t="n">
-        <v>1.464527410434117e-05</v>
+        <v>5.63836562374379e-06</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9999853547258957</v>
+        <v>0.9999943616343763</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4005,43 +4005,43 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4125.fa</t>
+          <t>even_MAG-GUT423.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.0004883923195196926</v>
+        <v>0.99999520548895</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9995116076804803</v>
+        <v>4.794511049993947e-06</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9995116076804803</v>
+        <v>0.99999520548895</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT418.fa</t>
+          <t>even_MAG-GUT425.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.9999846343536924</v>
+        <v>0.9999715915228659</v>
       </c>
       <c r="C139" t="n">
-        <v>1.536564630750402e-05</v>
+        <v>2.84084771341903e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9999846343536924</v>
+        <v>0.9999715915228659</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4057,17 +4057,17 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT420.fa</t>
+          <t>even_MAG-GUT42852.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.9999447846353182</v>
+        <v>0.5733912214639715</v>
       </c>
       <c r="C140" t="n">
-        <v>5.521536468180042e-05</v>
+        <v>0.4266087785360285</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9999447846353182</v>
+        <v>0.5733912214639715</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4083,43 +4083,43 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4207.fa</t>
+          <t>even_MAG-GUT429.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.0001390814190938006</v>
+        <v>0.9999865847791382</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9998609185809062</v>
+        <v>1.341522086189764e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9998609185809062</v>
+        <v>0.9999865847791382</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT421.fa</t>
+          <t>even_MAG-GUT430.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.9999936995522724</v>
+        <v>0.9999943458023841</v>
       </c>
       <c r="C142" t="n">
-        <v>6.30044772766883e-06</v>
+        <v>5.654197615878966e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9999936995522724</v>
+        <v>0.9999943458023841</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4135,17 +4135,17 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT422.fa</t>
+          <t>even_MAG-GUT431.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.9999943616343763</v>
+        <v>0.9999951554811649</v>
       </c>
       <c r="C143" t="n">
-        <v>5.63836562374379e-06</v>
+        <v>4.844518835044731e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9999943616343763</v>
+        <v>0.9999951554811649</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4161,17 +4161,17 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT423.fa</t>
+          <t>even_MAG-GUT432.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.99999520548895</v>
+        <v>0.9999950098114612</v>
       </c>
       <c r="C144" t="n">
-        <v>4.794511049993947e-06</v>
+        <v>4.990188538850483e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>0.99999520548895</v>
+        <v>0.9999950098114612</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4187,17 +4187,17 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT425.fa</t>
+          <t>even_MAG-GUT433.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.9999715915228659</v>
+        <v>0.9999842353629935</v>
       </c>
       <c r="C145" t="n">
-        <v>2.84084771341903e-05</v>
+        <v>1.576463700642147e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9999715915228659</v>
+        <v>0.9999842353629935</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4213,43 +4213,43 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42578.fa</t>
+          <t>even_MAG-GUT43378.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.9999999998396564</v>
+        <v>8.59372401580405e-05</v>
       </c>
       <c r="C146" t="n">
-        <v>1.603436689836827e-10</v>
+        <v>0.999914062759842</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9999999998396564</v>
+        <v>0.999914062759842</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42852.fa</t>
+          <t>even_MAG-GUT435.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.5733912214639715</v>
+        <v>0.999969743865137</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4266087785360285</v>
+        <v>3.025613486301534e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5733912214639715</v>
+        <v>0.999969743865137</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4265,17 +4265,17 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT429.fa</t>
+          <t>even_MAG-GUT43623.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.9999865847791382</v>
+        <v>0.9999636511372655</v>
       </c>
       <c r="C148" t="n">
-        <v>1.341522086189764e-05</v>
+        <v>3.634886273455735e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9999865847791382</v>
+        <v>0.9999636511372655</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4291,17 +4291,17 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT430.fa</t>
+          <t>even_MAG-GUT43628.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.9999943458023841</v>
+        <v>0.9999110807178694</v>
       </c>
       <c r="C149" t="n">
-        <v>5.654197615878966e-06</v>
+        <v>8.891928213063791e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9999943458023841</v>
+        <v>0.9999110807178694</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4317,17 +4317,17 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT431.fa</t>
+          <t>even_MAG-GUT43934.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.9999951554811649</v>
+        <v>0.999979279011277</v>
       </c>
       <c r="C150" t="n">
-        <v>4.844518835044731e-06</v>
+        <v>2.072098872294183e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9999951554811649</v>
+        <v>0.999979279011277</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4343,17 +4343,17 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT432.fa</t>
+          <t>even_MAG-GUT441.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.9999950098114612</v>
+        <v>0.9999444262388983</v>
       </c>
       <c r="C151" t="n">
-        <v>4.990188538850483e-06</v>
+        <v>5.557376110170323e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9999950098114612</v>
+        <v>0.9999444262388983</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4369,17 +4369,17 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT433.fa</t>
+          <t>even_MAG-GUT444.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.9999842353629935</v>
+        <v>0.999995333476842</v>
       </c>
       <c r="C152" t="n">
-        <v>1.576463700642147e-05</v>
+        <v>4.6665231580577e-06</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9999842353629935</v>
+        <v>0.999995333476842</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4395,43 +4395,43 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43378.fa</t>
+          <t>even_MAG-GUT445.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>8.59372401580405e-05</v>
+        <v>0.99999445252723</v>
       </c>
       <c r="C153" t="n">
-        <v>0.999914062759842</v>
+        <v>5.547472770045778e-06</v>
       </c>
       <c r="D153" t="n">
-        <v>0.999914062759842</v>
+        <v>0.99999445252723</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT435.fa</t>
+          <t>even_MAG-GUT44512.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.999969743865137</v>
+        <v>0.9999786522240921</v>
       </c>
       <c r="C154" t="n">
-        <v>3.025613486301534e-05</v>
+        <v>2.134777590790837e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>0.999969743865137</v>
+        <v>0.9999786522240921</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4447,17 +4447,17 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43623.fa</t>
+          <t>even_MAG-GUT446.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.9999636511372655</v>
+        <v>0.9999152739475967</v>
       </c>
       <c r="C155" t="n">
-        <v>3.634886273455735e-05</v>
+        <v>8.472605240329783e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9999636511372655</v>
+        <v>0.9999152739475967</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4473,43 +4473,43 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43628.fa</t>
+          <t>even_MAG-GUT44688.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.9999110807178694</v>
+        <v>0.001679586696314406</v>
       </c>
       <c r="C156" t="n">
-        <v>8.891928213063791e-05</v>
+        <v>0.9983204133036856</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9999110807178694</v>
+        <v>0.9983204133036856</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43934.fa</t>
+          <t>even_MAG-GUT44736.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.999979279011277</v>
+        <v>0.9999855522992958</v>
       </c>
       <c r="C157" t="n">
-        <v>2.072098872294183e-05</v>
+        <v>1.44477007042934e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>0.999979279011277</v>
+        <v>0.9999855522992958</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4525,17 +4525,17 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT441.fa</t>
+          <t>even_MAG-GUT449.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.9999444262388983</v>
+        <v>0.999985457126656</v>
       </c>
       <c r="C158" t="n">
-        <v>5.557376110170323e-05</v>
+        <v>1.454287334403356e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9999444262388983</v>
+        <v>0.999985457126656</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4551,17 +4551,17 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT444.fa</t>
+          <t>even_MAG-GUT44961.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.999995333476842</v>
+        <v>0.9999882502712102</v>
       </c>
       <c r="C159" t="n">
-        <v>4.6665231580577e-06</v>
+        <v>1.174972878983799e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>0.999995333476842</v>
+        <v>0.9999882502712102</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4577,17 +4577,17 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT445.fa</t>
+          <t>even_MAG-GUT450.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.99999445252723</v>
+        <v>0.9999872103976981</v>
       </c>
       <c r="C160" t="n">
-        <v>5.547472770045778e-06</v>
+        <v>1.278960230183728e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>0.99999445252723</v>
+        <v>0.9999872103976981</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4603,43 +4603,43 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44512.fa</t>
+          <t>even_MAG-GUT45090.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.9999786522240921</v>
+        <v>1.611438982251912e-09</v>
       </c>
       <c r="C161" t="n">
-        <v>2.134777590790837e-05</v>
+        <v>0.999999998388561</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9999786522240921</v>
+        <v>0.999999998388561</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT446.fa</t>
+          <t>even_MAG-GUT452.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.9999152739475967</v>
+        <v>0.9999915261446584</v>
       </c>
       <c r="C162" t="n">
-        <v>8.472605240329783e-05</v>
+        <v>8.473855341659861e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9999152739475967</v>
+        <v>0.9999915261446584</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4655,43 +4655,43 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44688.fa</t>
+          <t>even_MAG-GUT45205.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.001679586696314406</v>
+        <v>0.6205609232120851</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9983204133036856</v>
+        <v>0.3794390767879148</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9983204133036856</v>
+        <v>0.6205609232120851</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44736.fa</t>
+          <t>even_MAG-GUT453.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.9999855522992958</v>
+        <v>0.999989139957891</v>
       </c>
       <c r="C164" t="n">
-        <v>1.44477007042934e-05</v>
+        <v>1.086004210907263e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9999855522992958</v>
+        <v>0.999989139957891</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4707,17 +4707,17 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT449.fa</t>
+          <t>even_MAG-GUT455.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.999985457126656</v>
+        <v>0.9999885009447903</v>
       </c>
       <c r="C165" t="n">
-        <v>1.454287334403356e-05</v>
+        <v>1.149905520972352e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>0.999985457126656</v>
+        <v>0.9999885009447903</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4733,17 +4733,17 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44961.fa</t>
+          <t>even_MAG-GUT456.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.9999882502712102</v>
+        <v>0.9999964050827268</v>
       </c>
       <c r="C166" t="n">
-        <v>1.174972878983799e-05</v>
+        <v>3.594917273168721e-06</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9999882502712102</v>
+        <v>0.9999964050827268</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4759,17 +4759,17 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT450.fa</t>
+          <t>even_MAG-GUT457.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.9999872103976981</v>
+        <v>0.9999946492663723</v>
       </c>
       <c r="C167" t="n">
-        <v>1.278960230183728e-05</v>
+        <v>5.350733627692001e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9999872103976981</v>
+        <v>0.9999946492663723</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -4785,43 +4785,43 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45090.fa</t>
+          <t>even_MAG-GUT4577.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1.611438982251912e-09</v>
+        <v>0.99999699025476</v>
       </c>
       <c r="C168" t="n">
-        <v>0.999999998388561</v>
+        <v>3.009745240079882e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>0.999999998388561</v>
+        <v>0.99999699025476</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT452.fa</t>
+          <t>even_MAG-GUT45829.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.9999915261446584</v>
+        <v>0.9999807640488451</v>
       </c>
       <c r="C169" t="n">
-        <v>8.473855341659861e-06</v>
+        <v>1.923595115488658e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9999915261446584</v>
+        <v>0.9999807640488451</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4837,17 +4837,17 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45205.fa</t>
+          <t>even_MAG-GUT459.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.6205609232120851</v>
+        <v>0.9999768582818578</v>
       </c>
       <c r="C170" t="n">
-        <v>0.3794390767879148</v>
+        <v>2.314171814221884e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>0.6205609232120851</v>
+        <v>0.9999768582818578</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4863,17 +4863,17 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT453.fa</t>
+          <t>even_MAG-GUT46159.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.999989139957891</v>
+        <v>0.9999994474585153</v>
       </c>
       <c r="C171" t="n">
-        <v>1.086004210907263e-05</v>
+        <v>5.525414847101143e-07</v>
       </c>
       <c r="D171" t="n">
-        <v>0.999989139957891</v>
+        <v>0.9999994474585153</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4889,17 +4889,17 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT455.fa</t>
+          <t>even_MAG-GUT462.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.9999885009447903</v>
+        <v>0.9999957941130611</v>
       </c>
       <c r="C172" t="n">
-        <v>1.149905520972352e-05</v>
+        <v>4.205886938934534e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9999885009447903</v>
+        <v>0.9999957941130611</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4915,17 +4915,17 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT456.fa</t>
+          <t>even_MAG-GUT46247.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.9999964050827268</v>
+        <v>0.9969460884421978</v>
       </c>
       <c r="C173" t="n">
-        <v>3.594917273168721e-06</v>
+        <v>0.003053911557802219</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9999964050827268</v>
+        <v>0.9969460884421978</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4941,17 +4941,17 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT457.fa</t>
+          <t>even_MAG-GUT463.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.9999946492663723</v>
+        <v>0.9999868232453678</v>
       </c>
       <c r="C174" t="n">
-        <v>5.350733627692001e-06</v>
+        <v>1.317675463216488e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9999946492663723</v>
+        <v>0.9999868232453678</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4967,17 +4967,17 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4577.fa</t>
+          <t>even_MAG-GUT4634.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.99999699025476</v>
+        <v>0.9821397777256253</v>
       </c>
       <c r="C175" t="n">
-        <v>3.009745240079882e-06</v>
+        <v>0.01786022227437469</v>
       </c>
       <c r="D175" t="n">
-        <v>0.99999699025476</v>
+        <v>0.9821397777256253</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4993,17 +4993,17 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45829.fa</t>
+          <t>even_MAG-GUT464.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.9999807640488451</v>
+        <v>0.999987571129711</v>
       </c>
       <c r="C176" t="n">
-        <v>1.923595115488658e-05</v>
+        <v>1.242887028897179e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9999807640488451</v>
+        <v>0.999987571129711</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -5019,17 +5019,17 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT459.fa</t>
+          <t>even_MAG-GUT46486.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.9999768582818578</v>
+        <v>0.9999203543670899</v>
       </c>
       <c r="C177" t="n">
-        <v>2.314171814221884e-05</v>
+        <v>7.964563291012493e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9999768582818578</v>
+        <v>0.9999203543670899</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -5045,17 +5045,17 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46037.fa</t>
+          <t>even_MAG-GUT46493.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.9999998209113555</v>
+        <v>0.9999957972021659</v>
       </c>
       <c r="C178" t="n">
-        <v>1.790886444930587e-07</v>
+        <v>4.202797834040388e-06</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9999998209113555</v>
+        <v>0.9999957972021659</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -5071,17 +5071,17 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46159.fa</t>
+          <t>even_MAG-GUT465.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.9999994474585153</v>
+        <v>0.9999945663873362</v>
       </c>
       <c r="C179" t="n">
-        <v>5.525414847101143e-07</v>
+        <v>5.433612663755611e-06</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9999994474585153</v>
+        <v>0.9999945663873362</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -5097,17 +5097,17 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4616.fa</t>
+          <t>even_MAG-GUT4651.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.9999999984312632</v>
+        <v>0.9994935621120545</v>
       </c>
       <c r="C180" t="n">
-        <v>1.568736799497191e-09</v>
+        <v>0.0005064378879455193</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9999999984312632</v>
+        <v>0.9994935621120545</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -5123,17 +5123,17 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46186.fa</t>
+          <t>even_MAG-GUT467.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.8962129873669067</v>
+        <v>0.9999908564495799</v>
       </c>
       <c r="C181" t="n">
-        <v>0.1037870126330934</v>
+        <v>9.143550420158733e-06</v>
       </c>
       <c r="D181" t="n">
-        <v>0.8962129873669067</v>
+        <v>0.9999908564495799</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -5149,17 +5149,17 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT462.fa</t>
+          <t>even_MAG-GUT46719.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.9999957941130611</v>
+        <v>0.9999917547626775</v>
       </c>
       <c r="C182" t="n">
-        <v>4.205886938934534e-06</v>
+        <v>8.245237322451919e-06</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9999957941130611</v>
+        <v>0.9999917547626775</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -5175,17 +5175,17 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46247.fa</t>
+          <t>even_MAG-GUT46760.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.9969460884421978</v>
+        <v>0.9998970147254981</v>
       </c>
       <c r="C183" t="n">
-        <v>0.003053911557802219</v>
+        <v>0.0001029852745019201</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9969460884421978</v>
+        <v>0.9998970147254981</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -5201,17 +5201,17 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT463.fa</t>
+          <t>even_MAG-GUT468.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.9999868232453678</v>
+        <v>0.9999673976565483</v>
       </c>
       <c r="C184" t="n">
-        <v>1.317675463216488e-05</v>
+        <v>3.260234345173221e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9999868232453678</v>
+        <v>0.9999673976565483</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -5227,17 +5227,17 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4634.fa</t>
+          <t>even_MAG-GUT469.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.9821397777256253</v>
+        <v>0.9999849291222344</v>
       </c>
       <c r="C185" t="n">
-        <v>0.01786022227437469</v>
+        <v>1.507087776568159e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9821397777256253</v>
+        <v>0.9999849291222344</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -5253,17 +5253,17 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT464.fa</t>
+          <t>even_MAG-GUT470.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.999987571129711</v>
+        <v>0.9999934910512401</v>
       </c>
       <c r="C186" t="n">
-        <v>1.242887028897179e-05</v>
+        <v>6.508948759905085e-06</v>
       </c>
       <c r="D186" t="n">
-        <v>0.999987571129711</v>
+        <v>0.9999934910512401</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -5279,17 +5279,17 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46486.fa</t>
+          <t>even_MAG-GUT471.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.9999203543670899</v>
+        <v>0.999982201775614</v>
       </c>
       <c r="C187" t="n">
-        <v>7.964563291012493e-05</v>
+        <v>1.779822438596627e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9999203543670899</v>
+        <v>0.999982201775614</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5305,17 +5305,17 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46493.fa</t>
+          <t>even_MAG-GUT47330.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.9999957972021659</v>
+        <v>0.999943152920721</v>
       </c>
       <c r="C188" t="n">
-        <v>4.202797834040388e-06</v>
+        <v>5.684707927904965e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9999957972021659</v>
+        <v>0.999943152920721</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5331,17 +5331,17 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT465.fa</t>
+          <t>even_MAG-GUT47464.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.9999945663873362</v>
+        <v>0.9999810058259273</v>
       </c>
       <c r="C189" t="n">
-        <v>5.433612663755611e-06</v>
+        <v>1.899417407269629e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9999945663873362</v>
+        <v>0.9999810058259273</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -5357,17 +5357,17 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4651.fa</t>
+          <t>even_MAG-GUT47585.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.9994935621120545</v>
+        <v>0.9999975167704758</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0005064378879455193</v>
+        <v>2.483229524212841e-06</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9994935621120545</v>
+        <v>0.9999975167704758</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -5383,17 +5383,17 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT467.fa</t>
+          <t>even_MAG-GUT47777.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.9999908564495799</v>
+        <v>0.9999977573594262</v>
       </c>
       <c r="C191" t="n">
-        <v>9.143550420158733e-06</v>
+        <v>2.24264057381513e-06</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9999908564495799</v>
+        <v>0.9999977573594262</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5409,43 +5409,43 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46719.fa</t>
+          <t>even_MAG-GUT4832.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.9999917547626775</v>
+        <v>6.427208978621035e-05</v>
       </c>
       <c r="C192" t="n">
-        <v>8.245237322451919e-06</v>
+        <v>0.9999357279102138</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9999917547626775</v>
+        <v>0.9999357279102138</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46760.fa</t>
+          <t>even_MAG-GUT48579.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.9998970147254981</v>
+        <v>0.9999881956724317</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0001029852745019201</v>
+        <v>1.180432756828837e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9998970147254981</v>
+        <v>0.9999881956724317</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -5461,17 +5461,17 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT468.fa</t>
+          <t>even_MAG-GUT48681.fa</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.9999673976565483</v>
+        <v>0.9996543546339428</v>
       </c>
       <c r="C194" t="n">
-        <v>3.260234345173221e-05</v>
+        <v>0.0003456453660571655</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9999673976565483</v>
+        <v>0.9996543546339428</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -5487,17 +5487,17 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT469.fa</t>
+          <t>even_MAG-GUT48721.fa</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.9999849291222344</v>
+        <v>0.9996540641611565</v>
       </c>
       <c r="C195" t="n">
-        <v>1.507087776568159e-05</v>
+        <v>0.000345935838843467</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9999849291222344</v>
+        <v>0.9996540641611565</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5513,17 +5513,17 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT470.fa</t>
+          <t>even_MAG-GUT48763.fa</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.9999934910512401</v>
+        <v>0.9971696647709478</v>
       </c>
       <c r="C196" t="n">
-        <v>6.508948759905085e-06</v>
+        <v>0.002830335229052159</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9999934910512401</v>
+        <v>0.9971696647709478</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -5539,43 +5539,43 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT471.fa</t>
+          <t>even_MAG-GUT48779.fa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.999982201775614</v>
+        <v>0.00043722654327083</v>
       </c>
       <c r="C197" t="n">
-        <v>1.779822438596627e-05</v>
+        <v>0.9995627734567292</v>
       </c>
       <c r="D197" t="n">
-        <v>0.999982201775614</v>
+        <v>0.9995627734567292</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47330.fa</t>
+          <t>even_MAG-GUT48801.fa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.999943152920721</v>
+        <v>0.9997586792194448</v>
       </c>
       <c r="C198" t="n">
-        <v>5.684707927904965e-05</v>
+        <v>0.0002413207805551103</v>
       </c>
       <c r="D198" t="n">
-        <v>0.999943152920721</v>
+        <v>0.9997586792194448</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -5591,17 +5591,17 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47464.fa</t>
+          <t>even_MAG-GUT48805.fa</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.9999810058259273</v>
+        <v>0.9984060091854569</v>
       </c>
       <c r="C199" t="n">
-        <v>1.899417407269629e-05</v>
+        <v>0.00159399081454319</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9999810058259273</v>
+        <v>0.9984060091854569</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -5617,17 +5617,17 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47585.fa</t>
+          <t>even_MAG-GUT48852.fa</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.9999975167704758</v>
+        <v>0.9993434785862162</v>
       </c>
       <c r="C200" t="n">
-        <v>2.483229524212841e-06</v>
+        <v>0.0006565214137838254</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9999975167704758</v>
+        <v>0.9993434785862162</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -5643,17 +5643,17 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47777.fa</t>
+          <t>even_MAG-GUT48995.fa</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.9999977573594262</v>
+        <v>0.9965299048625135</v>
       </c>
       <c r="C201" t="n">
-        <v>2.24264057381513e-06</v>
+        <v>0.003470095137486528</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9999977573594262</v>
+        <v>0.9965299048625135</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -5669,43 +5669,43 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4832.fa</t>
+          <t>even_MAG-GUT49009.fa</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>6.427208978621035e-05</v>
+        <v>0.999490766315999</v>
       </c>
       <c r="C202" t="n">
-        <v>0.9999357279102138</v>
+        <v>0.0005092336840010648</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9999357279102138</v>
+        <v>0.999490766315999</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48579.fa</t>
+          <t>even_MAG-GUT49041.fa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.9999881956724317</v>
+        <v>0.9966620484905273</v>
       </c>
       <c r="C203" t="n">
-        <v>1.180432756828837e-05</v>
+        <v>0.003337951509472731</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9999881956724317</v>
+        <v>0.9966620484905273</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -5721,17 +5721,17 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48681.fa</t>
+          <t>even_MAG-GUT49046.fa</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.9996543546339428</v>
+        <v>0.9985291863439838</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0003456453660571655</v>
+        <v>0.00147081365601617</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9996543546339428</v>
+        <v>0.9985291863439838</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -5747,17 +5747,17 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48721.fa</t>
+          <t>even_MAG-GUT49058.fa</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.9996540641611565</v>
+        <v>0.9940031286754036</v>
       </c>
       <c r="C205" t="n">
-        <v>0.000345935838843467</v>
+        <v>0.005996871324596394</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9996540641611565</v>
+        <v>0.9940031286754036</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -5773,17 +5773,17 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48763.fa</t>
+          <t>even_MAG-GUT49079.fa</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.9971696647709478</v>
+        <v>0.9994536855369743</v>
       </c>
       <c r="C206" t="n">
-        <v>0.002830335229052159</v>
+        <v>0.0005463144630256647</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9971696647709478</v>
+        <v>0.9994536855369743</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -5799,43 +5799,43 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48779.fa</t>
+          <t>even_MAG-GUT49243.fa</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.00043722654327083</v>
+        <v>0.9970649213169769</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9995627734567292</v>
+        <v>0.002935078683023103</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9995627734567292</v>
+        <v>0.9970649213169769</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48801.fa</t>
+          <t>even_MAG-GUT49261.fa</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.9997586792194448</v>
+        <v>0.9996433675731462</v>
       </c>
       <c r="C208" t="n">
-        <v>0.0002413207805551103</v>
+        <v>0.0003566324268537543</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9997586792194448</v>
+        <v>0.9996433675731462</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -5851,17 +5851,17 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48805.fa</t>
+          <t>even_MAG-GUT49394.fa</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.9984060091854569</v>
+        <v>0.9992864559389756</v>
       </c>
       <c r="C209" t="n">
-        <v>0.00159399081454319</v>
+        <v>0.000713544061024434</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9984060091854569</v>
+        <v>0.9992864559389756</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -5877,43 +5877,43 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48825.fa</t>
+          <t>even_MAG-GUT49423.fa</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.01068867719815669</v>
+        <v>0.9963006331133981</v>
       </c>
       <c r="C210" t="n">
-        <v>0.9893113228018433</v>
+        <v>0.003699366886601929</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9893113228018433</v>
+        <v>0.9963006331133981</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48852.fa</t>
+          <t>even_MAG-GUT49507.fa</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.9993434785862162</v>
+        <v>0.9981241139502419</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0006565214137838254</v>
+        <v>0.001875886049758072</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9993434785862162</v>
+        <v>0.9981241139502419</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -5929,17 +5929,17 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48995.fa</t>
+          <t>even_MAG-GUT49537.fa</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.9965299048625135</v>
+        <v>0.9996045423980605</v>
       </c>
       <c r="C212" t="n">
-        <v>0.003470095137486528</v>
+        <v>0.0003954576019395417</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9965299048625135</v>
+        <v>0.9996045423980605</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -5955,17 +5955,17 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49009.fa</t>
+          <t>even_MAG-GUT49543.fa</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.999490766315999</v>
+        <v>0.9995170458656657</v>
       </c>
       <c r="C213" t="n">
-        <v>0.0005092336840010648</v>
+        <v>0.0004829541343343267</v>
       </c>
       <c r="D213" t="n">
-        <v>0.999490766315999</v>
+        <v>0.9995170458656657</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -5981,17 +5981,17 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49041.fa</t>
+          <t>even_MAG-GUT4979.fa</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.9966620484905273</v>
+        <v>0.6039808292574717</v>
       </c>
       <c r="C214" t="n">
-        <v>0.003337951509472731</v>
+        <v>0.3960191707425283</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9966620484905273</v>
+        <v>0.6039808292574717</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -6007,69 +6007,69 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49046.fa</t>
+          <t>even_MAG-GUT50219.fa</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.9985291863439838</v>
+        <v>2.43234938146486e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>0.00147081365601617</v>
+        <v>0.9999756765061854</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9985291863439838</v>
+        <v>0.9999756765061854</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49058.fa</t>
+          <t>even_MAG-GUT50483.fa</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.9940031286754036</v>
+        <v>0.0007198868075546373</v>
       </c>
       <c r="C216" t="n">
-        <v>0.005996871324596394</v>
+        <v>0.9992801131924454</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9940031286754036</v>
+        <v>0.9992801131924454</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49079.fa</t>
+          <t>even_MAG-GUT51557.fa</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.9994536855369743</v>
+        <v>0.9790517792844469</v>
       </c>
       <c r="C217" t="n">
-        <v>0.0005463144630256647</v>
+        <v>0.0209482207155531</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9994536855369743</v>
+        <v>0.9790517792844469</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -6085,17 +6085,17 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49243.fa</t>
+          <t>even_MAG-GUT51559.fa</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.9970649213169769</v>
+        <v>0.9818143502845026</v>
       </c>
       <c r="C218" t="n">
-        <v>0.002935078683023103</v>
+        <v>0.01818564971549738</v>
       </c>
       <c r="D218" t="n">
-        <v>0.9970649213169769</v>
+        <v>0.9818143502845026</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -6111,69 +6111,69 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49261.fa</t>
+          <t>even_MAG-GUT52107.fa</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.9996433675731462</v>
+        <v>0.2406942457938955</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0003566324268537543</v>
+        <v>0.7593057542061045</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9996433675731462</v>
+        <v>0.7593057542061045</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49394.fa</t>
+          <t>even_MAG-GUT52138.fa</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.9992864559389756</v>
+        <v>0.4844170260067474</v>
       </c>
       <c r="C220" t="n">
-        <v>0.000713544061024434</v>
+        <v>0.5155829739932526</v>
       </c>
       <c r="D220" t="n">
-        <v>0.9992864559389756</v>
+        <v>0.5155829739932526</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49414.fa</t>
+          <t>even_MAG-GUT5249.fa</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.008730638206816965</v>
+        <v>0.004534888148340355</v>
       </c>
       <c r="C221" t="n">
-        <v>0.991269361793183</v>
+        <v>0.9954651118516596</v>
       </c>
       <c r="D221" t="n">
-        <v>0.991269361793183</v>
+        <v>0.9954651118516596</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -6189,17 +6189,17 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49423.fa</t>
+          <t>even_MAG-GUT5358.fa</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.9963006331133981</v>
+        <v>0.9540242279337751</v>
       </c>
       <c r="C222" t="n">
-        <v>0.003699366886601929</v>
+        <v>0.04597577206622497</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9963006331133981</v>
+        <v>0.9540242279337751</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -6215,69 +6215,69 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49507.fa</t>
+          <t>even_MAG-GUT53689.fa</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.9981241139502419</v>
+        <v>0.3435639115895406</v>
       </c>
       <c r="C223" t="n">
-        <v>0.001875886049758072</v>
+        <v>0.6564360884104594</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9981241139502419</v>
+        <v>0.6564360884104594</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49537.fa</t>
+          <t>even_MAG-GUT54544.fa</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.9996045423980605</v>
+        <v>0.0001387563386302526</v>
       </c>
       <c r="C224" t="n">
-        <v>0.0003954576019395417</v>
+        <v>0.9998612436613697</v>
       </c>
       <c r="D224" t="n">
-        <v>0.9996045423980605</v>
+        <v>0.9998612436613697</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49543.fa</t>
+          <t>even_MAG-GUT54574.fa</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.9995170458656657</v>
+        <v>0.9322246929029165</v>
       </c>
       <c r="C225" t="n">
-        <v>0.0004829541343343267</v>
+        <v>0.0677753070970835</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9995170458656657</v>
+        <v>0.9322246929029165</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -6293,69 +6293,69 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4979.fa</t>
+          <t>even_MAG-GUT5486.fa</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.6039808292574717</v>
+        <v>0.01885129692822585</v>
       </c>
       <c r="C226" t="n">
-        <v>0.3960191707425283</v>
+        <v>0.9811487030717742</v>
       </c>
       <c r="D226" t="n">
-        <v>0.6039808292574717</v>
+        <v>0.9811487030717742</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50219.fa</t>
+          <t>even_MAG-GUT54955.fa</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>2.43234938146486e-05</v>
+        <v>0.9999879774771343</v>
       </c>
       <c r="C227" t="n">
-        <v>0.9999756765061854</v>
+        <v>1.202252286573318e-05</v>
       </c>
       <c r="D227" t="n">
-        <v>0.9999756765061854</v>
+        <v>0.9999879774771343</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50483.fa</t>
+          <t>even_MAG-GUT55210.fa</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.0007198868075546373</v>
+        <v>0.0007717328928822376</v>
       </c>
       <c r="C228" t="n">
-        <v>0.9992801131924454</v>
+        <v>0.9992282671071178</v>
       </c>
       <c r="D228" t="n">
-        <v>0.9992801131924454</v>
+        <v>0.9992282671071178</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -6371,17 +6371,17 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51557.fa</t>
+          <t>even_MAG-GUT55663.fa</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.9790517792844469</v>
+        <v>0.9999763470248276</v>
       </c>
       <c r="C229" t="n">
-        <v>0.0209482207155531</v>
+        <v>2.365297517236295e-05</v>
       </c>
       <c r="D229" t="n">
-        <v>0.9790517792844469</v>
+        <v>0.9999763470248276</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -6397,17 +6397,17 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51559.fa</t>
+          <t>even_MAG-GUT55688.fa</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.9818143502845026</v>
+        <v>0.9999979033580895</v>
       </c>
       <c r="C230" t="n">
-        <v>0.01818564971549738</v>
+        <v>2.096641910517994e-06</v>
       </c>
       <c r="D230" t="n">
-        <v>0.9818143502845026</v>
+        <v>0.9999979033580895</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -6423,69 +6423,69 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52094.fa</t>
+          <t>even_MAG-GUT55792.fa</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.04576965648711828</v>
+        <v>0.9999905162046347</v>
       </c>
       <c r="C231" t="n">
-        <v>0.9542303435128818</v>
+        <v>9.48379536527623e-06</v>
       </c>
       <c r="D231" t="n">
-        <v>0.9542303435128818</v>
+        <v>0.9999905162046347</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52107.fa</t>
+          <t>even_MAG-GUT56059.fa</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.2406942457938955</v>
+        <v>0.9999954656899683</v>
       </c>
       <c r="C232" t="n">
-        <v>0.7593057542061045</v>
+        <v>4.53431003161553e-06</v>
       </c>
       <c r="D232" t="n">
-        <v>0.7593057542061045</v>
+        <v>0.9999954656899683</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52138.fa</t>
+          <t>even_MAG-GUT56948.fa</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.4844170260067474</v>
+        <v>0.02354213589787013</v>
       </c>
       <c r="C233" t="n">
-        <v>0.5155829739932526</v>
+        <v>0.9764578641021299</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5155829739932526</v>
+        <v>0.9764578641021299</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -6501,17 +6501,17 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5249.fa</t>
+          <t>even_MAG-GUT57094.fa</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.004534888148340355</v>
+        <v>1.417870995867876e-05</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9954651118516596</v>
+        <v>0.9999858212900413</v>
       </c>
       <c r="D234" t="n">
-        <v>0.9954651118516596</v>
+        <v>0.9999858212900413</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -6527,43 +6527,43 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5358.fa</t>
+          <t>even_MAG-GUT57392.fa</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.9540242279337751</v>
+        <v>4.132249515942377e-05</v>
       </c>
       <c r="C235" t="n">
-        <v>0.04597577206622497</v>
+        <v>0.9999586775048406</v>
       </c>
       <c r="D235" t="n">
-        <v>0.9540242279337751</v>
+        <v>0.9999586775048406</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53689.fa</t>
+          <t>even_MAG-GUT57492.fa</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.3435639115895406</v>
+        <v>0.0009846564331664753</v>
       </c>
       <c r="C236" t="n">
-        <v>0.6564360884104594</v>
+        <v>0.9990153435668335</v>
       </c>
       <c r="D236" t="n">
-        <v>0.6564360884104594</v>
+        <v>0.9990153435668335</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -6579,17 +6579,17 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54544.fa</t>
+          <t>even_MAG-GUT57682.fa</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.0001387563386302526</v>
+        <v>3.352107625365086e-06</v>
       </c>
       <c r="C237" t="n">
-        <v>0.9998612436613697</v>
+        <v>0.9999966478923746</v>
       </c>
       <c r="D237" t="n">
-        <v>0.9998612436613697</v>
+        <v>0.9999966478923746</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -6605,43 +6605,43 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54574.fa</t>
+          <t>even_MAG-GUT57819.fa</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.9322246929029165</v>
+        <v>3.741570674398176e-07</v>
       </c>
       <c r="C238" t="n">
-        <v>0.0677753070970835</v>
+        <v>0.9999996258429326</v>
       </c>
       <c r="D238" t="n">
-        <v>0.9322246929029165</v>
+        <v>0.9999996258429326</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5486.fa</t>
+          <t>even_MAG-GUT57904.fa</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.01885129692822585</v>
+        <v>0.00127271898224468</v>
       </c>
       <c r="C239" t="n">
-        <v>0.9811487030717742</v>
+        <v>0.9987272810177553</v>
       </c>
       <c r="D239" t="n">
-        <v>0.9811487030717742</v>
+        <v>0.9987272810177553</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -6657,95 +6657,95 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54955.fa</t>
+          <t>even_MAG-GUT58156.fa</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.9999879774771343</v>
+        <v>2.193948475037732e-05</v>
       </c>
       <c r="C240" t="n">
-        <v>1.202252286573318e-05</v>
+        <v>0.9999780605152496</v>
       </c>
       <c r="D240" t="n">
-        <v>0.9999879774771343</v>
+        <v>0.9999780605152496</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55210.fa</t>
+          <t>even_MAG-GUT5848.fa</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.0007717328928822376</v>
+        <v>0.9830807358965918</v>
       </c>
       <c r="C241" t="n">
-        <v>0.9992282671071178</v>
+        <v>0.01691926410340822</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9992282671071178</v>
+        <v>0.9830807358965918</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55663.fa</t>
+          <t>even_MAG-GUT58768.fa</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.9999763470248276</v>
+        <v>0.004664425753023504</v>
       </c>
       <c r="C242" t="n">
-        <v>2.365297517236295e-05</v>
+        <v>0.9953355742469765</v>
       </c>
       <c r="D242" t="n">
-        <v>0.9999763470248276</v>
+        <v>0.9953355742469765</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55688.fa</t>
+          <t>even_MAG-GUT59114.fa</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.9999979033580895</v>
+        <v>0.7745042358715679</v>
       </c>
       <c r="C243" t="n">
-        <v>2.096641910517994e-06</v>
+        <v>0.2254957641284322</v>
       </c>
       <c r="D243" t="n">
-        <v>0.9999979033580895</v>
+        <v>0.7745042358715679</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -6761,69 +6761,69 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55792.fa</t>
+          <t>even_MAG-GUT59205.fa</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.9999905162046347</v>
+        <v>0.003404372077872475</v>
       </c>
       <c r="C244" t="n">
-        <v>9.48379536527623e-06</v>
+        <v>0.9965956279221275</v>
       </c>
       <c r="D244" t="n">
-        <v>0.9999905162046347</v>
+        <v>0.9965956279221275</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56059.fa</t>
+          <t>even_MAG-GUT59296.fa</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.9999954656899683</v>
+        <v>1.656297059282608e-06</v>
       </c>
       <c r="C245" t="n">
-        <v>4.53431003161553e-06</v>
+        <v>0.9999983437029407</v>
       </c>
       <c r="D245" t="n">
-        <v>0.9999954656899683</v>
+        <v>0.9999983437029407</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56776.fa</t>
+          <t>even_MAG-GUT59472.fa</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.9976892852537398</v>
+        <v>0.9999943023021188</v>
       </c>
       <c r="C246" t="n">
-        <v>0.002310714746260242</v>
+        <v>5.697697881222016e-06</v>
       </c>
       <c r="D246" t="n">
-        <v>0.9976892852537398</v>
+        <v>0.9999943023021188</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -6839,17 +6839,17 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56948.fa</t>
+          <t>even_MAG-GUT59532.fa</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.02354213589787013</v>
+        <v>0.001303928364752571</v>
       </c>
       <c r="C247" t="n">
-        <v>0.9764578641021299</v>
+        <v>0.9986960716352474</v>
       </c>
       <c r="D247" t="n">
-        <v>0.9764578641021299</v>
+        <v>0.9986960716352474</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -6865,17 +6865,17 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57094.fa</t>
+          <t>even_MAG-GUT59561.fa</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1.417870995867876e-05</v>
+        <v>0.0005846359740128149</v>
       </c>
       <c r="C248" t="n">
-        <v>0.9999858212900413</v>
+        <v>0.9994153640259872</v>
       </c>
       <c r="D248" t="n">
-        <v>0.9999858212900413</v>
+        <v>0.9994153640259872</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -6891,17 +6891,17 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57392.fa</t>
+          <t>even_MAG-GUT59569.fa</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>4.132249515942377e-05</v>
+        <v>0.0001025151991903561</v>
       </c>
       <c r="C249" t="n">
-        <v>0.9999586775048406</v>
+        <v>0.9998974848008096</v>
       </c>
       <c r="D249" t="n">
-        <v>0.9999586775048406</v>
+        <v>0.9998974848008096</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -6917,17 +6917,17 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57492.fa</t>
+          <t>even_MAG-GUT61666.fa</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.0009846564331664753</v>
+        <v>0.01937934516502748</v>
       </c>
       <c r="C250" t="n">
-        <v>0.9990153435668335</v>
+        <v>0.9806206548349725</v>
       </c>
       <c r="D250" t="n">
-        <v>0.9990153435668335</v>
+        <v>0.9806206548349725</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -6943,17 +6943,17 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57682.fa</t>
+          <t>even_MAG-GUT61918.fa</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>3.352107625365086e-06</v>
+        <v>0.003282702362769951</v>
       </c>
       <c r="C251" t="n">
-        <v>0.9999966478923746</v>
+        <v>0.99671729763723</v>
       </c>
       <c r="D251" t="n">
-        <v>0.9999966478923746</v>
+        <v>0.99671729763723</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -6969,43 +6969,43 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57819.fa</t>
+          <t>even_MAG-GUT62023.fa</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>3.741570674398176e-07</v>
+        <v>0.999996627234816</v>
       </c>
       <c r="C252" t="n">
-        <v>0.9999996258429326</v>
+        <v>3.372765183985736e-06</v>
       </c>
       <c r="D252" t="n">
-        <v>0.9999996258429326</v>
+        <v>0.999996627234816</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57904.fa</t>
+          <t>even_MAG-GUT62293.fa</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.00127271898224468</v>
+        <v>6.634869835875357e-06</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9987272810177553</v>
+        <v>0.9999933651301641</v>
       </c>
       <c r="D253" t="n">
-        <v>0.9987272810177553</v>
+        <v>0.9999933651301641</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -7021,43 +7021,43 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58156.fa</t>
+          <t>even_MAG-GUT6244.fa</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>2.193948475037732e-05</v>
+        <v>0.9984546069562802</v>
       </c>
       <c r="C254" t="n">
-        <v>0.9999780605152496</v>
+        <v>0.001545393043719842</v>
       </c>
       <c r="D254" t="n">
-        <v>0.9999780605152496</v>
+        <v>0.9984546069562802</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5848.fa</t>
+          <t>even_MAG-GUT6247.fa</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.9830807358965918</v>
+        <v>0.9990235396922537</v>
       </c>
       <c r="C255" t="n">
-        <v>0.01691926410340822</v>
+        <v>0.0009764603077462859</v>
       </c>
       <c r="D255" t="n">
-        <v>0.9830807358965918</v>
+        <v>0.9990235396922537</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -7073,43 +7073,43 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58768.fa</t>
+          <t>even_MAG-GUT6251.fa</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.004664425753023504</v>
+        <v>0.9991906519124377</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9953355742469765</v>
+        <v>0.000809348087562264</v>
       </c>
       <c r="D256" t="n">
-        <v>0.9953355742469765</v>
+        <v>0.9991906519124377</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59114.fa</t>
+          <t>even_MAG-GUT6256.fa</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.7745042358715679</v>
+        <v>0.9996539661365862</v>
       </c>
       <c r="C257" t="n">
-        <v>0.2254957641284322</v>
+        <v>0.0003460338634137564</v>
       </c>
       <c r="D257" t="n">
-        <v>0.7745042358715679</v>
+        <v>0.9996539661365862</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -7125,69 +7125,69 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59205.fa</t>
+          <t>even_MAG-GUT6261.fa</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.003404372077872475</v>
+        <v>0.9962697022734293</v>
       </c>
       <c r="C258" t="n">
-        <v>0.9965956279221275</v>
+        <v>0.003730297726570764</v>
       </c>
       <c r="D258" t="n">
-        <v>0.9965956279221275</v>
+        <v>0.9962697022734293</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59296.fa</t>
+          <t>even_MAG-GUT6265.fa</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1.656297059282608e-06</v>
+        <v>0.9972510949738274</v>
       </c>
       <c r="C259" t="n">
-        <v>0.9999983437029407</v>
+        <v>0.002748905026172673</v>
       </c>
       <c r="D259" t="n">
-        <v>0.9999983437029407</v>
+        <v>0.9972510949738274</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59472.fa</t>
+          <t>even_MAG-GUT6273.fa</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.9999943023021188</v>
+        <v>0.9972510949738274</v>
       </c>
       <c r="C260" t="n">
-        <v>5.697697881222016e-06</v>
+        <v>0.002748905026172673</v>
       </c>
       <c r="D260" t="n">
-        <v>0.9999943023021188</v>
+        <v>0.9972510949738274</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -7203,121 +7203,121 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59532.fa</t>
+          <t>even_MAG-GUT6280.fa</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.001303928364752571</v>
+        <v>0.9986486638241421</v>
       </c>
       <c r="C261" t="n">
-        <v>0.9986960716352474</v>
+        <v>0.00135133617585791</v>
       </c>
       <c r="D261" t="n">
-        <v>0.9986960716352474</v>
+        <v>0.9986486638241421</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59561.fa</t>
+          <t>even_MAG-GUT6286.fa</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.0005846359740128149</v>
+        <v>0.9972510949738274</v>
       </c>
       <c r="C262" t="n">
-        <v>0.9994153640259872</v>
+        <v>0.002748905026172673</v>
       </c>
       <c r="D262" t="n">
-        <v>0.9994153640259872</v>
+        <v>0.9972510949738274</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59569.fa</t>
+          <t>even_MAG-GUT6290.fa</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.0001025151991903561</v>
+        <v>0.9986486638241421</v>
       </c>
       <c r="C263" t="n">
-        <v>0.9998974848008096</v>
+        <v>0.00135133617585791</v>
       </c>
       <c r="D263" t="n">
-        <v>0.9998974848008096</v>
+        <v>0.9986486638241421</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61666.fa</t>
+          <t>even_MAG-GUT63164.fa</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.01937934516502748</v>
+        <v>0.8457766585855917</v>
       </c>
       <c r="C264" t="n">
-        <v>0.9806206548349725</v>
+        <v>0.1542233414144084</v>
       </c>
       <c r="D264" t="n">
-        <v>0.9806206548349725</v>
+        <v>0.8457766585855917</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61918.fa</t>
+          <t>even_MAG-GUT63198.fa</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.003282702362769951</v>
+        <v>0.0003168770302243162</v>
       </c>
       <c r="C265" t="n">
-        <v>0.99671729763723</v>
+        <v>0.9996831229697757</v>
       </c>
       <c r="D265" t="n">
-        <v>0.99671729763723</v>
+        <v>0.9996831229697757</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -7333,43 +7333,43 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62023.fa</t>
+          <t>even_MAG-GUT63214.fa</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.999996627234816</v>
+        <v>0.003012243622015132</v>
       </c>
       <c r="C266" t="n">
-        <v>3.372765183985736e-06</v>
+        <v>0.9969877563779849</v>
       </c>
       <c r="D266" t="n">
-        <v>0.999996627234816</v>
+        <v>0.9969877563779849</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62293.fa</t>
+          <t>even_MAG-GUT63219.fa</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>6.634869835875357e-06</v>
+        <v>3.288089040953679e-05</v>
       </c>
       <c r="C267" t="n">
-        <v>0.9999933651301641</v>
+        <v>0.9999671191095905</v>
       </c>
       <c r="D267" t="n">
-        <v>0.9999933651301641</v>
+        <v>0.9999671191095905</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -7385,147 +7385,147 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6244.fa</t>
+          <t>even_MAG-GUT63286.fa</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.9984546069562802</v>
+        <v>0.0003309128399909822</v>
       </c>
       <c r="C268" t="n">
-        <v>0.001545393043719842</v>
+        <v>0.999669087160009</v>
       </c>
       <c r="D268" t="n">
-        <v>0.9984546069562802</v>
+        <v>0.999669087160009</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6247.fa</t>
+          <t>even_MAG-GUT63373.fa</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.9990235396922537</v>
+        <v>0.0003651919347364974</v>
       </c>
       <c r="C269" t="n">
-        <v>0.0009764603077462859</v>
+        <v>0.9996348080652635</v>
       </c>
       <c r="D269" t="n">
-        <v>0.9990235396922537</v>
+        <v>0.9996348080652635</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6251.fa</t>
+          <t>even_MAG-GUT63496.fa</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.9991906519124377</v>
+        <v>0.002185885883783989</v>
       </c>
       <c r="C270" t="n">
-        <v>0.000809348087562264</v>
+        <v>0.997814114116216</v>
       </c>
       <c r="D270" t="n">
-        <v>0.9991906519124377</v>
+        <v>0.997814114116216</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6256.fa</t>
+          <t>even_MAG-GUT63586.fa</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.9996539661365862</v>
+        <v>0.001685383039127908</v>
       </c>
       <c r="C271" t="n">
-        <v>0.0003460338634137564</v>
+        <v>0.9983146169608721</v>
       </c>
       <c r="D271" t="n">
-        <v>0.9996539661365862</v>
+        <v>0.9983146169608721</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6261.fa</t>
+          <t>even_MAG-GUT63602.fa</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.9962697022734293</v>
+        <v>0.0002636078869909797</v>
       </c>
       <c r="C272" t="n">
-        <v>0.003730297726570764</v>
+        <v>0.999736392113009</v>
       </c>
       <c r="D272" t="n">
-        <v>0.9962697022734293</v>
+        <v>0.999736392113009</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6265.fa</t>
+          <t>even_MAG-GUT6384.fa</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.9972510949738274</v>
+        <v>0.9836794215831571</v>
       </c>
       <c r="C273" t="n">
-        <v>0.002748905026172673</v>
+        <v>0.01632057841684289</v>
       </c>
       <c r="D273" t="n">
-        <v>0.9972510949738274</v>
+        <v>0.9836794215831571</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -7541,17 +7541,17 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6273.fa</t>
+          <t>even_MAG-GUT6445.fa</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.9972510949738274</v>
+        <v>0.6177422456541379</v>
       </c>
       <c r="C274" t="n">
-        <v>0.002748905026172673</v>
+        <v>0.3822577543458621</v>
       </c>
       <c r="D274" t="n">
-        <v>0.9972510949738274</v>
+        <v>0.6177422456541379</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -7567,17 +7567,17 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6280.fa</t>
+          <t>even_MAG-GUT64457.fa</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.9986486638241421</v>
+        <v>0.9999661502498144</v>
       </c>
       <c r="C275" t="n">
-        <v>0.00135133617585791</v>
+        <v>3.384975018564063e-05</v>
       </c>
       <c r="D275" t="n">
-        <v>0.9986486638241421</v>
+        <v>0.9999661502498144</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -7593,43 +7593,43 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6286.fa</t>
+          <t>even_MAG-GUT6489.fa</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.9972510949738274</v>
+        <v>0.3391813852291738</v>
       </c>
       <c r="C276" t="n">
-        <v>0.002748905026172673</v>
+        <v>0.6608186147708262</v>
       </c>
       <c r="D276" t="n">
-        <v>0.9972510949738274</v>
+        <v>0.6608186147708262</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6290.fa</t>
+          <t>even_MAG-GUT65341.fa</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.9986486638241421</v>
+        <v>0.9999999991151134</v>
       </c>
       <c r="C277" t="n">
-        <v>0.00135133617585791</v>
+        <v>8.848866014254089e-10</v>
       </c>
       <c r="D277" t="n">
-        <v>0.9986486638241421</v>
+        <v>0.9999999991151134</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -7645,17 +7645,17 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63164.fa</t>
+          <t>even_MAG-GUT65671.fa</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.8457766585855917</v>
+        <v>0.9999980608013996</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1542233414144084</v>
+        <v>1.93919860037975e-06</v>
       </c>
       <c r="D278" t="n">
-        <v>0.8457766585855917</v>
+        <v>0.9999980608013996</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -7671,17 +7671,17 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63198.fa</t>
+          <t>even_MAG-GUT66097.fa</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.0003168770302243162</v>
+        <v>0.1709870657711047</v>
       </c>
       <c r="C279" t="n">
-        <v>0.9996831229697757</v>
+        <v>0.8290129342288953</v>
       </c>
       <c r="D279" t="n">
-        <v>0.9996831229697757</v>
+        <v>0.8290129342288953</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -7697,147 +7697,147 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63214.fa</t>
+          <t>even_MAG-GUT66991.fa</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.003012243622015132</v>
+        <v>0.999995143971112</v>
       </c>
       <c r="C280" t="n">
-        <v>0.9969877563779849</v>
+        <v>4.856028887960546e-06</v>
       </c>
       <c r="D280" t="n">
-        <v>0.9969877563779849</v>
+        <v>0.999995143971112</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63286.fa</t>
+          <t>even_MAG-GUT67012.fa</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.0003309128399909822</v>
+        <v>0.999970975245969</v>
       </c>
       <c r="C281" t="n">
-        <v>0.999669087160009</v>
+        <v>2.902475403100566e-05</v>
       </c>
       <c r="D281" t="n">
-        <v>0.999669087160009</v>
+        <v>0.999970975245969</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63496.fa</t>
+          <t>even_MAG-GUT67029.fa</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.002185885883783989</v>
+        <v>0.9999916846249622</v>
       </c>
       <c r="C282" t="n">
-        <v>0.997814114116216</v>
+        <v>8.315375037772091e-06</v>
       </c>
       <c r="D282" t="n">
-        <v>0.997814114116216</v>
+        <v>0.9999916846249622</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63586.fa</t>
+          <t>even_MAG-GUT67120.fa</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.001685383039127908</v>
+        <v>0.9999822915053334</v>
       </c>
       <c r="C283" t="n">
-        <v>0.9983146169608721</v>
+        <v>1.770849466665785e-05</v>
       </c>
       <c r="D283" t="n">
-        <v>0.9983146169608721</v>
+        <v>0.9999822915053334</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63602.fa</t>
+          <t>even_MAG-GUT67723.fa</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.0002636078869909797</v>
+        <v>0.9999995751201137</v>
       </c>
       <c r="C284" t="n">
-        <v>0.999736392113009</v>
+        <v>4.248798862761562e-07</v>
       </c>
       <c r="D284" t="n">
-        <v>0.999736392113009</v>
+        <v>0.9999995751201137</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6384.fa</t>
+          <t>even_MAG-GUT67770.fa</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.9836794215831571</v>
+        <v>0.9999975908119307</v>
       </c>
       <c r="C285" t="n">
-        <v>0.01632057841684289</v>
+        <v>2.409188069252827e-06</v>
       </c>
       <c r="D285" t="n">
-        <v>0.9836794215831571</v>
+        <v>0.9999975908119307</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -7853,17 +7853,17 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6445.fa</t>
+          <t>even_MAG-GUT67779.fa</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.6177422456541379</v>
+        <v>0.9999959968828718</v>
       </c>
       <c r="C286" t="n">
-        <v>0.3822577543458621</v>
+        <v>4.003117128231363e-06</v>
       </c>
       <c r="D286" t="n">
-        <v>0.6177422456541379</v>
+        <v>0.9999959968828718</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -7879,17 +7879,17 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64457.fa</t>
+          <t>even_MAG-GUT67830.fa</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.9999661502498144</v>
+        <v>0.9999957336865791</v>
       </c>
       <c r="C287" t="n">
-        <v>3.384975018564063e-05</v>
+        <v>4.266313420893444e-06</v>
       </c>
       <c r="D287" t="n">
-        <v>0.9999661502498144</v>
+        <v>0.9999957336865791</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -7905,43 +7905,43 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6489.fa</t>
+          <t>even_MAG-GUT67839.fa</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.3391813852291738</v>
+        <v>0.9999929086310358</v>
       </c>
       <c r="C288" t="n">
-        <v>0.6608186147708262</v>
+        <v>7.091368964134087e-06</v>
       </c>
       <c r="D288" t="n">
-        <v>0.6608186147708262</v>
+        <v>0.9999929086310358</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65341.fa</t>
+          <t>even_MAG-GUT67975.fa</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.9999999991151134</v>
+        <v>0.9999710959767201</v>
       </c>
       <c r="C289" t="n">
-        <v>8.848866014254089e-10</v>
+        <v>2.890402327997384e-05</v>
       </c>
       <c r="D289" t="n">
-        <v>0.9999999991151134</v>
+        <v>0.9999710959767201</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -7957,17 +7957,17 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65671.fa</t>
+          <t>even_MAG-GUT67977.fa</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.9999980608013996</v>
+        <v>0.999997614771462</v>
       </c>
       <c r="C290" t="n">
-        <v>1.93919860037975e-06</v>
+        <v>2.385228538044779e-06</v>
       </c>
       <c r="D290" t="n">
-        <v>0.9999980608013996</v>
+        <v>0.999997614771462</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -7983,43 +7983,43 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66097.fa</t>
+          <t>even_MAG-GUT68007.fa</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.1709870657711047</v>
+        <v>0.9999961882239619</v>
       </c>
       <c r="C291" t="n">
-        <v>0.8290129342288953</v>
+        <v>3.811776038106626e-06</v>
       </c>
       <c r="D291" t="n">
-        <v>0.8290129342288953</v>
+        <v>0.9999961882239619</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66991.fa</t>
+          <t>even_MAG-GUT68023.fa</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.999995143971112</v>
+        <v>0.9999931186607529</v>
       </c>
       <c r="C292" t="n">
-        <v>4.856028887960546e-06</v>
+        <v>6.881339247120707e-06</v>
       </c>
       <c r="D292" t="n">
-        <v>0.999995143971112</v>
+        <v>0.9999931186607529</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -8035,17 +8035,17 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67012.fa</t>
+          <t>even_MAG-GUT68145.fa</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.999970975245969</v>
+        <v>0.9999806236763823</v>
       </c>
       <c r="C293" t="n">
-        <v>2.902475403100566e-05</v>
+        <v>1.937632361771678e-05</v>
       </c>
       <c r="D293" t="n">
-        <v>0.999970975245969</v>
+        <v>0.9999806236763823</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -8061,17 +8061,17 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67029.fa</t>
+          <t>even_MAG-GUT68157.fa</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.9999916846249622</v>
+        <v>0.9999967223855801</v>
       </c>
       <c r="C294" t="n">
-        <v>8.315375037772091e-06</v>
+        <v>3.277614419878109e-06</v>
       </c>
       <c r="D294" t="n">
-        <v>0.9999916846249622</v>
+        <v>0.9999967223855801</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -8087,17 +8087,17 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67120.fa</t>
+          <t>even_MAG-GUT68181.fa</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.9999822915053334</v>
+        <v>0.9999796632543403</v>
       </c>
       <c r="C295" t="n">
-        <v>1.770849466665785e-05</v>
+        <v>2.033674565966245e-05</v>
       </c>
       <c r="D295" t="n">
-        <v>0.9999822915053334</v>
+        <v>0.9999796632543403</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -8113,17 +8113,17 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67723.fa</t>
+          <t>even_MAG-GUT68189.fa</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.9999995751201137</v>
+        <v>0.9999713227812398</v>
       </c>
       <c r="C296" t="n">
-        <v>4.248798862761562e-07</v>
+        <v>2.867721876025769e-05</v>
       </c>
       <c r="D296" t="n">
-        <v>0.9999995751201137</v>
+        <v>0.9999713227812398</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -8139,17 +8139,17 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67770.fa</t>
+          <t>even_MAG-GUT68190.fa</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.9999975908119307</v>
+        <v>0.9999849162081874</v>
       </c>
       <c r="C297" t="n">
-        <v>2.409188069252827e-06</v>
+        <v>1.508379181262549e-05</v>
       </c>
       <c r="D297" t="n">
-        <v>0.9999975908119307</v>
+        <v>0.9999849162081874</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -8165,17 +8165,17 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67779.fa</t>
+          <t>even_MAG-GUT68197.fa</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.9999959968828718</v>
+        <v>0.9999929843281016</v>
       </c>
       <c r="C298" t="n">
-        <v>4.003117128231363e-06</v>
+        <v>7.015671898472504e-06</v>
       </c>
       <c r="D298" t="n">
-        <v>0.9999959968828718</v>
+        <v>0.9999929843281016</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -8191,17 +8191,17 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67830.fa</t>
+          <t>even_MAG-GUT68245.fa</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.9999957336865791</v>
+        <v>0.9994829139007706</v>
       </c>
       <c r="C299" t="n">
-        <v>4.266313420893444e-06</v>
+        <v>0.000517086099229355</v>
       </c>
       <c r="D299" t="n">
-        <v>0.9999957336865791</v>
+        <v>0.9994829139007706</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -8217,17 +8217,17 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67839.fa</t>
+          <t>even_MAG-GUT68475.fa</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.9999929086310358</v>
+        <v>0.9999990127551399</v>
       </c>
       <c r="C300" t="n">
-        <v>7.091368964134087e-06</v>
+        <v>9.872448600541203e-07</v>
       </c>
       <c r="D300" t="n">
-        <v>0.9999929086310358</v>
+        <v>0.9999990127551399</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -8243,69 +8243,69 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67975.fa</t>
+          <t>even_MAG-GUT6856.fa</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.9999710959767201</v>
+        <v>0.009197618808424957</v>
       </c>
       <c r="C301" t="n">
-        <v>2.890402327997384e-05</v>
+        <v>0.990802381191575</v>
       </c>
       <c r="D301" t="n">
-        <v>0.9999710959767201</v>
+        <v>0.990802381191575</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67977.fa</t>
+          <t>even_MAG-GUT68598.fa</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.999997614771462</v>
+        <v>1.28142708444301e-07</v>
       </c>
       <c r="C302" t="n">
-        <v>2.385228538044779e-06</v>
+        <v>0.9999998718572916</v>
       </c>
       <c r="D302" t="n">
-        <v>0.999997614771462</v>
+        <v>0.9999998718572916</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68007.fa</t>
+          <t>even_MAG-GUT68642.fa</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.9999961882239619</v>
+        <v>0.999972250826033</v>
       </c>
       <c r="C303" t="n">
-        <v>3.811776038106626e-06</v>
+        <v>2.774917396699331e-05</v>
       </c>
       <c r="D303" t="n">
-        <v>0.9999961882239619</v>
+        <v>0.999972250826033</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -8321,17 +8321,17 @@
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68023.fa</t>
+          <t>even_MAG-GUT68659.fa</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.9999931186607529</v>
+        <v>0.9999960229810579</v>
       </c>
       <c r="C304" t="n">
-        <v>6.881339247120707e-06</v>
+        <v>3.977018942077764e-06</v>
       </c>
       <c r="D304" t="n">
-        <v>0.9999931186607529</v>
+        <v>0.9999960229810579</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -8347,17 +8347,17 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68145.fa</t>
+          <t>even_MAG-GUT68697.fa</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.9999806236763823</v>
+        <v>0.999992294356286</v>
       </c>
       <c r="C305" t="n">
-        <v>1.937632361771678e-05</v>
+        <v>7.705643714016656e-06</v>
       </c>
       <c r="D305" t="n">
-        <v>0.9999806236763823</v>
+        <v>0.999992294356286</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -8373,43 +8373,43 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68157.fa</t>
+          <t>even_MAG-GUT68785.fa</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.9999967223855801</v>
+        <v>0.04058731924589598</v>
       </c>
       <c r="C306" t="n">
-        <v>3.277614419878109e-06</v>
+        <v>0.959412680754104</v>
       </c>
       <c r="D306" t="n">
-        <v>0.9999967223855801</v>
+        <v>0.959412680754104</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68181.fa</t>
+          <t>even_MAG-GUT68968.fa</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.9999796632543403</v>
+        <v>0.9999800676944088</v>
       </c>
       <c r="C307" t="n">
-        <v>2.033674565966245e-05</v>
+        <v>1.993230559119267e-05</v>
       </c>
       <c r="D307" t="n">
-        <v>0.9999796632543403</v>
+        <v>0.9999800676944088</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -8425,17 +8425,17 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68189.fa</t>
+          <t>even_MAG-GUT69048.fa</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.9999713227812398</v>
+        <v>0.9999973966588142</v>
       </c>
       <c r="C308" t="n">
-        <v>2.867721876025769e-05</v>
+        <v>2.603341185798153e-06</v>
       </c>
       <c r="D308" t="n">
-        <v>0.9999713227812398</v>
+        <v>0.9999973966588142</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -8451,17 +8451,17 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68190.fa</t>
+          <t>even_MAG-GUT69064.fa</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.9999849162081874</v>
+        <v>0.9998665031337678</v>
       </c>
       <c r="C309" t="n">
-        <v>1.508379181262549e-05</v>
+        <v>0.0001334968662322154</v>
       </c>
       <c r="D309" t="n">
-        <v>0.9999849162081874</v>
+        <v>0.9998665031337678</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -8477,17 +8477,17 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68197.fa</t>
+          <t>even_MAG-GUT69117.fa</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.9999929843281016</v>
+        <v>0.9999928580228437</v>
       </c>
       <c r="C310" t="n">
-        <v>7.015671898472504e-06</v>
+        <v>7.141977156358844e-06</v>
       </c>
       <c r="D310" t="n">
-        <v>0.9999929843281016</v>
+        <v>0.9999928580228437</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -8503,17 +8503,17 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68245.fa</t>
+          <t>even_MAG-GUT69121.fa</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.9994829139007706</v>
+        <v>0.9999899733360634</v>
       </c>
       <c r="C311" t="n">
-        <v>0.000517086099229355</v>
+        <v>1.002666393659379e-05</v>
       </c>
       <c r="D311" t="n">
-        <v>0.9994829139007706</v>
+        <v>0.9999899733360634</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -8529,17 +8529,17 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68475.fa</t>
+          <t>even_MAG-GUT69224.fa</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.9999990127551399</v>
+        <v>0.9999807298295028</v>
       </c>
       <c r="C312" t="n">
-        <v>9.872448600541203e-07</v>
+        <v>1.927017049720602e-05</v>
       </c>
       <c r="D312" t="n">
-        <v>0.9999990127551399</v>
+        <v>0.9999807298295028</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -8555,69 +8555,69 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6856.fa</t>
+          <t>even_MAG-GUT69229.fa</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.009197618808424957</v>
+        <v>0.9998637438647437</v>
       </c>
       <c r="C313" t="n">
-        <v>0.990802381191575</v>
+        <v>0.0001362561352561967</v>
       </c>
       <c r="D313" t="n">
-        <v>0.990802381191575</v>
+        <v>0.9998637438647437</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68598.fa</t>
+          <t>even_MAG-GUT69253.fa</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1.28142708444301e-07</v>
+        <v>0.9999993585904007</v>
       </c>
       <c r="C314" t="n">
-        <v>0.9999998718572916</v>
+        <v>6.414095993066519e-07</v>
       </c>
       <c r="D314" t="n">
-        <v>0.9999998718572916</v>
+        <v>0.9999993585904007</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68642.fa</t>
+          <t>even_MAG-GUT69434.fa</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.999972250826033</v>
+        <v>0.999956445201433</v>
       </c>
       <c r="C315" t="n">
-        <v>2.774917396699331e-05</v>
+        <v>4.35547985669828e-05</v>
       </c>
       <c r="D315" t="n">
-        <v>0.999972250826033</v>
+        <v>0.999956445201433</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -8633,17 +8633,17 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68659.fa</t>
+          <t>even_MAG-GUT69447.fa</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.9999960229810579</v>
+        <v>0.9999684626124572</v>
       </c>
       <c r="C316" t="n">
-        <v>3.977018942077764e-06</v>
+        <v>3.153738754279056e-05</v>
       </c>
       <c r="D316" t="n">
-        <v>0.9999960229810579</v>
+        <v>0.9999684626124572</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -8659,17 +8659,17 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68697.fa</t>
+          <t>even_MAG-GUT6955.fa</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.999992294356286</v>
+        <v>0.9996680542736169</v>
       </c>
       <c r="C317" t="n">
-        <v>7.705643714016656e-06</v>
+        <v>0.0003319457263830413</v>
       </c>
       <c r="D317" t="n">
-        <v>0.999992294356286</v>
+        <v>0.9996680542736169</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -8685,43 +8685,43 @@
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68785.fa</t>
+          <t>even_MAG-GUT6968.fa</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.04058731924589598</v>
+        <v>0.9999999519337089</v>
       </c>
       <c r="C318" t="n">
-        <v>0.959412680754104</v>
+        <v>4.806629104614483e-08</v>
       </c>
       <c r="D318" t="n">
-        <v>0.959412680754104</v>
+        <v>0.9999999519337089</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68968.fa</t>
+          <t>even_MAG-GUT74324.fa</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.9999800676944088</v>
+        <v>0.9999953395326104</v>
       </c>
       <c r="C319" t="n">
-        <v>1.993230559119267e-05</v>
+        <v>4.66046738954088e-06</v>
       </c>
       <c r="D319" t="n">
-        <v>0.9999800676944088</v>
+        <v>0.9999953395326104</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -8737,17 +8737,17 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69048.fa</t>
+          <t>even_MAG-GUT74347.fa</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.9999973966588142</v>
+        <v>0.9999934600455961</v>
       </c>
       <c r="C320" t="n">
-        <v>2.603341185798153e-06</v>
+        <v>6.539954403863043e-06</v>
       </c>
       <c r="D320" t="n">
-        <v>0.9999973966588142</v>
+        <v>0.9999934600455961</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -8763,17 +8763,17 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69064.fa</t>
+          <t>even_MAG-GUT76034.fa</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.9998665031337678</v>
+        <v>0.7119962999395737</v>
       </c>
       <c r="C321" t="n">
-        <v>0.0001334968662322154</v>
+        <v>0.2880037000604262</v>
       </c>
       <c r="D321" t="n">
-        <v>0.9998665031337678</v>
+        <v>0.7119962999395737</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -8789,17 +8789,17 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69117.fa</t>
+          <t>even_MAG-GUT7772.fa</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.9999928580228437</v>
+        <v>0.9999887242509351</v>
       </c>
       <c r="C322" t="n">
-        <v>7.141977156358844e-06</v>
+        <v>1.127574906494015e-05</v>
       </c>
       <c r="D322" t="n">
-        <v>0.9999928580228437</v>
+        <v>0.9999887242509351</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -8815,43 +8815,43 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69121.fa</t>
+          <t>even_MAG-GUT77982.fa</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.9999899733360634</v>
+        <v>0.4318110160155851</v>
       </c>
       <c r="C323" t="n">
-        <v>1.002666393659379e-05</v>
+        <v>0.5681889839844149</v>
       </c>
       <c r="D323" t="n">
-        <v>0.9999899733360634</v>
+        <v>0.5681889839844149</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69224.fa</t>
+          <t>even_MAG-GUT78879.fa</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.9999807298295028</v>
+        <v>0.9821845965674886</v>
       </c>
       <c r="C324" t="n">
-        <v>1.927017049720602e-05</v>
+        <v>0.01781540343251147</v>
       </c>
       <c r="D324" t="n">
-        <v>0.9999807298295028</v>
+        <v>0.9821845965674886</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -8867,69 +8867,69 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69229.fa</t>
+          <t>even_MAG-GUT78910.fa</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.9998637438647437</v>
+        <v>0.004870180869212315</v>
       </c>
       <c r="C325" t="n">
-        <v>0.0001362561352561967</v>
+        <v>0.9951298191307877</v>
       </c>
       <c r="D325" t="n">
-        <v>0.9998637438647437</v>
+        <v>0.9951298191307877</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69253.fa</t>
+          <t>even_MAG-GUT79219.fa</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.9999993585904007</v>
+        <v>0.0002804703053785884</v>
       </c>
       <c r="C326" t="n">
-        <v>6.414095993066519e-07</v>
+        <v>0.9997195296946214</v>
       </c>
       <c r="D326" t="n">
-        <v>0.9999993585904007</v>
+        <v>0.9997195296946214</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69434.fa</t>
+          <t>even_MAG-GUT80568.fa</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.999956445201433</v>
+        <v>0.9999993228644039</v>
       </c>
       <c r="C327" t="n">
-        <v>4.35547985669828e-05</v>
+        <v>6.771355961218112e-07</v>
       </c>
       <c r="D327" t="n">
-        <v>0.999956445201433</v>
+        <v>0.9999993228644039</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -8945,43 +8945,43 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69447.fa</t>
+          <t>even_MAG-GUT80819.fa</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.9999684626124572</v>
+        <v>0.03021665305102805</v>
       </c>
       <c r="C328" t="n">
-        <v>3.153738754279056e-05</v>
+        <v>0.9697833469489719</v>
       </c>
       <c r="D328" t="n">
-        <v>0.9999684626124572</v>
+        <v>0.9697833469489719</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6955.fa</t>
+          <t>even_MAG-GUT81959.fa</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.9996680542736169</v>
+        <v>0.9999366769374198</v>
       </c>
       <c r="C329" t="n">
-        <v>0.0003319457263830413</v>
+        <v>6.332306258022249e-05</v>
       </c>
       <c r="D329" t="n">
-        <v>0.9996680542736169</v>
+        <v>0.9999366769374198</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -8997,69 +8997,69 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6968.fa</t>
+          <t>even_MAG-GUT82008.fa</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.9999999519337089</v>
+        <v>1.494151335990068e-08</v>
       </c>
       <c r="C330" t="n">
-        <v>4.806629104614483e-08</v>
+        <v>0.9999999850584866</v>
       </c>
       <c r="D330" t="n">
-        <v>0.9999999519337089</v>
+        <v>0.9999999850584866</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74324.fa</t>
+          <t>even_MAG-GUT84696.fa</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.9999953395326104</v>
+        <v>0.3073475818177803</v>
       </c>
       <c r="C331" t="n">
-        <v>4.66046738954088e-06</v>
+        <v>0.6926524181822197</v>
       </c>
       <c r="D331" t="n">
-        <v>0.9999953395326104</v>
+        <v>0.6926524181822197</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74347.fa</t>
+          <t>even_MAG-GUT85070.fa</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.9999934600455961</v>
+        <v>0.9999972224242791</v>
       </c>
       <c r="C332" t="n">
-        <v>6.539954403863043e-06</v>
+        <v>2.777575720907455e-06</v>
       </c>
       <c r="D332" t="n">
-        <v>0.9999934600455961</v>
+        <v>0.9999972224242791</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -9075,303 +9075,303 @@
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76034.fa</t>
+          <t>even_MAG-GUT85133.fa</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.7119962999395737</v>
+        <v>0.000191179783727069</v>
       </c>
       <c r="C333" t="n">
-        <v>0.2880037000604262</v>
+        <v>0.9998088202162729</v>
       </c>
       <c r="D333" t="n">
-        <v>0.7119962999395737</v>
+        <v>0.9998088202162729</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7772.fa</t>
+          <t>even_MAG-GUT8640.fa</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.9999887242509351</v>
+        <v>0.01612177928566327</v>
       </c>
       <c r="C334" t="n">
-        <v>1.127574906494015e-05</v>
+        <v>0.9838782207143367</v>
       </c>
       <c r="D334" t="n">
-        <v>0.9999887242509351</v>
+        <v>0.9838782207143367</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77982.fa</t>
+          <t>even_MAG-GUT86606.fa</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.4318110160155851</v>
+        <v>0.9999957840790719</v>
       </c>
       <c r="C335" t="n">
-        <v>0.5681889839844149</v>
+        <v>4.215920928111011e-06</v>
       </c>
       <c r="D335" t="n">
-        <v>0.5681889839844149</v>
+        <v>0.9999957840790719</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78879.fa</t>
+          <t>even_MAG-GUT8776.fa</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.9821845965674886</v>
+        <v>1.101880766152252e-05</v>
       </c>
       <c r="C336" t="n">
-        <v>0.01781540343251147</v>
+        <v>0.9999889811923385</v>
       </c>
       <c r="D336" t="n">
-        <v>0.9821845965674886</v>
+        <v>0.9999889811923385</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78910.fa</t>
+          <t>even_MAG-GUT88052.fa</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.004870180869212315</v>
+        <v>0.9999986334599433</v>
       </c>
       <c r="C337" t="n">
-        <v>0.9951298191307877</v>
+        <v>1.366540056705405e-06</v>
       </c>
       <c r="D337" t="n">
-        <v>0.9951298191307877</v>
+        <v>0.9999986334599433</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79219.fa</t>
+          <t>even_MAG-GUT88444.fa</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.0002804703053785884</v>
+        <v>0.9999888997079166</v>
       </c>
       <c r="C338" t="n">
-        <v>0.9997195296946214</v>
+        <v>1.110029208342766e-05</v>
       </c>
       <c r="D338" t="n">
-        <v>0.9997195296946214</v>
+        <v>0.9999888997079166</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80383.fa</t>
+          <t>even_MAG-GUT8940.fa</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.9371988897710426</v>
+        <v>0.2411851960946065</v>
       </c>
       <c r="C339" t="n">
-        <v>0.06280111022895739</v>
+        <v>0.7588148039053935</v>
       </c>
       <c r="D339" t="n">
-        <v>0.9371988897710426</v>
+        <v>0.7588148039053935</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80568.fa</t>
+          <t>even_MAG-GUT89959.fa</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.9999993228644039</v>
+        <v>0.005296108853313108</v>
       </c>
       <c r="C340" t="n">
-        <v>6.771355961218112e-07</v>
+        <v>0.9947038911466869</v>
       </c>
       <c r="D340" t="n">
-        <v>0.9999993228644039</v>
+        <v>0.9947038911466869</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80819.fa</t>
+          <t>even_MAG-GUT9016.fa</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.03021665305102805</v>
+        <v>0.9999994907102265</v>
       </c>
       <c r="C341" t="n">
-        <v>0.9697833469489719</v>
+        <v>5.092897734111069e-07</v>
       </c>
       <c r="D341" t="n">
-        <v>0.9697833469489719</v>
+        <v>0.9999994907102265</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81959.fa</t>
+          <t>even_MAG-GUT90583.fa</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.9999366769374198</v>
+        <v>0.004460175719849913</v>
       </c>
       <c r="C342" t="n">
-        <v>6.332306258022249e-05</v>
+        <v>0.9955398242801501</v>
       </c>
       <c r="D342" t="n">
-        <v>0.9999366769374198</v>
+        <v>0.9955398242801501</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82008.fa</t>
+          <t>even_MAG-GUT91259.fa</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1.494151335990068e-08</v>
+        <v>0.9993437519221148</v>
       </c>
       <c r="C343" t="n">
-        <v>0.9999999850584866</v>
+        <v>0.0006562480778852314</v>
       </c>
       <c r="D343" t="n">
-        <v>0.9999999850584866</v>
+        <v>0.9993437519221148</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83643.fa</t>
+          <t>even_MAG-GUT91528.fa</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.9832067599303443</v>
+        <v>0.9997814015997363</v>
       </c>
       <c r="C344" t="n">
-        <v>0.01679324006965558</v>
+        <v>0.0002185984002636766</v>
       </c>
       <c r="D344" t="n">
-        <v>0.9832067599303443</v>
+        <v>0.9997814015997363</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -9387,43 +9387,43 @@
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84696.fa</t>
+          <t>even_MAG-GUT91549.fa</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.3073475818177803</v>
+        <v>0.9995306768639528</v>
       </c>
       <c r="C345" t="n">
-        <v>0.6926524181822197</v>
+        <v>0.00046932313604717</v>
       </c>
       <c r="D345" t="n">
-        <v>0.6926524181822197</v>
+        <v>0.9995306768639528</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85070.fa</t>
+          <t>even_MAG-GUT91633.fa</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.9999972224242791</v>
+        <v>0.999855040639284</v>
       </c>
       <c r="C346" t="n">
-        <v>2.777575720907455e-06</v>
+        <v>0.0001449593607160606</v>
       </c>
       <c r="D346" t="n">
-        <v>0.9999972224242791</v>
+        <v>0.999855040639284</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -9439,69 +9439,69 @@
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85133.fa</t>
+          <t>even_MAG-GUT91733.fa</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.000191179783727069</v>
+        <v>0.9999835708136954</v>
       </c>
       <c r="C347" t="n">
-        <v>0.9998088202162729</v>
+        <v>1.64291863045735e-05</v>
       </c>
       <c r="D347" t="n">
-        <v>0.9998088202162729</v>
+        <v>0.9999835708136954</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8640.fa</t>
+          <t>even_MAG-GUT91735.fa</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.01612177928566327</v>
+        <v>0.9999835708136954</v>
       </c>
       <c r="C348" t="n">
-        <v>0.9838782207143367</v>
+        <v>1.64291863045735e-05</v>
       </c>
       <c r="D348" t="n">
-        <v>0.9838782207143367</v>
+        <v>0.9999835708136954</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86606.fa</t>
+          <t>even_MAG-GUT91835.fa</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.9999957840790719</v>
+        <v>0.9985102400242912</v>
       </c>
       <c r="C349" t="n">
-        <v>4.215920928111011e-06</v>
+        <v>0.001489759975708785</v>
       </c>
       <c r="D349" t="n">
-        <v>0.9999957840790719</v>
+        <v>0.9985102400242912</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -9517,17 +9517,17 @@
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87133.fa</t>
+          <t>even_MAG-GUT91865.fa</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.9999999978688535</v>
+        <v>0.9992916046787487</v>
       </c>
       <c r="C350" t="n">
-        <v>2.131146520849803e-09</v>
+        <v>0.0007083953212513774</v>
       </c>
       <c r="D350" t="n">
-        <v>0.9999999978688535</v>
+        <v>0.9992916046787487</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -9543,43 +9543,43 @@
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8776.fa</t>
+          <t>even_MAG-GUT91947.fa</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1.101880766152252e-05</v>
+        <v>0.9999821462556289</v>
       </c>
       <c r="C351" t="n">
-        <v>0.9999889811923385</v>
+        <v>1.785374437109026e-05</v>
       </c>
       <c r="D351" t="n">
-        <v>0.9999889811923385</v>
+        <v>0.9999821462556289</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88052.fa</t>
+          <t>even_MAG-GUT92065.fa</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.9999986334599433</v>
+        <v>0.9999755758492047</v>
       </c>
       <c r="C352" t="n">
-        <v>1.366540056705405e-06</v>
+        <v>2.442415079531484e-05</v>
       </c>
       <c r="D352" t="n">
-        <v>0.9999986334599433</v>
+        <v>0.9999755758492047</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -9595,17 +9595,17 @@
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88444.fa</t>
+          <t>even_MAG-GUT92079.fa</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.9999888997079166</v>
+        <v>0.9984808637043885</v>
       </c>
       <c r="C353" t="n">
-        <v>1.110029208342766e-05</v>
+        <v>0.001519136295611517</v>
       </c>
       <c r="D353" t="n">
-        <v>0.9999888997079166</v>
+        <v>0.9984808637043885</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -9621,43 +9621,43 @@
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8940.fa</t>
+          <t>even_MAG-GUT92127.fa</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.2411851960946065</v>
+        <v>0.9994996417593647</v>
       </c>
       <c r="C354" t="n">
-        <v>0.7588148039053935</v>
+        <v>0.0005003582406352862</v>
       </c>
       <c r="D354" t="n">
-        <v>0.7588148039053935</v>
+        <v>0.9994996417593647</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89959.fa</t>
+          <t>even_MAG-GUT9228.fa</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.005296108853313108</v>
+        <v>1.447778795737875e-06</v>
       </c>
       <c r="C355" t="n">
-        <v>0.9947038911466869</v>
+        <v>0.9999985522212043</v>
       </c>
       <c r="D355" t="n">
-        <v>0.9947038911466869</v>
+        <v>0.9999985522212043</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -9673,17 +9673,17 @@
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9016.fa</t>
+          <t>even_MAG-GUT9523.fa</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.9999994907102265</v>
+        <v>0.9999969330068778</v>
       </c>
       <c r="C356" t="n">
-        <v>5.092897734111069e-07</v>
+        <v>3.066993122300251e-06</v>
       </c>
       <c r="D356" t="n">
-        <v>0.9999994907102265</v>
+        <v>0.9999969330068778</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -9699,17 +9699,17 @@
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90583.fa</t>
+          <t>even_MAG-GUT9760.fa</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.004460175719849913</v>
+        <v>6.011603156674816e-05</v>
       </c>
       <c r="C357" t="n">
-        <v>0.9955398242801501</v>
+        <v>0.9999398839684333</v>
       </c>
       <c r="D357" t="n">
-        <v>0.9955398242801501</v>
+        <v>0.9999398839684333</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -9725,17 +9725,17 @@
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91259.fa</t>
+          <t>even_MAG-GUT988.fa</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.9993437519221148</v>
+        <v>0.998502178688596</v>
       </c>
       <c r="C358" t="n">
-        <v>0.0006562480778852314</v>
+        <v>0.001497821311404019</v>
       </c>
       <c r="D358" t="n">
-        <v>0.9993437519221148</v>
+        <v>0.998502178688596</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -9743,396 +9743,6 @@
         </is>
       </c>
       <c r="F358" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91528.fa</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>0.9997814015997363</v>
-      </c>
-      <c r="C359" t="n">
-        <v>0.0002185984002636766</v>
-      </c>
-      <c r="D359" t="n">
-        <v>0.9997814015997363</v>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91549.fa</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>0.9995306768639528</v>
-      </c>
-      <c r="C360" t="n">
-        <v>0.00046932313604717</v>
-      </c>
-      <c r="D360" t="n">
-        <v>0.9995306768639528</v>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91633.fa</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>0.999855040639284</v>
-      </c>
-      <c r="C361" t="n">
-        <v>0.0001449593607160606</v>
-      </c>
-      <c r="D361" t="n">
-        <v>0.999855040639284</v>
-      </c>
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91733.fa</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>0.9999835708136954</v>
-      </c>
-      <c r="C362" t="n">
-        <v>1.64291863045735e-05</v>
-      </c>
-      <c r="D362" t="n">
-        <v>0.9999835708136954</v>
-      </c>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91735.fa</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>0.9999835708136954</v>
-      </c>
-      <c r="C363" t="n">
-        <v>1.64291863045735e-05</v>
-      </c>
-      <c r="D363" t="n">
-        <v>0.9999835708136954</v>
-      </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91835.fa</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>0.9985102400242912</v>
-      </c>
-      <c r="C364" t="n">
-        <v>0.001489759975708785</v>
-      </c>
-      <c r="D364" t="n">
-        <v>0.9985102400242912</v>
-      </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91865.fa</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>0.9992916046787487</v>
-      </c>
-      <c r="C365" t="n">
-        <v>0.0007083953212513774</v>
-      </c>
-      <c r="D365" t="n">
-        <v>0.9992916046787487</v>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91947.fa</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>0.9999821462556289</v>
-      </c>
-      <c r="C366" t="n">
-        <v>1.785374437109026e-05</v>
-      </c>
-      <c r="D366" t="n">
-        <v>0.9999821462556289</v>
-      </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT92065.fa</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>0.9999755758492047</v>
-      </c>
-      <c r="C367" t="n">
-        <v>2.442415079531484e-05</v>
-      </c>
-      <c r="D367" t="n">
-        <v>0.9999755758492047</v>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT92079.fa</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>0.9984808637043885</v>
-      </c>
-      <c r="C368" t="n">
-        <v>0.001519136295611517</v>
-      </c>
-      <c r="D368" t="n">
-        <v>0.9984808637043885</v>
-      </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT92127.fa</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>0.9994996417593647</v>
-      </c>
-      <c r="C369" t="n">
-        <v>0.0005003582406352862</v>
-      </c>
-      <c r="D369" t="n">
-        <v>0.9994996417593647</v>
-      </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9228.fa</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>1.447778795737875e-06</v>
-      </c>
-      <c r="C370" t="n">
-        <v>0.9999985522212043</v>
-      </c>
-      <c r="D370" t="n">
-        <v>0.9999985522212043</v>
-      </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9523.fa</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>0.9999969330068778</v>
-      </c>
-      <c r="C371" t="n">
-        <v>3.066993122300251e-06</v>
-      </c>
-      <c r="D371" t="n">
-        <v>0.9999969330068778</v>
-      </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9760.fa</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>6.011603156674816e-05</v>
-      </c>
-      <c r="C372" t="n">
-        <v>0.9999398839684333</v>
-      </c>
-      <c r="D372" t="n">
-        <v>0.9999398839684333</v>
-      </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT988.fa</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>0.998502178688596</v>
-      </c>
-      <c r="C373" t="n">
-        <v>0.001497821311404019</v>
-      </c>
-      <c r="D373" t="n">
-        <v>0.998502178688596</v>
-      </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-      <c r="F373" t="inlineStr">
         <is>
           <t>c__Actinobacteria</t>
         </is>

--- a/outputs_HGR/p__Actinobacteria.xlsx
+++ b/outputs_HGR/p__Actinobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F268"/>
+  <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,95 +521,95 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10094.fa</t>
+          <t>even_MAG-GUT1012.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02234423249949036</v>
+        <v>0.9997975354607096</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9776557675005096</v>
+        <v>0.0002024645392903537</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9776557675005096</v>
+        <v>0.9997975354607096</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1012.fa</t>
+          <t>even_MAG-GUT1016.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997975354607096</v>
+        <v>6.99377393209577e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002024645392903537</v>
+        <v>0.9999930062260679</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9997975354607096</v>
+        <v>0.9999930062260679</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1016.fa</t>
+          <t>even_MAG-GUT1026.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.99377393209577e-06</v>
+        <v>0.9953877341436812</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999930062260679</v>
+        <v>0.00461226585631882</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999930062260679</v>
+        <v>0.9953877341436812</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1026.fa</t>
+          <t>even_MAG-GUT103.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9953877341436812</v>
+        <v>0.9901435333968783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00461226585631882</v>
+        <v>0.009856466603121672</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9953877341436812</v>
+        <v>0.9901435333968783</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1041,43 +1041,43 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1157.fa</t>
+          <t>even_MAG-GUT11526.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9974670333430458</v>
+        <v>0.2204527186409241</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002532966656954232</v>
+        <v>0.779547281359076</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9974670333430458</v>
+        <v>0.779547281359076</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11934.fa</t>
+          <t>even_MAG-GUT1157.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999966188478729</v>
+        <v>0.9974670333430458</v>
       </c>
       <c r="C25" t="n">
-        <v>3.381152127048581e-06</v>
+        <v>0.002532966656954232</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999966188478729</v>
+        <v>0.9974670333430458</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1093,69 +1093,69 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12393.fa</t>
+          <t>even_MAG-GUT11934.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.41758373027168e-05</v>
+        <v>0.9999966188478729</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9999458241626973</v>
+        <v>3.381152127048581e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999458241626973</v>
+        <v>0.9999966188478729</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1249.fa</t>
+          <t>even_MAG-GUT12393.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9991699538732369</v>
+        <v>5.41758373027168e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0008300461267630471</v>
+        <v>0.9999458241626973</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9991699538732369</v>
+        <v>0.9999458241626973</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1258.fa</t>
+          <t>even_MAG-GUT1249.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9976815573306254</v>
+        <v>0.9991699538732369</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002318442669374633</v>
+        <v>0.0008300461267630471</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9976815573306254</v>
+        <v>0.9991699538732369</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1171,17 +1171,17 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1265.fa</t>
+          <t>even_MAG-GUT1258.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9991123950469909</v>
+        <v>0.9976815573306254</v>
       </c>
       <c r="C29" t="n">
-        <v>0.000887604953009131</v>
+        <v>0.002318442669374633</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9991123950469909</v>
+        <v>0.9976815573306254</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1197,17 +1197,17 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1274.fa</t>
+          <t>even_MAG-GUT1265.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9997049020077674</v>
+        <v>0.9991123950469909</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002950979922325817</v>
+        <v>0.000887604953009131</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9997049020077674</v>
+        <v>0.9991123950469909</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1223,43 +1223,43 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1282.fa</t>
+          <t>even_MAG-GUT12691.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9997473462979601</v>
+        <v>1.271190939555744e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0002526537020398537</v>
+        <v>0.9999872880906044</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9997473462979601</v>
+        <v>0.9999872880906044</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1287.fa</t>
+          <t>even_MAG-GUT1274.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9968624434886357</v>
+        <v>0.9997049020077674</v>
       </c>
       <c r="C32" t="n">
-        <v>0.003137556511364309</v>
+        <v>0.0002950979922325817</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9968624434886357</v>
+        <v>0.9997049020077674</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1275,43 +1275,43 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1389.fa</t>
+          <t>even_MAG-GUT1282.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0004931550076074931</v>
+        <v>0.9997473462979601</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9995068449923925</v>
+        <v>0.0002526537020398537</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9995068449923925</v>
+        <v>0.9997473462979601</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1453.fa</t>
+          <t>even_MAG-GUT1287.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9990324686239811</v>
+        <v>0.9968624434886357</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0009675313760189423</v>
+        <v>0.003137556511364309</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9990324686239811</v>
+        <v>0.9968624434886357</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1327,43 +1327,43 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1485.fa</t>
+          <t>even_MAG-GUT1389.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9989194098924844</v>
+        <v>0.0004931550076074931</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001080590107515649</v>
+        <v>0.9995068449923925</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9989194098924844</v>
+        <v>0.9995068449923925</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT151.fa</t>
+          <t>even_MAG-GUT14027.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.006166954690585813</v>
+        <v>0.09624868527763386</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9938330453094142</v>
+        <v>0.9037513147223661</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9938330453094142</v>
+        <v>0.9037513147223661</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1379,17 +1379,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1529.fa</t>
+          <t>even_MAG-GUT1453.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9998088490061109</v>
+        <v>0.9990324686239811</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0001911509938890705</v>
+        <v>0.0009675313760189423</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9998088490061109</v>
+        <v>0.9990324686239811</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1405,17 +1405,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1534.fa</t>
+          <t>even_MAG-GUT1485.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9987464027740527</v>
+        <v>0.9989194098924844</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001253597225947351</v>
+        <v>0.001080590107515649</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9987464027740527</v>
+        <v>0.9989194098924844</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1431,147 +1431,147 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1537.fa</t>
+          <t>even_MAG-GUT151.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9996850931012559</v>
+        <v>0.006166954690585813</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0003149068987441283</v>
+        <v>0.9938330453094142</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9996850931012559</v>
+        <v>0.9938330453094142</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15850.fa</t>
+          <t>even_MAG-GUT1529.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.596619202921424e-05</v>
+        <v>0.9998088490061109</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9999740338079708</v>
+        <v>0.0001911509938890705</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9999740338079708</v>
+        <v>0.9998088490061109</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15909.fa</t>
+          <t>even_MAG-GUT1534.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.004334498994773672</v>
+        <v>0.9987464027740527</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9956655010052263</v>
+        <v>0.001253597225947351</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9956655010052263</v>
+        <v>0.9987464027740527</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17247.fa</t>
+          <t>even_MAG-GUT1537.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.001455377860978491</v>
+        <v>0.9996850931012559</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9985446221390215</v>
+        <v>0.0003149068987441283</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9985446221390215</v>
+        <v>0.9996850931012559</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1826.fa</t>
+          <t>even_MAG-GUT15850.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9999881591864158</v>
+        <v>2.596619202921424e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>1.184081358420786e-05</v>
+        <v>0.9999740338079708</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9999881591864158</v>
+        <v>0.9999740338079708</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18429.fa</t>
+          <t>even_MAG-GUT15909.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.732034038379407e-05</v>
+        <v>0.004334498994773672</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9999526796596162</v>
+        <v>0.9956655010052263</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9999526796596162</v>
+        <v>0.9956655010052263</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1587,69 +1587,69 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1870.fa</t>
+          <t>even_MAG-GUT17247.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9993462810210062</v>
+        <v>0.001455377860978491</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0006537189789937616</v>
+        <v>0.9985446221390215</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9993462810210062</v>
+        <v>0.9985446221390215</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1873.fa</t>
+          <t>even_MAG-GUT17705.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9984937663832439</v>
+        <v>0.01009761533138387</v>
       </c>
       <c r="C46" t="n">
-        <v>0.001506233616756015</v>
+        <v>0.9899023846686161</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9984937663832439</v>
+        <v>0.9899023846686161</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1877.fa</t>
+          <t>even_MAG-GUT1826.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9988063160322053</v>
+        <v>0.9999881591864158</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00119368396779476</v>
+        <v>1.184081358420786e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9988063160322053</v>
+        <v>0.9999881591864158</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1665,43 +1665,43 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1881.fa</t>
+          <t>even_MAG-GUT18429.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9992854262889458</v>
+        <v>4.732034038379407e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0007145737110542317</v>
+        <v>0.9999526796596162</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9992854262889458</v>
+        <v>0.9999526796596162</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1883.fa</t>
+          <t>even_MAG-GUT1870.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9991851070475541</v>
+        <v>0.9993462810210062</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0008148929524458869</v>
+        <v>0.0006537189789937616</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9991851070475541</v>
+        <v>0.9993462810210062</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1717,17 +1717,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1912.fa</t>
+          <t>even_MAG-GUT1873.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9978962082442892</v>
+        <v>0.9984937663832439</v>
       </c>
       <c r="C50" t="n">
-        <v>0.002103791755710889</v>
+        <v>0.001506233616756015</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9978962082442892</v>
+        <v>0.9984937663832439</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1743,69 +1743,69 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1975.fa</t>
+          <t>even_MAG-GUT1877.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.000302966929758508</v>
+        <v>0.9988063160322053</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9996970330702415</v>
+        <v>0.00119368396779476</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9996970330702415</v>
+        <v>0.9988063160322053</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1986.fa</t>
+          <t>even_MAG-GUT1881.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0002109378768231362</v>
+        <v>0.9992854262889458</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9997890621231769</v>
+        <v>0.0007145737110542317</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9997890621231769</v>
+        <v>0.9992854262889458</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2058.fa</t>
+          <t>even_MAG-GUT1883.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9999262453482755</v>
+        <v>0.9991851070475541</v>
       </c>
       <c r="C53" t="n">
-        <v>7.375465172450452e-05</v>
+        <v>0.0008148929524458869</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9999262453482755</v>
+        <v>0.9991851070475541</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1821,17 +1821,17 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2078.fa</t>
+          <t>even_MAG-GUT1912.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9999897401177689</v>
+        <v>0.9978962082442892</v>
       </c>
       <c r="C54" t="n">
-        <v>1.025988223114302e-05</v>
+        <v>0.002103791755710889</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9999897401177689</v>
+        <v>0.9978962082442892</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1847,43 +1847,43 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2079.fa</t>
+          <t>even_MAG-GUT1975.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9999983845569275</v>
+        <v>0.000302966929758508</v>
       </c>
       <c r="C55" t="n">
-        <v>1.615443072509262e-06</v>
+        <v>0.9996970330702415</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9999983845569275</v>
+        <v>0.9996970330702415</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21962.fa</t>
+          <t>even_MAG-GUT1986.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.009029879254083273</v>
+        <v>0.0002109378768231362</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9909701207459167</v>
+        <v>0.9997890621231769</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9909701207459167</v>
+        <v>0.9997890621231769</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1899,43 +1899,43 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23346.fa</t>
+          <t>even_MAG-GUT20293.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9999949839648279</v>
+        <v>0.0005734663284825414</v>
       </c>
       <c r="C57" t="n">
-        <v>5.01603517216352e-06</v>
+        <v>0.9994265336715175</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9999949839648279</v>
+        <v>0.9994265336715175</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23723.fa</t>
+          <t>even_MAG-GUT2058.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9999668794982766</v>
+        <v>0.9999262453482755</v>
       </c>
       <c r="C58" t="n">
-        <v>3.312050172345233e-05</v>
+        <v>7.375465172450452e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9999668794982766</v>
+        <v>0.9999262453482755</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1951,69 +1951,69 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23753.fa</t>
+          <t>even_MAG-GUT2078.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.000312125511624739</v>
+        <v>0.9999897401177689</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9996878744883753</v>
+        <v>1.025988223114302e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9996878744883753</v>
+        <v>0.9999897401177689</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25763.fa</t>
+          <t>even_MAG-GUT2079.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>9.617137333606252e-06</v>
+        <v>0.9999983845569275</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9999903828626664</v>
+        <v>1.615443072509262e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9999903828626664</v>
+        <v>0.9999983845569275</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25961.fa</t>
+          <t>even_MAG-GUT21962.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.699187429649029e-06</v>
+        <v>0.009029879254083273</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9999983008125704</v>
+        <v>0.9909701207459167</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9999983008125704</v>
+        <v>0.9909701207459167</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2029,17 +2029,17 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26303.fa</t>
+          <t>even_MAG-GUT22751.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.651843910499551e-05</v>
+        <v>0.1919005751649439</v>
       </c>
       <c r="C62" t="n">
-        <v>0.999983481560895</v>
+        <v>0.8080994248350561</v>
       </c>
       <c r="D62" t="n">
-        <v>0.999983481560895</v>
+        <v>0.8080994248350561</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2055,69 +2055,69 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26387.fa</t>
+          <t>even_MAG-GUT23346.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9.904016241013558e-06</v>
+        <v>0.9999949839648279</v>
       </c>
       <c r="C63" t="n">
-        <v>0.999990095983759</v>
+        <v>5.01603517216352e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>0.999990095983759</v>
+        <v>0.9999949839648279</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26531.fa</t>
+          <t>even_MAG-GUT23723.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0004328991384430214</v>
+        <v>0.9999668794982766</v>
       </c>
       <c r="C64" t="n">
-        <v>0.999567100861557</v>
+        <v>3.312050172345233e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0.999567100861557</v>
+        <v>0.9999668794982766</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26562.fa</t>
+          <t>even_MAG-GUT23753.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4.455290792515498e-06</v>
+        <v>0.000312125511624739</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9999955447092075</v>
+        <v>0.9996878744883753</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9999955447092075</v>
+        <v>0.9996878744883753</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2133,17 +2133,17 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26586.fa</t>
+          <t>even_MAG-GUT24184.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9999932687969516</v>
+        <v>0.5259850370675535</v>
       </c>
       <c r="C66" t="n">
-        <v>6.731203048432622e-06</v>
+        <v>0.4740149629324465</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9999932687969516</v>
+        <v>0.5259850370675535</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2152,24 +2152,24 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Actinobacteria(reject)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27426.fa</t>
+          <t>even_MAG-GUT25763.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.000743320642525136</v>
+        <v>9.617137333606252e-06</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9992566793574749</v>
+        <v>0.9999903828626664</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9992566793574749</v>
+        <v>0.9999903828626664</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2185,69 +2185,69 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28721.fa</t>
+          <t>even_MAG-GUT25961.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9999889518125746</v>
+        <v>1.699187429649029e-06</v>
       </c>
       <c r="C68" t="n">
-        <v>1.104818742535237e-05</v>
+        <v>0.9999983008125704</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9999889518125746</v>
+        <v>0.9999983008125704</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28738.fa</t>
+          <t>even_MAG-GUT26205.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9999983076402502</v>
+        <v>3.956551486439253e-08</v>
       </c>
       <c r="C69" t="n">
-        <v>1.692359749777747e-06</v>
+        <v>0.9999999604344851</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9999983076402502</v>
+        <v>0.9999999604344851</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29414.fa</t>
+          <t>even_MAG-GUT26303.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.00336116685372323</v>
+        <v>1.651843910499551e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9966388331462768</v>
+        <v>0.999983481560895</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9966388331462768</v>
+        <v>0.999983481560895</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2263,17 +2263,17 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29494.fa</t>
+          <t>even_MAG-GUT26387.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.003776253218457426</v>
+        <v>9.904016241013558e-06</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9962237467815426</v>
+        <v>0.999990095983759</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9962237467815426</v>
+        <v>0.999990095983759</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2289,17 +2289,17 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31502.fa</t>
+          <t>even_MAG-GUT26459.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.001008394336556639</v>
+        <v>1.025442243951513e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9989916056634434</v>
+        <v>0.9999897455775605</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9989916056634434</v>
+        <v>0.9999897455775605</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2315,17 +2315,17 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32356.fa</t>
+          <t>even_MAG-GUT26531.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0005972810723033906</v>
+        <v>0.0004328991384430214</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9994027189276966</v>
+        <v>0.999567100861557</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9994027189276966</v>
+        <v>0.999567100861557</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2341,17 +2341,17 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32509.fa</t>
+          <t>even_MAG-GUT26562.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0005566847699748356</v>
+        <v>4.455290792515498e-06</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9994433152300252</v>
+        <v>0.9999955447092075</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9994433152300252</v>
+        <v>0.9999955447092075</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2367,43 +2367,43 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32879.fa</t>
+          <t>even_MAG-GUT26586.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5.100584796147167e-05</v>
+        <v>0.9999932687969516</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9999489941520385</v>
+        <v>6.731203048432622e-06</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9999489941520385</v>
+        <v>0.9999932687969516</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32889.fa</t>
+          <t>even_MAG-GUT2660.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0004929247922854652</v>
+        <v>9.023167853239311e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9995070752077145</v>
+        <v>0.9999097683214676</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9995070752077145</v>
+        <v>0.9999097683214676</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2419,17 +2419,17 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32902.fa</t>
+          <t>even_MAG-GUT2783.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0004379953444233475</v>
+        <v>0.00659045783221468</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9995620046555767</v>
+        <v>0.9934095421677853</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9995620046555767</v>
+        <v>0.9934095421677853</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2445,69 +2445,69 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33244.fa</t>
+          <t>even_MAG-GUT28721.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0005423636086415717</v>
+        <v>0.9999889518125746</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9994576363913584</v>
+        <v>1.104818742535237e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9994576363913584</v>
+        <v>0.9999889518125746</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33557.fa</t>
+          <t>even_MAG-GUT28738.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0001114571894943461</v>
+        <v>0.9999983076402502</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9998885428105057</v>
+        <v>1.692359749777747e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9998885428105057</v>
+        <v>0.9999983076402502</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33569.fa</t>
+          <t>even_MAG-GUT29414.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.001160099383347268</v>
+        <v>0.00336116685372323</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9988399006166527</v>
+        <v>0.9966388331462768</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9988399006166527</v>
+        <v>0.9966388331462768</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2523,17 +2523,17 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34592.fa</t>
+          <t>even_MAG-GUT29494.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.002845996816146612</v>
+        <v>0.003776253218457426</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9971540031838534</v>
+        <v>0.9962237467815426</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9971540031838534</v>
+        <v>0.9962237467815426</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2549,17 +2549,17 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34594.fa</t>
+          <t>even_MAG-GUT30102.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>9.28108330152666e-05</v>
+        <v>0.01023467120312782</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9999071891669847</v>
+        <v>0.9897653287968722</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9999071891669847</v>
+        <v>0.9897653287968722</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2575,17 +2575,17 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34689.fa</t>
+          <t>even_MAG-GUT31343.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.001195219312998597</v>
+        <v>0.02434327650913692</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9988047806870014</v>
+        <v>0.9756567234908631</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9988047806870014</v>
+        <v>0.9756567234908631</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2601,17 +2601,17 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35198.fa</t>
+          <t>even_MAG-GUT31502.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.002209787615094494</v>
+        <v>0.001008394336556639</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9977902123849055</v>
+        <v>0.9989916056634434</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9977902123849055</v>
+        <v>0.9989916056634434</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2627,17 +2627,17 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35271.fa</t>
+          <t>even_MAG-GUT32351.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.0003568986885122971</v>
+        <v>9.847623778358461e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9996431013114877</v>
+        <v>0.9999015237622164</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9996431013114877</v>
+        <v>0.9999015237622164</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2653,17 +2653,17 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3531.fa</t>
+          <t>even_MAG-GUT32356.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4.779042736346995e-05</v>
+        <v>0.0005972810723033906</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9999522095726365</v>
+        <v>0.9994027189276966</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9999522095726365</v>
+        <v>0.9994027189276966</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2679,43 +2679,43 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36138.fa</t>
+          <t>even_MAG-GUT32509.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9999893729147767</v>
+        <v>0.0005566847699748356</v>
       </c>
       <c r="C87" t="n">
-        <v>1.062708522322988e-05</v>
+        <v>0.9994433152300252</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9999893729147767</v>
+        <v>0.9994433152300252</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36441.fa</t>
+          <t>even_MAG-GUT32879.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1188820381735248</v>
+        <v>5.100584796147167e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8811179618264752</v>
+        <v>0.9999489941520385</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8811179618264752</v>
+        <v>0.9999489941520385</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2731,17 +2731,17 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37024.fa</t>
+          <t>even_MAG-GUT32889.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0003311712547164891</v>
+        <v>0.0004929247922854652</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9996688287452835</v>
+        <v>0.9995070752077145</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9996688287452835</v>
+        <v>0.9995070752077145</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2757,43 +2757,43 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37090.fa</t>
+          <t>even_MAG-GUT32902.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9999990757698168</v>
+        <v>0.0004379953444233475</v>
       </c>
       <c r="C90" t="n">
-        <v>9.242301831335624e-07</v>
+        <v>0.9995620046555767</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9999990757698168</v>
+        <v>0.9995620046555767</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38263.fa</t>
+          <t>even_MAG-GUT33244.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0002302563399253499</v>
+        <v>0.0005423636086415717</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9997697436600747</v>
+        <v>0.9994576363913584</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9997697436600747</v>
+        <v>0.9994576363913584</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2809,17 +2809,17 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4044.fa</t>
+          <t>even_MAG-GUT33557.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3.960870675479011e-05</v>
+        <v>0.0001114571894943461</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9999603912932452</v>
+        <v>0.9998885428105057</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9999603912932452</v>
+        <v>0.9998885428105057</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2835,95 +2835,95 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT408.fa</t>
+          <t>even_MAG-GUT33569.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9999853490159893</v>
+        <v>0.001160099383347268</v>
       </c>
       <c r="C93" t="n">
-        <v>1.465098401069317e-05</v>
+        <v>0.9988399006166527</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9999853490159893</v>
+        <v>0.9988399006166527</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT409.fa</t>
+          <t>even_MAG-GUT34594.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9999894674893368</v>
+        <v>9.28108330152666e-05</v>
       </c>
       <c r="C94" t="n">
-        <v>1.053251066323648e-05</v>
+        <v>0.9999071891669847</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9999894674893368</v>
+        <v>0.9999071891669847</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT412.fa</t>
+          <t>even_MAG-GUT35087.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9999853547258957</v>
+        <v>2.008846314882629e-05</v>
       </c>
       <c r="C95" t="n">
-        <v>1.464527410434117e-05</v>
+        <v>0.9999799115368512</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9999853547258957</v>
+        <v>0.9999799115368512</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4125.fa</t>
+          <t>even_MAG-GUT35198.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0004883923195196926</v>
+        <v>0.002209787615094494</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9995116076804803</v>
+        <v>0.9977902123849055</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9995116076804803</v>
+        <v>0.9977902123849055</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2939,147 +2939,147 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT418.fa</t>
+          <t>even_MAG-GUT35271.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9999846343536924</v>
+        <v>0.0003568986885122971</v>
       </c>
       <c r="C97" t="n">
-        <v>1.536564630750402e-05</v>
+        <v>0.9996431013114877</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9999846343536924</v>
+        <v>0.9996431013114877</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT420.fa</t>
+          <t>even_MAG-GUT3531.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9999447846353182</v>
+        <v>4.779042736346995e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>5.521536468180042e-05</v>
+        <v>0.9999522095726365</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9999447846353182</v>
+        <v>0.9999522095726365</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4207.fa</t>
+          <t>even_MAG-GUT36138.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.0001390814190938006</v>
+        <v>0.9999893729147767</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9998609185809062</v>
+        <v>1.062708522322988e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9998609185809062</v>
+        <v>0.9999893729147767</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT421.fa</t>
+          <t>even_MAG-GUT36441.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9999936995522724</v>
+        <v>0.1188820381735248</v>
       </c>
       <c r="C100" t="n">
-        <v>6.30044772766883e-06</v>
+        <v>0.8811179618264752</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9999936995522724</v>
+        <v>0.8811179618264752</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT422.fa</t>
+          <t>even_MAG-GUT37024.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.9999943616343763</v>
+        <v>0.0003311712547164891</v>
       </c>
       <c r="C101" t="n">
-        <v>5.63836562374379e-06</v>
+        <v>0.9996688287452835</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9999943616343763</v>
+        <v>0.9996688287452835</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT423.fa</t>
+          <t>even_MAG-GUT37090.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.99999520548895</v>
+        <v>0.9999990757698168</v>
       </c>
       <c r="C102" t="n">
-        <v>4.794511049993947e-06</v>
+        <v>9.242301831335624e-07</v>
       </c>
       <c r="D102" t="n">
-        <v>0.99999520548895</v>
+        <v>0.9999990757698168</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3095,95 +3095,95 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT425.fa</t>
+          <t>even_MAG-GUT38263.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9999715915228659</v>
+        <v>0.0002302563399253499</v>
       </c>
       <c r="C103" t="n">
-        <v>2.84084771341903e-05</v>
+        <v>0.9997697436600747</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9999715915228659</v>
+        <v>0.9997697436600747</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT429.fa</t>
+          <t>even_MAG-GUT4044.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9999865847791382</v>
+        <v>3.960870675479011e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>1.341522086189764e-05</v>
+        <v>0.9999603912932452</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9999865847791382</v>
+        <v>0.9999603912932452</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT430.fa</t>
+          <t>even_MAG-GUT4062.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9999943458023841</v>
+        <v>0.0005580011013407438</v>
       </c>
       <c r="C105" t="n">
-        <v>5.654197615878966e-06</v>
+        <v>0.9994419988986593</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9999943458023841</v>
+        <v>0.9994419988986593</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT431.fa</t>
+          <t>even_MAG-GUT408.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9999951554811649</v>
+        <v>0.9999853490159893</v>
       </c>
       <c r="C106" t="n">
-        <v>4.844518835044731e-06</v>
+        <v>1.465098401069317e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9999951554811649</v>
+        <v>0.9999853490159893</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3199,17 +3199,17 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT432.fa</t>
+          <t>even_MAG-GUT409.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9999950098114612</v>
+        <v>0.9999894674893368</v>
       </c>
       <c r="C107" t="n">
-        <v>4.990188538850483e-06</v>
+        <v>1.053251066323648e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9999950098114612</v>
+        <v>0.9999894674893368</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3225,17 +3225,17 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT433.fa</t>
+          <t>even_MAG-GUT412.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9999842353629935</v>
+        <v>0.9999853547258957</v>
       </c>
       <c r="C108" t="n">
-        <v>1.576463700642147e-05</v>
+        <v>1.464527410434117e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9999842353629935</v>
+        <v>0.9999853547258957</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3251,43 +3251,43 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT435.fa</t>
+          <t>even_MAG-GUT4125.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.999969743865137</v>
+        <v>0.0004883923195196926</v>
       </c>
       <c r="C109" t="n">
-        <v>3.025613486301534e-05</v>
+        <v>0.9995116076804803</v>
       </c>
       <c r="D109" t="n">
-        <v>0.999969743865137</v>
+        <v>0.9995116076804803</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43623.fa</t>
+          <t>even_MAG-GUT418.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9999636511372655</v>
+        <v>0.9999846343536924</v>
       </c>
       <c r="C110" t="n">
-        <v>3.634886273455735e-05</v>
+        <v>1.536564630750402e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9999636511372655</v>
+        <v>0.9999846343536924</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3303,17 +3303,17 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43934.fa</t>
+          <t>even_MAG-GUT420.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.999979279011277</v>
+        <v>0.9999447846353182</v>
       </c>
       <c r="C111" t="n">
-        <v>2.072098872294183e-05</v>
+        <v>5.521536468180042e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>0.999979279011277</v>
+        <v>0.9999447846353182</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3329,43 +3329,43 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT441.fa</t>
+          <t>even_MAG-GUT4207.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9999444262388983</v>
+        <v>0.0001390814190938006</v>
       </c>
       <c r="C112" t="n">
-        <v>5.557376110170323e-05</v>
+        <v>0.9998609185809062</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9999444262388983</v>
+        <v>0.9998609185809062</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT444.fa</t>
+          <t>even_MAG-GUT421.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.999995333476842</v>
+        <v>0.9999936995522724</v>
       </c>
       <c r="C113" t="n">
-        <v>4.6665231580577e-06</v>
+        <v>6.30044772766883e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>0.999995333476842</v>
+        <v>0.9999936995522724</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3381,17 +3381,17 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT445.fa</t>
+          <t>even_MAG-GUT422.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.99999445252723</v>
+        <v>0.9999943616343763</v>
       </c>
       <c r="C114" t="n">
-        <v>5.547472770045778e-06</v>
+        <v>5.63836562374379e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>0.99999445252723</v>
+        <v>0.9999943616343763</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3407,17 +3407,17 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44512.fa</t>
+          <t>even_MAG-GUT423.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9999786522240921</v>
+        <v>0.99999520548895</v>
       </c>
       <c r="C115" t="n">
-        <v>2.134777590790837e-05</v>
+        <v>4.794511049993947e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9999786522240921</v>
+        <v>0.99999520548895</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3433,17 +3433,17 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT446.fa</t>
+          <t>even_MAG-GUT425.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.9999152739475967</v>
+        <v>0.9999715915228659</v>
       </c>
       <c r="C116" t="n">
-        <v>8.472605240329783e-05</v>
+        <v>2.84084771341903e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9999152739475967</v>
+        <v>0.9999715915228659</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3459,43 +3459,43 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44688.fa</t>
+          <t>even_MAG-GUT42852.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.001679586696314406</v>
+        <v>0.5733912214639715</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9983204133036856</v>
+        <v>0.4266087785360285</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9983204133036856</v>
+        <v>0.5733912214639715</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria(reject)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT449.fa</t>
+          <t>even_MAG-GUT429.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.999985457126656</v>
+        <v>0.9999865847791382</v>
       </c>
       <c r="C118" t="n">
-        <v>1.454287334403356e-05</v>
+        <v>1.341522086189764e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>0.999985457126656</v>
+        <v>0.9999865847791382</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3511,17 +3511,17 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44961.fa</t>
+          <t>even_MAG-GUT430.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.9999882502712102</v>
+        <v>0.9999943458023841</v>
       </c>
       <c r="C119" t="n">
-        <v>1.174972878983799e-05</v>
+        <v>5.654197615878966e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9999882502712102</v>
+        <v>0.9999943458023841</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3537,17 +3537,17 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT450.fa</t>
+          <t>even_MAG-GUT431.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.9999872103976981</v>
+        <v>0.9999951554811649</v>
       </c>
       <c r="C120" t="n">
-        <v>1.278960230183728e-05</v>
+        <v>4.844518835044731e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9999872103976981</v>
+        <v>0.9999951554811649</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3563,43 +3563,43 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45090.fa</t>
+          <t>even_MAG-GUT432.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1.611438982251912e-09</v>
+        <v>0.9999950098114612</v>
       </c>
       <c r="C121" t="n">
-        <v>0.999999998388561</v>
+        <v>4.990188538850483e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>0.999999998388561</v>
+        <v>0.9999950098114612</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT452.fa</t>
+          <t>even_MAG-GUT433.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.9999915261446584</v>
+        <v>0.9999842353629935</v>
       </c>
       <c r="C122" t="n">
-        <v>8.473855341659861e-06</v>
+        <v>1.576463700642147e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9999915261446584</v>
+        <v>0.9999842353629935</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3615,43 +3615,43 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT453.fa</t>
+          <t>even_MAG-GUT43378.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.999989139957891</v>
+        <v>8.59372401580405e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>1.086004210907263e-05</v>
+        <v>0.999914062759842</v>
       </c>
       <c r="D123" t="n">
-        <v>0.999989139957891</v>
+        <v>0.999914062759842</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT455.fa</t>
+          <t>even_MAG-GUT435.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.9999885009447903</v>
+        <v>0.999969743865137</v>
       </c>
       <c r="C124" t="n">
-        <v>1.149905520972352e-05</v>
+        <v>3.025613486301534e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9999885009447903</v>
+        <v>0.999969743865137</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3667,17 +3667,17 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT456.fa</t>
+          <t>even_MAG-GUT43623.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.9999964050827268</v>
+        <v>0.9999636511372655</v>
       </c>
       <c r="C125" t="n">
-        <v>3.594917273168721e-06</v>
+        <v>3.634886273455735e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9999964050827268</v>
+        <v>0.9999636511372655</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3693,17 +3693,17 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT457.fa</t>
+          <t>even_MAG-GUT43628.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.9999946492663723</v>
+        <v>0.9999110807178694</v>
       </c>
       <c r="C126" t="n">
-        <v>5.350733627692001e-06</v>
+        <v>8.891928213063791e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9999946492663723</v>
+        <v>0.9999110807178694</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3719,17 +3719,17 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4577.fa</t>
+          <t>even_MAG-GUT43934.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.99999699025476</v>
+        <v>0.999979279011277</v>
       </c>
       <c r="C127" t="n">
-        <v>3.009745240079882e-06</v>
+        <v>2.072098872294183e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>0.99999699025476</v>
+        <v>0.999979279011277</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3745,17 +3745,17 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45829.fa</t>
+          <t>even_MAG-GUT441.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.9999807640488451</v>
+        <v>0.9999444262388983</v>
       </c>
       <c r="C128" t="n">
-        <v>1.923595115488658e-05</v>
+        <v>5.557376110170323e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9999807640488451</v>
+        <v>0.9999444262388983</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3771,17 +3771,17 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT459.fa</t>
+          <t>even_MAG-GUT444.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.9999768582818578</v>
+        <v>0.999995333476842</v>
       </c>
       <c r="C129" t="n">
-        <v>2.314171814221884e-05</v>
+        <v>4.6665231580577e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9999768582818578</v>
+        <v>0.999995333476842</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3797,17 +3797,17 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46159.fa</t>
+          <t>even_MAG-GUT445.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.9999994474585153</v>
+        <v>0.99999445252723</v>
       </c>
       <c r="C130" t="n">
-        <v>5.525414847101143e-07</v>
+        <v>5.547472770045778e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9999994474585153</v>
+        <v>0.99999445252723</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3823,17 +3823,17 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT462.fa</t>
+          <t>even_MAG-GUT44512.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9999957941130611</v>
+        <v>0.9999786522240921</v>
       </c>
       <c r="C131" t="n">
-        <v>4.205886938934534e-06</v>
+        <v>2.134777590790837e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9999957941130611</v>
+        <v>0.9999786522240921</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3849,17 +3849,17 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT463.fa</t>
+          <t>even_MAG-GUT446.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.9999868232453678</v>
+        <v>0.9999152739475967</v>
       </c>
       <c r="C132" t="n">
-        <v>1.317675463216488e-05</v>
+        <v>8.472605240329783e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9999868232453678</v>
+        <v>0.9999152739475967</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3875,43 +3875,43 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT464.fa</t>
+          <t>even_MAG-GUT44688.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.999987571129711</v>
+        <v>0.001679586696314406</v>
       </c>
       <c r="C133" t="n">
-        <v>1.242887028897179e-05</v>
+        <v>0.9983204133036856</v>
       </c>
       <c r="D133" t="n">
-        <v>0.999987571129711</v>
+        <v>0.9983204133036856</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46486.fa</t>
+          <t>even_MAG-GUT44736.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.9999203543670899</v>
+        <v>0.9999855522992958</v>
       </c>
       <c r="C134" t="n">
-        <v>7.964563291012493e-05</v>
+        <v>1.44477007042934e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9999203543670899</v>
+        <v>0.9999855522992958</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3927,17 +3927,17 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46493.fa</t>
+          <t>even_MAG-GUT449.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.9999957972021659</v>
+        <v>0.999985457126656</v>
       </c>
       <c r="C135" t="n">
-        <v>4.202797834040388e-06</v>
+        <v>1.454287334403356e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9999957972021659</v>
+        <v>0.999985457126656</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3953,17 +3953,17 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT465.fa</t>
+          <t>even_MAG-GUT44961.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.9999945663873362</v>
+        <v>0.9999882502712102</v>
       </c>
       <c r="C136" t="n">
-        <v>5.433612663755611e-06</v>
+        <v>1.174972878983799e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9999945663873362</v>
+        <v>0.9999882502712102</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3979,17 +3979,17 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT467.fa</t>
+          <t>even_MAG-GUT450.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.9999908564495799</v>
+        <v>0.9999872103976981</v>
       </c>
       <c r="C137" t="n">
-        <v>9.143550420158733e-06</v>
+        <v>1.278960230183728e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9999908564495799</v>
+        <v>0.9999872103976981</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4005,43 +4005,43 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46719.fa</t>
+          <t>even_MAG-GUT45090.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.9999917547626775</v>
+        <v>1.611438982251912e-09</v>
       </c>
       <c r="C138" t="n">
-        <v>8.245237322451919e-06</v>
+        <v>0.999999998388561</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9999917547626775</v>
+        <v>0.999999998388561</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46760.fa</t>
+          <t>even_MAG-GUT452.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.9998970147254981</v>
+        <v>0.9999915261446584</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0001029852745019201</v>
+        <v>8.473855341659861e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9998970147254981</v>
+        <v>0.9999915261446584</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4057,17 +4057,17 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT468.fa</t>
+          <t>even_MAG-GUT453.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.9999673976565483</v>
+        <v>0.999989139957891</v>
       </c>
       <c r="C140" t="n">
-        <v>3.260234345173221e-05</v>
+        <v>1.086004210907263e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9999673976565483</v>
+        <v>0.999989139957891</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4083,17 +4083,17 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT469.fa</t>
+          <t>even_MAG-GUT455.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.9999849291222344</v>
+        <v>0.9999885009447903</v>
       </c>
       <c r="C141" t="n">
-        <v>1.507087776568159e-05</v>
+        <v>1.149905520972352e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9999849291222344</v>
+        <v>0.9999885009447903</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -4109,17 +4109,17 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT470.fa</t>
+          <t>even_MAG-GUT456.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.9999934910512401</v>
+        <v>0.9999964050827268</v>
       </c>
       <c r="C142" t="n">
-        <v>6.508948759905085e-06</v>
+        <v>3.594917273168721e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9999934910512401</v>
+        <v>0.9999964050827268</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4135,17 +4135,17 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT471.fa</t>
+          <t>even_MAG-GUT457.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.999982201775614</v>
+        <v>0.9999946492663723</v>
       </c>
       <c r="C143" t="n">
-        <v>1.779822438596627e-05</v>
+        <v>5.350733627692001e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>0.999982201775614</v>
+        <v>0.9999946492663723</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4161,17 +4161,17 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47585.fa</t>
+          <t>even_MAG-GUT4577.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.9999975167704758</v>
+        <v>0.99999699025476</v>
       </c>
       <c r="C144" t="n">
-        <v>2.483229524212841e-06</v>
+        <v>3.009745240079882e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9999975167704758</v>
+        <v>0.99999699025476</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4187,17 +4187,17 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47777.fa</t>
+          <t>even_MAG-GUT45829.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.9999977573594262</v>
+        <v>0.9999807640488451</v>
       </c>
       <c r="C145" t="n">
-        <v>2.24264057381513e-06</v>
+        <v>1.923595115488658e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9999977573594262</v>
+        <v>0.9999807640488451</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4213,17 +4213,17 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48579.fa</t>
+          <t>even_MAG-GUT459.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.9999881956724317</v>
+        <v>0.9999768582818578</v>
       </c>
       <c r="C146" t="n">
-        <v>1.180432756828837e-05</v>
+        <v>2.314171814221884e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9999881956724317</v>
+        <v>0.9999768582818578</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4239,17 +4239,17 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48681.fa</t>
+          <t>even_MAG-GUT46159.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.9996543546339428</v>
+        <v>0.9999994474585153</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0003456453660571655</v>
+        <v>5.525414847101143e-07</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9996543546339428</v>
+        <v>0.9999994474585153</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4265,17 +4265,17 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48721.fa</t>
+          <t>even_MAG-GUT462.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.9996540641611565</v>
+        <v>0.9999957941130611</v>
       </c>
       <c r="C148" t="n">
-        <v>0.000345935838843467</v>
+        <v>4.205886938934534e-06</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9996540641611565</v>
+        <v>0.9999957941130611</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4291,17 +4291,17 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48763.fa</t>
+          <t>even_MAG-GUT463.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.9971696647709478</v>
+        <v>0.9999868232453678</v>
       </c>
       <c r="C149" t="n">
-        <v>0.002830335229052159</v>
+        <v>1.317675463216488e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9971696647709478</v>
+        <v>0.9999868232453678</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4317,43 +4317,43 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48779.fa</t>
+          <t>even_MAG-GUT4634.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.00043722654327083</v>
+        <v>0.9821397777256253</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9995627734567292</v>
+        <v>0.01786022227437469</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9995627734567292</v>
+        <v>0.9821397777256253</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48801.fa</t>
+          <t>even_MAG-GUT464.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.9997586792194448</v>
+        <v>0.999987571129711</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0002413207805551103</v>
+        <v>1.242887028897179e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9997586792194448</v>
+        <v>0.999987571129711</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4369,17 +4369,17 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48805.fa</t>
+          <t>even_MAG-GUT46486.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.9984060091854569</v>
+        <v>0.9999203543670899</v>
       </c>
       <c r="C152" t="n">
-        <v>0.00159399081454319</v>
+        <v>7.964563291012493e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9984060091854569</v>
+        <v>0.9999203543670899</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4395,17 +4395,17 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48852.fa</t>
+          <t>even_MAG-GUT46493.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.9993434785862162</v>
+        <v>0.9999957972021659</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0006565214137838254</v>
+        <v>4.202797834040388e-06</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9993434785862162</v>
+        <v>0.9999957972021659</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4421,17 +4421,17 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48995.fa</t>
+          <t>even_MAG-GUT465.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.9965299048625135</v>
+        <v>0.9999945663873362</v>
       </c>
       <c r="C154" t="n">
-        <v>0.003470095137486528</v>
+        <v>5.433612663755611e-06</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9965299048625135</v>
+        <v>0.9999945663873362</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4447,17 +4447,17 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49009.fa</t>
+          <t>even_MAG-GUT467.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.999490766315999</v>
+        <v>0.9999908564495799</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0005092336840010648</v>
+        <v>9.143550420158733e-06</v>
       </c>
       <c r="D155" t="n">
-        <v>0.999490766315999</v>
+        <v>0.9999908564495799</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4473,17 +4473,17 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49041.fa</t>
+          <t>even_MAG-GUT46719.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.9966620484905273</v>
+        <v>0.9999917547626775</v>
       </c>
       <c r="C156" t="n">
-        <v>0.003337951509472731</v>
+        <v>8.245237322451919e-06</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9966620484905273</v>
+        <v>0.9999917547626775</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4499,17 +4499,17 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49046.fa</t>
+          <t>even_MAG-GUT46760.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.9985291863439838</v>
+        <v>0.9998970147254981</v>
       </c>
       <c r="C157" t="n">
-        <v>0.00147081365601617</v>
+        <v>0.0001029852745019201</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9985291863439838</v>
+        <v>0.9998970147254981</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4525,17 +4525,17 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49058.fa</t>
+          <t>even_MAG-GUT468.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.9940031286754036</v>
+        <v>0.9999673976565483</v>
       </c>
       <c r="C158" t="n">
-        <v>0.005996871324596394</v>
+        <v>3.260234345173221e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9940031286754036</v>
+        <v>0.9999673976565483</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4551,17 +4551,17 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49079.fa</t>
+          <t>even_MAG-GUT469.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.9994536855369743</v>
+        <v>0.9999849291222344</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0005463144630256647</v>
+        <v>1.507087776568159e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9994536855369743</v>
+        <v>0.9999849291222344</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4577,17 +4577,17 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49243.fa</t>
+          <t>even_MAG-GUT470.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.9970649213169769</v>
+        <v>0.9999934910512401</v>
       </c>
       <c r="C160" t="n">
-        <v>0.002935078683023103</v>
+        <v>6.508948759905085e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9970649213169769</v>
+        <v>0.9999934910512401</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4603,17 +4603,17 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49261.fa</t>
+          <t>even_MAG-GUT471.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.9996433675731462</v>
+        <v>0.999982201775614</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0003566324268537543</v>
+        <v>1.779822438596627e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9996433675731462</v>
+        <v>0.999982201775614</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4629,17 +4629,17 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49394.fa</t>
+          <t>even_MAG-GUT47330.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.9992864559389756</v>
+        <v>0.999943152920721</v>
       </c>
       <c r="C162" t="n">
-        <v>0.000713544061024434</v>
+        <v>5.684707927904965e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9992864559389756</v>
+        <v>0.999943152920721</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4655,17 +4655,17 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49423.fa</t>
+          <t>even_MAG-GUT47464.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.9963006331133981</v>
+        <v>0.9999810058259273</v>
       </c>
       <c r="C163" t="n">
-        <v>0.003699366886601929</v>
+        <v>1.899417407269629e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9963006331133981</v>
+        <v>0.9999810058259273</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4681,17 +4681,17 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49507.fa</t>
+          <t>even_MAG-GUT47585.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.9981241139502419</v>
+        <v>0.9999975167704758</v>
       </c>
       <c r="C164" t="n">
-        <v>0.001875886049758072</v>
+        <v>2.483229524212841e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9981241139502419</v>
+        <v>0.9999975167704758</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4707,17 +4707,17 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49537.fa</t>
+          <t>even_MAG-GUT47777.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.9996045423980605</v>
+        <v>0.9999977573594262</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0003954576019395417</v>
+        <v>2.24264057381513e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9996045423980605</v>
+        <v>0.9999977573594262</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4733,121 +4733,121 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49543.fa</t>
+          <t>even_MAG-GUT4832.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.9995170458656657</v>
+        <v>6.427208978621035e-05</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0004829541343343267</v>
+        <v>0.9999357279102138</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9995170458656657</v>
+        <v>0.9999357279102138</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50219.fa</t>
+          <t>even_MAG-GUT48579.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2.43234938146486e-05</v>
+        <v>0.9999881956724317</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9999756765061854</v>
+        <v>1.180432756828837e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9999756765061854</v>
+        <v>0.9999881956724317</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53548.fa</t>
+          <t>even_MAG-GUT48681.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.00703771139752829</v>
+        <v>0.9996543546339428</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9929622886024717</v>
+        <v>0.0003456453660571655</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9929622886024717</v>
+        <v>0.9996543546339428</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5486.fa</t>
+          <t>even_MAG-GUT48721.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.01885129692822585</v>
+        <v>0.9996540641611565</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9811487030717742</v>
+        <v>0.000345935838843467</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9811487030717742</v>
+        <v>0.9996540641611565</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54955.fa</t>
+          <t>even_MAG-GUT48763.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.9999879774771343</v>
+        <v>0.9971696647709478</v>
       </c>
       <c r="C170" t="n">
-        <v>1.202252286573318e-05</v>
+        <v>0.002830335229052159</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9999879774771343</v>
+        <v>0.9971696647709478</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4863,17 +4863,17 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55663.fa</t>
+          <t>even_MAG-GUT48801.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.9999763470248276</v>
+        <v>0.9997586792194448</v>
       </c>
       <c r="C171" t="n">
-        <v>2.365297517236295e-05</v>
+        <v>0.0002413207805551103</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9999763470248276</v>
+        <v>0.9997586792194448</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4889,17 +4889,17 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55688.fa</t>
+          <t>even_MAG-GUT48805.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.9999979033580895</v>
+        <v>0.9984060091854569</v>
       </c>
       <c r="C172" t="n">
-        <v>2.096641910517994e-06</v>
+        <v>0.00159399081454319</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9999979033580895</v>
+        <v>0.9984060091854569</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4915,17 +4915,17 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55792.fa</t>
+          <t>even_MAG-GUT48852.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.9999905162046347</v>
+        <v>0.9993434785862162</v>
       </c>
       <c r="C173" t="n">
-        <v>9.48379536527623e-06</v>
+        <v>0.0006565214137838254</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9999905162046347</v>
+        <v>0.9993434785862162</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4941,17 +4941,17 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56059.fa</t>
+          <t>even_MAG-GUT48995.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.9999954656899683</v>
+        <v>0.9965299048625135</v>
       </c>
       <c r="C174" t="n">
-        <v>4.53431003161553e-06</v>
+        <v>0.003470095137486528</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9999954656899683</v>
+        <v>0.9965299048625135</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4967,225 +4967,225 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56948.fa</t>
+          <t>even_MAG-GUT49009.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.02354213589787013</v>
+        <v>0.999490766315999</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9764578641021299</v>
+        <v>0.0005092336840010648</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9764578641021299</v>
+        <v>0.999490766315999</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57018.fa</t>
+          <t>even_MAG-GUT49041.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.001385528530778557</v>
+        <v>0.9966620484905273</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9986144714692214</v>
+        <v>0.003337951509472731</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9986144714692214</v>
+        <v>0.9966620484905273</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57392.fa</t>
+          <t>even_MAG-GUT49046.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>4.132249515942377e-05</v>
+        <v>0.9985291863439838</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9999586775048406</v>
+        <v>0.00147081365601617</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9999586775048406</v>
+        <v>0.9985291863439838</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57492.fa</t>
+          <t>even_MAG-GUT49058.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.0009846564331664753</v>
+        <v>0.9940031286754036</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9990153435668335</v>
+        <v>0.005996871324596394</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9990153435668335</v>
+        <v>0.9940031286754036</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57819.fa</t>
+          <t>even_MAG-GUT49079.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>3.741570674398176e-07</v>
+        <v>0.9994536855369743</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9999996258429326</v>
+        <v>0.0005463144630256647</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9999996258429326</v>
+        <v>0.9994536855369743</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58156.fa</t>
+          <t>even_MAG-GUT49243.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2.193948475037732e-05</v>
+        <v>0.9970649213169769</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9999780605152496</v>
+        <v>0.002935078683023103</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9999780605152496</v>
+        <v>0.9970649213169769</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59205.fa</t>
+          <t>even_MAG-GUT49261.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.003404372077872475</v>
+        <v>0.9996433675731462</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9965956279221275</v>
+        <v>0.0003566324268537543</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9965956279221275</v>
+        <v>0.9996433675731462</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59296.fa</t>
+          <t>even_MAG-GUT49394.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1.656297059282608e-06</v>
+        <v>0.9992864559389756</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9999983437029407</v>
+        <v>0.000713544061024434</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9999983437029407</v>
+        <v>0.9992864559389756</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59472.fa</t>
+          <t>even_MAG-GUT49423.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.9999943023021188</v>
+        <v>0.9963006331133981</v>
       </c>
       <c r="C183" t="n">
-        <v>5.697697881222016e-06</v>
+        <v>0.003699366886601929</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9999943023021188</v>
+        <v>0.9963006331133981</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -5201,95 +5201,95 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59532.fa</t>
+          <t>even_MAG-GUT49507.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.001303928364752571</v>
+        <v>0.9981241139502419</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9986960716352474</v>
+        <v>0.001875886049758072</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9986960716352474</v>
+        <v>0.9981241139502419</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59561.fa</t>
+          <t>even_MAG-GUT49537.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.0005846359740128149</v>
+        <v>0.9996045423980605</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9994153640259872</v>
+        <v>0.0003954576019395417</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9994153640259872</v>
+        <v>0.9996045423980605</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59569.fa</t>
+          <t>even_MAG-GUT49543.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.0001025151991903561</v>
+        <v>0.9995170458656657</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9998974848008096</v>
+        <v>0.0004829541343343267</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9998974848008096</v>
+        <v>0.9995170458656657</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61666.fa</t>
+          <t>even_MAG-GUT50219.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.01937934516502748</v>
+        <v>2.43234938146486e-05</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9806206548349725</v>
+        <v>0.9999756765061854</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9806206548349725</v>
+        <v>0.9999756765061854</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5305,147 +5305,147 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62023.fa</t>
+          <t>even_MAG-GUT50483.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.999996627234816</v>
+        <v>0.0007198868075546373</v>
       </c>
       <c r="C188" t="n">
-        <v>3.372765183985736e-06</v>
+        <v>0.9992801131924454</v>
       </c>
       <c r="D188" t="n">
-        <v>0.999996627234816</v>
+        <v>0.9992801131924454</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62293.fa</t>
+          <t>even_MAG-GUT51557.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>6.634869835875357e-06</v>
+        <v>0.9790517792844469</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9999933651301641</v>
+        <v>0.0209482207155531</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9999933651301641</v>
+        <v>0.9790517792844469</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62413.fa</t>
+          <t>even_MAG-GUT51559.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.007090491280664857</v>
+        <v>0.9818143502845026</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9929095087193351</v>
+        <v>0.01818564971549738</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9929095087193351</v>
+        <v>0.9818143502845026</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6244.fa</t>
+          <t>even_MAG-GUT5249.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.9984546069562802</v>
+        <v>0.004534888148340355</v>
       </c>
       <c r="C191" t="n">
-        <v>0.001545393043719842</v>
+        <v>0.9954651118516596</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9984546069562802</v>
+        <v>0.9954651118516596</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6247.fa</t>
+          <t>even_MAG-GUT53689.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.9990235396922537</v>
+        <v>0.3435639115895406</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0009764603077462859</v>
+        <v>0.6564360884104594</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9990235396922537</v>
+        <v>0.6564360884104594</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62485.fa</t>
+          <t>even_MAG-GUT54544.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.06213949240959971</v>
+        <v>0.0001387563386302526</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9378605075904003</v>
+        <v>0.9998612436613697</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9378605075904003</v>
+        <v>0.9998612436613697</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -5461,43 +5461,43 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6251.fa</t>
+          <t>even_MAG-GUT5486.fa</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.9991906519124377</v>
+        <v>0.01885129692822585</v>
       </c>
       <c r="C194" t="n">
-        <v>0.000809348087562264</v>
+        <v>0.9811487030717742</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9991906519124377</v>
+        <v>0.9811487030717742</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6256.fa</t>
+          <t>even_MAG-GUT54955.fa</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.9996539661365862</v>
+        <v>0.9999879774771343</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0003460338634137564</v>
+        <v>1.202252286573318e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9996539661365862</v>
+        <v>0.9999879774771343</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5513,43 +5513,43 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6261.fa</t>
+          <t>even_MAG-GUT55210.fa</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.9962697022734293</v>
+        <v>0.0007717328928822376</v>
       </c>
       <c r="C196" t="n">
-        <v>0.003730297726570764</v>
+        <v>0.9992282671071178</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9962697022734293</v>
+        <v>0.9992282671071178</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6265.fa</t>
+          <t>even_MAG-GUT55663.fa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.9972510949738274</v>
+        <v>0.9999763470248276</v>
       </c>
       <c r="C197" t="n">
-        <v>0.002748905026172673</v>
+        <v>2.365297517236295e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9972510949738274</v>
+        <v>0.9999763470248276</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -5565,17 +5565,17 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6273.fa</t>
+          <t>even_MAG-GUT55688.fa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.9972510949738274</v>
+        <v>0.9999979033580895</v>
       </c>
       <c r="C198" t="n">
-        <v>0.002748905026172673</v>
+        <v>2.096641910517994e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9972510949738274</v>
+        <v>0.9999979033580895</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -5591,17 +5591,17 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6280.fa</t>
+          <t>even_MAG-GUT55792.fa</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.9986486638241421</v>
+        <v>0.9999905162046347</v>
       </c>
       <c r="C199" t="n">
-        <v>0.00135133617585791</v>
+        <v>9.48379536527623e-06</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9986486638241421</v>
+        <v>0.9999905162046347</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -5617,17 +5617,17 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6286.fa</t>
+          <t>even_MAG-GUT56059.fa</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.9972510949738274</v>
+        <v>0.9999954656899683</v>
       </c>
       <c r="C200" t="n">
-        <v>0.002748905026172673</v>
+        <v>4.53431003161553e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9972510949738274</v>
+        <v>0.9999954656899683</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -5643,199 +5643,199 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6290.fa</t>
+          <t>even_MAG-GUT56948.fa</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.9986486638241421</v>
+        <v>0.02354213589787013</v>
       </c>
       <c r="C201" t="n">
-        <v>0.00135133617585791</v>
+        <v>0.9764578641021299</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9986486638241421</v>
+        <v>0.9764578641021299</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64457.fa</t>
+          <t>even_MAG-GUT57094.fa</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.9999661502498144</v>
+        <v>1.417870995867876e-05</v>
       </c>
       <c r="C202" t="n">
-        <v>3.384975018564063e-05</v>
+        <v>0.9999858212900413</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9999661502498144</v>
+        <v>0.9999858212900413</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66991.fa</t>
+          <t>even_MAG-GUT57392.fa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.999995143971112</v>
+        <v>4.132249515942377e-05</v>
       </c>
       <c r="C203" t="n">
-        <v>4.856028887960546e-06</v>
+        <v>0.9999586775048406</v>
       </c>
       <c r="D203" t="n">
-        <v>0.999995143971112</v>
+        <v>0.9999586775048406</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67029.fa</t>
+          <t>even_MAG-GUT57492.fa</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.9999916846249622</v>
+        <v>0.0009846564331664753</v>
       </c>
       <c r="C204" t="n">
-        <v>8.315375037772091e-06</v>
+        <v>0.9990153435668335</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9999916846249622</v>
+        <v>0.9990153435668335</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67120.fa</t>
+          <t>even_MAG-GUT57819.fa</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.9999822915053334</v>
+        <v>3.741570674398176e-07</v>
       </c>
       <c r="C205" t="n">
-        <v>1.770849466665785e-05</v>
+        <v>0.9999996258429326</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9999822915053334</v>
+        <v>0.9999996258429326</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67723.fa</t>
+          <t>even_MAG-GUT57904.fa</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.9999995751201137</v>
+        <v>0.00127271898224468</v>
       </c>
       <c r="C206" t="n">
-        <v>4.248798862761562e-07</v>
+        <v>0.9987272810177553</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9999995751201137</v>
+        <v>0.9987272810177553</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67770.fa</t>
+          <t>even_MAG-GUT58156.fa</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.9999975908119307</v>
+        <v>2.193948475037732e-05</v>
       </c>
       <c r="C207" t="n">
-        <v>2.409188069252827e-06</v>
+        <v>0.9999780605152496</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9999975908119307</v>
+        <v>0.9999780605152496</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67779.fa</t>
+          <t>even_MAG-GUT5848.fa</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.9999959968828718</v>
+        <v>0.9830807358965918</v>
       </c>
       <c r="C208" t="n">
-        <v>4.003117128231363e-06</v>
+        <v>0.01691926410340822</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9999959968828718</v>
+        <v>0.9830807358965918</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -5851,95 +5851,95 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67830.fa</t>
+          <t>even_MAG-GUT58768.fa</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.9999957336865791</v>
+        <v>0.004664425753023504</v>
       </c>
       <c r="C209" t="n">
-        <v>4.266313420893444e-06</v>
+        <v>0.9953355742469765</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9999957336865791</v>
+        <v>0.9953355742469765</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67839.fa</t>
+          <t>even_MAG-GUT59205.fa</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.9999929086310358</v>
+        <v>0.003404372077872475</v>
       </c>
       <c r="C210" t="n">
-        <v>7.091368964134087e-06</v>
+        <v>0.9965956279221275</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9999929086310358</v>
+        <v>0.9965956279221275</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67975.fa</t>
+          <t>even_MAG-GUT59296.fa</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.9999710959767201</v>
+        <v>1.656297059282608e-06</v>
       </c>
       <c r="C211" t="n">
-        <v>2.890402327997384e-05</v>
+        <v>0.9999983437029407</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9999710959767201</v>
+        <v>0.9999983437029407</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67977.fa</t>
+          <t>even_MAG-GUT59472.fa</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.999997614771462</v>
+        <v>0.9999943023021188</v>
       </c>
       <c r="C212" t="n">
-        <v>2.385228538044779e-06</v>
+        <v>5.697697881222016e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>0.999997614771462</v>
+        <v>0.9999943023021188</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -5955,121 +5955,121 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68007.fa</t>
+          <t>even_MAG-GUT59532.fa</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.9999961882239619</v>
+        <v>0.001303928364752571</v>
       </c>
       <c r="C213" t="n">
-        <v>3.811776038106626e-06</v>
+        <v>0.9986960716352474</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9999961882239619</v>
+        <v>0.9986960716352474</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68023.fa</t>
+          <t>even_MAG-GUT59561.fa</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.9999931186607529</v>
+        <v>0.0005846359740128149</v>
       </c>
       <c r="C214" t="n">
-        <v>6.881339247120707e-06</v>
+        <v>0.9994153640259872</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9999931186607529</v>
+        <v>0.9994153640259872</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68145.fa</t>
+          <t>even_MAG-GUT59569.fa</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.9999806236763823</v>
+        <v>0.0001025151991903561</v>
       </c>
       <c r="C215" t="n">
-        <v>1.937632361771678e-05</v>
+        <v>0.9998974848008096</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9999806236763823</v>
+        <v>0.9998974848008096</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68157.fa</t>
+          <t>even_MAG-GUT61666.fa</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.9999967223855801</v>
+        <v>0.01937934516502748</v>
       </c>
       <c r="C216" t="n">
-        <v>3.277614419878109e-06</v>
+        <v>0.9806206548349725</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9999967223855801</v>
+        <v>0.9806206548349725</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68181.fa</t>
+          <t>even_MAG-GUT62023.fa</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.9999796632543403</v>
+        <v>0.999996627234816</v>
       </c>
       <c r="C217" t="n">
-        <v>2.033674565966245e-05</v>
+        <v>3.372765183985736e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9999796632543403</v>
+        <v>0.999996627234816</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -6085,43 +6085,43 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68189.fa</t>
+          <t>even_MAG-GUT62293.fa</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.9999713227812398</v>
+        <v>6.634869835875357e-06</v>
       </c>
       <c r="C218" t="n">
-        <v>2.867721876025769e-05</v>
+        <v>0.9999933651301641</v>
       </c>
       <c r="D218" t="n">
-        <v>0.9999713227812398</v>
+        <v>0.9999933651301641</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68190.fa</t>
+          <t>even_MAG-GUT6244.fa</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.9999849162081874</v>
+        <v>0.9984546069562802</v>
       </c>
       <c r="C219" t="n">
-        <v>1.508379181262549e-05</v>
+        <v>0.001545393043719842</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9999849162081874</v>
+        <v>0.9984546069562802</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -6137,17 +6137,17 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68197.fa</t>
+          <t>even_MAG-GUT6247.fa</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.9999929843281016</v>
+        <v>0.9990235396922537</v>
       </c>
       <c r="C220" t="n">
-        <v>7.015671898472504e-06</v>
+        <v>0.0009764603077462859</v>
       </c>
       <c r="D220" t="n">
-        <v>0.9999929843281016</v>
+        <v>0.9990235396922537</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -6163,17 +6163,17 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68245.fa</t>
+          <t>even_MAG-GUT6251.fa</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.9994829139007706</v>
+        <v>0.9991906519124377</v>
       </c>
       <c r="C221" t="n">
-        <v>0.000517086099229355</v>
+        <v>0.000809348087562264</v>
       </c>
       <c r="D221" t="n">
-        <v>0.9994829139007706</v>
+        <v>0.9991906519124377</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -6189,17 +6189,17 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68475.fa</t>
+          <t>even_MAG-GUT6256.fa</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.9999990127551399</v>
+        <v>0.9996539661365862</v>
       </c>
       <c r="C222" t="n">
-        <v>9.872448600541203e-07</v>
+        <v>0.0003460338634137564</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9999990127551399</v>
+        <v>0.9996539661365862</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -6215,43 +6215,43 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68598.fa</t>
+          <t>even_MAG-GUT6261.fa</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1.28142708444301e-07</v>
+        <v>0.9962697022734293</v>
       </c>
       <c r="C223" t="n">
-        <v>0.9999998718572916</v>
+        <v>0.003730297726570764</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9999998718572916</v>
+        <v>0.9962697022734293</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68642.fa</t>
+          <t>even_MAG-GUT6265.fa</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.999972250826033</v>
+        <v>0.9972510949738274</v>
       </c>
       <c r="C224" t="n">
-        <v>2.774917396699331e-05</v>
+        <v>0.002748905026172673</v>
       </c>
       <c r="D224" t="n">
-        <v>0.999972250826033</v>
+        <v>0.9972510949738274</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -6267,17 +6267,17 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68659.fa</t>
+          <t>even_MAG-GUT6273.fa</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.9999960229810579</v>
+        <v>0.9972510949738274</v>
       </c>
       <c r="C225" t="n">
-        <v>3.977018942077764e-06</v>
+        <v>0.002748905026172673</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9999960229810579</v>
+        <v>0.9972510949738274</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -6293,17 +6293,17 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68697.fa</t>
+          <t>even_MAG-GUT6280.fa</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.999992294356286</v>
+        <v>0.9986486638241421</v>
       </c>
       <c r="C226" t="n">
-        <v>7.705643714016656e-06</v>
+        <v>0.00135133617585791</v>
       </c>
       <c r="D226" t="n">
-        <v>0.999992294356286</v>
+        <v>0.9986486638241421</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -6319,17 +6319,17 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68968.fa</t>
+          <t>even_MAG-GUT6286.fa</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.9999800676944088</v>
+        <v>0.9972510949738274</v>
       </c>
       <c r="C227" t="n">
-        <v>1.993230559119267e-05</v>
+        <v>0.002748905026172673</v>
       </c>
       <c r="D227" t="n">
-        <v>0.9999800676944088</v>
+        <v>0.9972510949738274</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -6345,17 +6345,17 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69048.fa</t>
+          <t>even_MAG-GUT6290.fa</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.9999973966588142</v>
+        <v>0.9986486638241421</v>
       </c>
       <c r="C228" t="n">
-        <v>2.603341185798153e-06</v>
+        <v>0.00135133617585791</v>
       </c>
       <c r="D228" t="n">
-        <v>0.9999973966588142</v>
+        <v>0.9986486638241421</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -6371,17 +6371,17 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69064.fa</t>
+          <t>even_MAG-GUT63164.fa</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.9998665031337678</v>
+        <v>0.8457766585855917</v>
       </c>
       <c r="C229" t="n">
-        <v>0.0001334968662322154</v>
+        <v>0.1542233414144084</v>
       </c>
       <c r="D229" t="n">
-        <v>0.9998665031337678</v>
+        <v>0.8457766585855917</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -6397,173 +6397,173 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69117.fa</t>
+          <t>even_MAG-GUT63198.fa</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.9999928580228437</v>
+        <v>0.0003168770302243162</v>
       </c>
       <c r="C230" t="n">
-        <v>7.141977156358844e-06</v>
+        <v>0.9996831229697757</v>
       </c>
       <c r="D230" t="n">
-        <v>0.9999928580228437</v>
+        <v>0.9996831229697757</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69121.fa</t>
+          <t>even_MAG-GUT63214.fa</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.9999899733360634</v>
+        <v>0.003012243622015132</v>
       </c>
       <c r="C231" t="n">
-        <v>1.002666393659379e-05</v>
+        <v>0.9969877563779849</v>
       </c>
       <c r="D231" t="n">
-        <v>0.9999899733360634</v>
+        <v>0.9969877563779849</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69224.fa</t>
+          <t>even_MAG-GUT63219.fa</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.9999807298295028</v>
+        <v>3.288089040953679e-05</v>
       </c>
       <c r="C232" t="n">
-        <v>1.927017049720602e-05</v>
+        <v>0.9999671191095905</v>
       </c>
       <c r="D232" t="n">
-        <v>0.9999807298295028</v>
+        <v>0.9999671191095905</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69253.fa</t>
+          <t>even_MAG-GUT63286.fa</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.9999993585904007</v>
+        <v>0.0003309128399909822</v>
       </c>
       <c r="C233" t="n">
-        <v>6.414095993066519e-07</v>
+        <v>0.999669087160009</v>
       </c>
       <c r="D233" t="n">
-        <v>0.9999993585904007</v>
+        <v>0.999669087160009</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69434.fa</t>
+          <t>even_MAG-GUT63373.fa</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.999956445201433</v>
+        <v>0.0003651919347364974</v>
       </c>
       <c r="C234" t="n">
-        <v>4.35547985669828e-05</v>
+        <v>0.9996348080652635</v>
       </c>
       <c r="D234" t="n">
-        <v>0.999956445201433</v>
+        <v>0.9996348080652635</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69447.fa</t>
+          <t>even_MAG-GUT63496.fa</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.9999684626124572</v>
+        <v>0.002185885883783989</v>
       </c>
       <c r="C235" t="n">
-        <v>3.153738754279056e-05</v>
+        <v>0.997814114116216</v>
       </c>
       <c r="D235" t="n">
-        <v>0.9999684626124572</v>
+        <v>0.997814114116216</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73018.fa</t>
+          <t>even_MAG-GUT63586.fa</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.009365951113687432</v>
+        <v>0.001685383039127908</v>
       </c>
       <c r="C236" t="n">
-        <v>0.9906340488863126</v>
+        <v>0.9983146169608721</v>
       </c>
       <c r="D236" t="n">
-        <v>0.9906340488863126</v>
+        <v>0.9983146169608721</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -6579,43 +6579,43 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74324.fa</t>
+          <t>even_MAG-GUT63602.fa</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.9999953395326104</v>
+        <v>0.0002636078869909797</v>
       </c>
       <c r="C237" t="n">
-        <v>4.66046738954088e-06</v>
+        <v>0.999736392113009</v>
       </c>
       <c r="D237" t="n">
-        <v>0.9999953395326104</v>
+        <v>0.999736392113009</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74347.fa</t>
+          <t>even_MAG-GUT6384.fa</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.9999934600455961</v>
+        <v>0.9836794215831571</v>
       </c>
       <c r="C238" t="n">
-        <v>6.539954403863043e-06</v>
+        <v>0.01632057841684289</v>
       </c>
       <c r="D238" t="n">
-        <v>0.9999934600455961</v>
+        <v>0.9836794215831571</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -6631,17 +6631,17 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7772.fa</t>
+          <t>even_MAG-GUT6445.fa</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.9999887242509351</v>
+        <v>0.6177422456541379</v>
       </c>
       <c r="C239" t="n">
-        <v>1.127574906494015e-05</v>
+        <v>0.3822577543458621</v>
       </c>
       <c r="D239" t="n">
-        <v>0.9999887242509351</v>
+        <v>0.6177422456541379</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -6650,50 +6650,50 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Actinobacteria(reject)</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78280.fa</t>
+          <t>even_MAG-GUT64457.fa</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.01581379597400423</v>
+        <v>0.9999661502498144</v>
       </c>
       <c r="C240" t="n">
-        <v>0.9841862040259958</v>
+        <v>3.384975018564063e-05</v>
       </c>
       <c r="D240" t="n">
-        <v>0.9841862040259958</v>
+        <v>0.9999661502498144</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78377.fa</t>
+          <t>even_MAG-GUT6489.fa</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.01581379597400423</v>
+        <v>0.3391813852291738</v>
       </c>
       <c r="C241" t="n">
-        <v>0.9841862040259958</v>
+        <v>0.6608186147708262</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9841862040259958</v>
+        <v>0.6608186147708262</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -6702,50 +6702,50 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79275.fa</t>
+          <t>even_MAG-GUT65671.fa</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.1728431124568082</v>
+        <v>0.9999980608013996</v>
       </c>
       <c r="C242" t="n">
-        <v>0.8271568875431918</v>
+        <v>1.93919860037975e-06</v>
       </c>
       <c r="D242" t="n">
-        <v>0.8271568875431918</v>
+        <v>0.9999980608013996</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80568.fa</t>
+          <t>even_MAG-GUT66991.fa</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.9999993228644039</v>
+        <v>0.999995143971112</v>
       </c>
       <c r="C243" t="n">
-        <v>6.771355961218112e-07</v>
+        <v>4.856028887960546e-06</v>
       </c>
       <c r="D243" t="n">
-        <v>0.9999993228644039</v>
+        <v>0.999995143971112</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -6761,43 +6761,43 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80819.fa</t>
+          <t>even_MAG-GUT67012.fa</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.03021665305102805</v>
+        <v>0.999970975245969</v>
       </c>
       <c r="C244" t="n">
-        <v>0.9697833469489719</v>
+        <v>2.902475403100566e-05</v>
       </c>
       <c r="D244" t="n">
-        <v>0.9697833469489719</v>
+        <v>0.999970975245969</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81959.fa</t>
+          <t>even_MAG-GUT67029.fa</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.9999366769374198</v>
+        <v>0.9999916846249622</v>
       </c>
       <c r="C245" t="n">
-        <v>6.332306258022249e-05</v>
+        <v>8.315375037772091e-06</v>
       </c>
       <c r="D245" t="n">
-        <v>0.9999366769374198</v>
+        <v>0.9999916846249622</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -6813,43 +6813,43 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82008.fa</t>
+          <t>even_MAG-GUT67120.fa</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1.494151335990068e-08</v>
+        <v>0.9999822915053334</v>
       </c>
       <c r="C246" t="n">
-        <v>0.9999999850584866</v>
+        <v>1.770849466665785e-05</v>
       </c>
       <c r="D246" t="n">
-        <v>0.9999999850584866</v>
+        <v>0.9999822915053334</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85070.fa</t>
+          <t>even_MAG-GUT67723.fa</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.9999972224242791</v>
+        <v>0.9999995751201137</v>
       </c>
       <c r="C247" t="n">
-        <v>2.777575720907455e-06</v>
+        <v>4.248798862761562e-07</v>
       </c>
       <c r="D247" t="n">
-        <v>0.9999972224242791</v>
+        <v>0.9999995751201137</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -6865,43 +6865,43 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85133.fa</t>
+          <t>even_MAG-GUT67770.fa</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.000191179783727069</v>
+        <v>0.9999975908119307</v>
       </c>
       <c r="C248" t="n">
-        <v>0.9998088202162729</v>
+        <v>2.409188069252827e-06</v>
       </c>
       <c r="D248" t="n">
-        <v>0.9998088202162729</v>
+        <v>0.9999975908119307</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86606.fa</t>
+          <t>even_MAG-GUT67779.fa</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.9999957840790719</v>
+        <v>0.9999959968828718</v>
       </c>
       <c r="C249" t="n">
-        <v>4.215920928111011e-06</v>
+        <v>4.003117128231363e-06</v>
       </c>
       <c r="D249" t="n">
-        <v>0.9999957840790719</v>
+        <v>0.9999959968828718</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -6917,17 +6917,17 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88052.fa</t>
+          <t>even_MAG-GUT67830.fa</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.9999986334599433</v>
+        <v>0.9999957336865791</v>
       </c>
       <c r="C250" t="n">
-        <v>1.366540056705405e-06</v>
+        <v>4.266313420893444e-06</v>
       </c>
       <c r="D250" t="n">
-        <v>0.9999986334599433</v>
+        <v>0.9999957336865791</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -6943,17 +6943,17 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88444.fa</t>
+          <t>even_MAG-GUT67839.fa</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.9999888997079166</v>
+        <v>0.9999929086310358</v>
       </c>
       <c r="C251" t="n">
-        <v>1.110029208342766e-05</v>
+        <v>7.091368964134087e-06</v>
       </c>
       <c r="D251" t="n">
-        <v>0.9999888997079166</v>
+        <v>0.9999929086310358</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -6969,43 +6969,43 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89959.fa</t>
+          <t>even_MAG-GUT67975.fa</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.005296108853313108</v>
+        <v>0.9999710959767201</v>
       </c>
       <c r="C252" t="n">
-        <v>0.9947038911466869</v>
+        <v>2.890402327997384e-05</v>
       </c>
       <c r="D252" t="n">
-        <v>0.9947038911466869</v>
+        <v>0.9999710959767201</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9016.fa</t>
+          <t>even_MAG-GUT67977.fa</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.9999994907102265</v>
+        <v>0.999997614771462</v>
       </c>
       <c r="C253" t="n">
-        <v>5.092897734111069e-07</v>
+        <v>2.385228538044779e-06</v>
       </c>
       <c r="D253" t="n">
-        <v>0.9999994907102265</v>
+        <v>0.999997614771462</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -7021,43 +7021,43 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90583.fa</t>
+          <t>even_MAG-GUT68007.fa</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.004460175719849913</v>
+        <v>0.9999961882239619</v>
       </c>
       <c r="C254" t="n">
-        <v>0.9955398242801501</v>
+        <v>3.811776038106626e-06</v>
       </c>
       <c r="D254" t="n">
-        <v>0.9955398242801501</v>
+        <v>0.9999961882239619</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91259.fa</t>
+          <t>even_MAG-GUT68023.fa</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.9993437519221148</v>
+        <v>0.9999931186607529</v>
       </c>
       <c r="C255" t="n">
-        <v>0.0006562480778852314</v>
+        <v>6.881339247120707e-06</v>
       </c>
       <c r="D255" t="n">
-        <v>0.9993437519221148</v>
+        <v>0.9999931186607529</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -7073,17 +7073,17 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91528.fa</t>
+          <t>even_MAG-GUT68145.fa</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.9997814015997363</v>
+        <v>0.9999806236763823</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0002185984002636766</v>
+        <v>1.937632361771678e-05</v>
       </c>
       <c r="D256" t="n">
-        <v>0.9997814015997363</v>
+        <v>0.9999806236763823</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -7099,17 +7099,17 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91549.fa</t>
+          <t>even_MAG-GUT68157.fa</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.9995306768639528</v>
+        <v>0.9999967223855801</v>
       </c>
       <c r="C257" t="n">
-        <v>0.00046932313604717</v>
+        <v>3.277614419878109e-06</v>
       </c>
       <c r="D257" t="n">
-        <v>0.9995306768639528</v>
+        <v>0.9999967223855801</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -7125,17 +7125,17 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91633.fa</t>
+          <t>even_MAG-GUT68181.fa</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.999855040639284</v>
+        <v>0.9999796632543403</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0001449593607160606</v>
+        <v>2.033674565966245e-05</v>
       </c>
       <c r="D258" t="n">
-        <v>0.999855040639284</v>
+        <v>0.9999796632543403</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -7151,17 +7151,17 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91733.fa</t>
+          <t>even_MAG-GUT68189.fa</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.9999835708136954</v>
+        <v>0.9999713227812398</v>
       </c>
       <c r="C259" t="n">
-        <v>1.64291863045735e-05</v>
+        <v>2.867721876025769e-05</v>
       </c>
       <c r="D259" t="n">
-        <v>0.9999835708136954</v>
+        <v>0.9999713227812398</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -7177,17 +7177,17 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91735.fa</t>
+          <t>even_MAG-GUT68190.fa</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.9999835708136954</v>
+        <v>0.9999849162081874</v>
       </c>
       <c r="C260" t="n">
-        <v>1.64291863045735e-05</v>
+        <v>1.508379181262549e-05</v>
       </c>
       <c r="D260" t="n">
-        <v>0.9999835708136954</v>
+        <v>0.9999849162081874</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -7203,17 +7203,17 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91835.fa</t>
+          <t>even_MAG-GUT68197.fa</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.9985102400242912</v>
+        <v>0.9999929843281016</v>
       </c>
       <c r="C261" t="n">
-        <v>0.001489759975708785</v>
+        <v>7.015671898472504e-06</v>
       </c>
       <c r="D261" t="n">
-        <v>0.9985102400242912</v>
+        <v>0.9999929843281016</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -7229,17 +7229,17 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91865.fa</t>
+          <t>even_MAG-GUT68245.fa</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.9992916046787487</v>
+        <v>0.9994829139007706</v>
       </c>
       <c r="C262" t="n">
-        <v>0.0007083953212513774</v>
+        <v>0.000517086099229355</v>
       </c>
       <c r="D262" t="n">
-        <v>0.9992916046787487</v>
+        <v>0.9994829139007706</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -7255,17 +7255,17 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92065.fa</t>
+          <t>even_MAG-GUT68475.fa</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.9999755758492047</v>
+        <v>0.9999990127551399</v>
       </c>
       <c r="C263" t="n">
-        <v>2.442415079531484e-05</v>
+        <v>9.872448600541203e-07</v>
       </c>
       <c r="D263" t="n">
-        <v>0.9999755758492047</v>
+        <v>0.9999990127551399</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -7281,69 +7281,69 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92079.fa</t>
+          <t>even_MAG-GUT6856.fa</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.9984808637043885</v>
+        <v>0.009197618808424957</v>
       </c>
       <c r="C264" t="n">
-        <v>0.001519136295611517</v>
+        <v>0.990802381191575</v>
       </c>
       <c r="D264" t="n">
-        <v>0.9984808637043885</v>
+        <v>0.990802381191575</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92127.fa</t>
+          <t>even_MAG-GUT68598.fa</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.9994996417593647</v>
+        <v>1.28142708444301e-07</v>
       </c>
       <c r="C265" t="n">
-        <v>0.0005003582406352862</v>
+        <v>0.9999998718572916</v>
       </c>
       <c r="D265" t="n">
-        <v>0.9994996417593647</v>
+        <v>0.9999998718572916</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>c__Actinobacteria</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9523.fa</t>
+          <t>even_MAG-GUT68642.fa</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.9999969330068778</v>
+        <v>0.999972250826033</v>
       </c>
       <c r="C266" t="n">
-        <v>3.066993122300251e-06</v>
+        <v>2.774917396699331e-05</v>
       </c>
       <c r="D266" t="n">
-        <v>0.9999969330068778</v>
+        <v>0.999972250826033</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -7359,50 +7359,1194 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9760.fa</t>
+          <t>even_MAG-GUT68659.fa</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>6.011603156674816e-05</v>
+        <v>0.9999960229810579</v>
       </c>
       <c r="C267" t="n">
-        <v>0.9999398839684333</v>
+        <v>3.977018942077764e-06</v>
       </c>
       <c r="D267" t="n">
-        <v>0.9999398839684333</v>
+        <v>0.9999960229810579</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinobacteria</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT68697.fa</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0.999992294356286</v>
+      </c>
+      <c r="C268" t="n">
+        <v>7.705643714016656e-06</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.999992294356286</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68968.fa</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0.9999800676944088</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1.993230559119267e-05</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.9999800676944088</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69048.fa</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0.9999973966588142</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2.603341185798153e-06</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.9999973966588142</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69064.fa</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0.9998665031337678</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.0001334968662322154</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.9998665031337678</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69117.fa</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0.9999928580228437</v>
+      </c>
+      <c r="C272" t="n">
+        <v>7.141977156358844e-06</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.9999928580228437</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69121.fa</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>0.9999899733360634</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1.002666393659379e-05</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.9999899733360634</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69224.fa</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0.9999807298295028</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1.927017049720602e-05</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.9999807298295028</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69229.fa</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0.9998637438647437</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.0001362561352561967</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.9998637438647437</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69253.fa</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0.9999993585904007</v>
+      </c>
+      <c r="C276" t="n">
+        <v>6.414095993066519e-07</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.9999993585904007</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69434.fa</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0.999956445201433</v>
+      </c>
+      <c r="C277" t="n">
+        <v>4.35547985669828e-05</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.999956445201433</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69447.fa</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0.9999684626124572</v>
+      </c>
+      <c r="C278" t="n">
+        <v>3.153738754279056e-05</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.9999684626124572</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74324.fa</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0.9999953395326104</v>
+      </c>
+      <c r="C279" t="n">
+        <v>4.66046738954088e-06</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.9999953395326104</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74347.fa</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0.9999934600455961</v>
+      </c>
+      <c r="C280" t="n">
+        <v>6.539954403863043e-06</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.9999934600455961</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT76034.fa</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0.7119962999395737</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.2880037000604262</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.7119962999395737</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7772.fa</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0.9999887242509351</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1.127574906494015e-05</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.9999887242509351</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT79219.fa</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0.0002804703053785884</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.9997195296946214</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.9997195296946214</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80568.fa</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.9999993228644039</v>
+      </c>
+      <c r="C284" t="n">
+        <v>6.771355961218112e-07</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.9999993228644039</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80819.fa</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.03021665305102805</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.9697833469489719</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.9697833469489719</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81959.fa</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0.9999366769374198</v>
+      </c>
+      <c r="C286" t="n">
+        <v>6.332306258022249e-05</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.9999366769374198</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82008.fa</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1.494151335990068e-08</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.9999999850584866</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.9999999850584866</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85070.fa</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0.9999972224242791</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2.777575720907455e-06</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.9999972224242791</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85133.fa</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0.000191179783727069</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.9998088202162729</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.9998088202162729</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86606.fa</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0.9999957840790719</v>
+      </c>
+      <c r="C290" t="n">
+        <v>4.215920928111011e-06</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.9999957840790719</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT8776.fa</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1.101880766152252e-05</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.9999889811923385</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.9999889811923385</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88052.fa</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0.9999986334599433</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1.366540056705405e-06</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.9999986334599433</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88444.fa</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0.9999888997079166</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1.110029208342766e-05</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.9999888997079166</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89959.fa</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>0.005296108853313108</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.9947038911466869</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.9947038911466869</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9016.fa</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>0.9999994907102265</v>
+      </c>
+      <c r="C295" t="n">
+        <v>5.092897734111069e-07</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.9999994907102265</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90583.fa</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0.004460175719849913</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.9955398242801501</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.9955398242801501</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91259.fa</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>0.9993437519221148</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.0006562480778852314</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.9993437519221148</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91528.fa</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0.9997814015997363</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.0002185984002636766</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.9997814015997363</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91549.fa</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0.9995306768639528</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.00046932313604717</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.9995306768639528</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91633.fa</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0.999855040639284</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.0001449593607160606</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.999855040639284</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91733.fa</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0.9999835708136954</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1.64291863045735e-05</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.9999835708136954</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91735.fa</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0.9999835708136954</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1.64291863045735e-05</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.9999835708136954</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91835.fa</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0.9985102400242912</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.001489759975708785</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.9985102400242912</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91865.fa</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0.9992916046787487</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.0007083953212513774</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.9992916046787487</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91947.fa</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0.9999821462556289</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1.785374437109026e-05</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.9999821462556289</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92065.fa</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.9999755758492047</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2.442415079531484e-05</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.9999755758492047</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92079.fa</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.9984808637043885</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.001519136295611517</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.9984808637043885</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92127.fa</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.9994996417593647</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.0005003582406352862</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.9994996417593647</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9228.fa</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1.447778795737875e-06</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.9999985522212043</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.9999985522212043</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9523.fa</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0.9999969330068778</v>
+      </c>
+      <c r="C310" t="n">
+        <v>3.066993122300251e-06</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.9999969330068778</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9760.fa</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>6.011603156674816e-05</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.9999398839684333</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.9999398839684333</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>c__Coriobacteriia</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT988.fa</t>
         </is>
       </c>
-      <c r="B268" t="n">
+      <c r="B312" t="n">
         <v>0.998502178688596</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C312" t="n">
         <v>0.001497821311404019</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D312" t="n">
         <v>0.998502178688596</v>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>c__Actinobacteria</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>c__Actinobacteria</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
         <is>
           <t>c__Actinobacteria</t>
         </is>
